--- a/Contracts Traded.xlsx
+++ b/Contracts Traded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da52c24a9933acf4/Documents/WHL/Misbah/Docs - Misbah/WHL-exports-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="120_S{638F88E7-13A2-5AE5-8CCF-D4421AA8407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{583C399C-D8D6-48BE-ACF0-ECD9053FA63F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="120_S{638F88E7-13A2-5AE5-8CCF-D4421AA8407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C3930D7-9F46-4F1A-B649-9EE215F693FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B25BEA1-06F2-49A6-909D-F47AD7FB83DE}"/>
   </bookViews>
@@ -1208,6 +1208,707 @@
   </cellStyles>
   <dxfs count="149">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1758,208 +2459,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.000"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1970,458 +2490,51 @@
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.000"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2429,6 +2542,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2436,6 +2550,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2443,96 +2558,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2545,32 +2571,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4419,7 +4419,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45877.570563773152" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="371" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45877.581652430556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="371" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
   <cacheSource type="worksheet">
     <worksheetSource name="CT"/>
   </cacheSource>
@@ -20050,13 +20050,13 @@
     <dataField name=" Gross Margin" fld="23" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="76">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -20069,7 +20069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -20082,7 +20082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="106">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20091,7 +20091,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20100,7 +20100,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="104">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20109,7 +20109,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -20123,7 +20123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -20137,19 +20137,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="101">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="99">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="98">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20403,13 +20403,13 @@
     <dataField name=" Gross Margin" fld="23" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="39">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20418,7 +20418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20427,7 +20427,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20436,7 +20436,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20445,16 +20445,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="67">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="65">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="64">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -20485,100 +20485,100 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}" name="CT" displayName="CT" ref="A2:AM374" totalsRowCount="1" headerRowDxfId="148">
   <autoFilter ref="A2:AM373" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="132" totalsRowDxfId="131">
+    <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="147" totalsRowDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="146" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="145" totalsRowDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="144" totalsRowDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="142" totalsRowDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="141" totalsRowDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="25">
       <totalsRowFormula>CT[[#Totals],[PC Qty (MT)]]-CT[[#Totals],[Container Qty]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="130" totalsRowDxfId="129"/>
-    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="139" totalsRowDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="138" totalsRowDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="137" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="21"/>
+    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="135" totalsRowDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="134" totalsRowDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="18">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[PC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="17">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(CT[[#This Row],[Supplier Final Price]]&lt;&gt;0,(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]])+20%*(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Column2" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Column1" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="130" totalsRowDxfId="15"/>
+    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Column2" dataDxfId="129" totalsRowDxfId="14"/>
+    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Column1" dataDxfId="128" totalsRowDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="127" totalsRowDxfId="12">
       <calculatedColumnFormula>IFERROR(1250/CT[[#This Row],[Container Qty]]+50/SUM($F$3:$F$12)+600/SUM($F$3:$F$12),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin Per MT" totalsRowFunction="average" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin Per MT" totalsRowFunction="average" dataDxfId="126" totalsRowDxfId="11">
       <calculatedColumnFormula>IFERROR(AE3-(O3+CT[[#This Row],[Cost Per MT]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="10">
       <calculatedColumnFormula>IFERROR(CT[[#This Row],[Margin Per MT]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Column5" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="95" totalsRowDxfId="94"/>
-    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="124" totalsRowDxfId="9"/>
+    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Column5" dataDxfId="123" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="121" totalsRowDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="120" totalsRowDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="118" totalsRowDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="3">
       <calculatedColumnFormula>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{55725ACA-5363-449D-B3B5-AE2F51F334AD}" name="POD"/>
-    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="79"/>
-    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges" dataDxfId="78"/>
-    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="77"/>
+    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="114" totalsRowDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="113"/>
+    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges" dataDxfId="112"/>
+    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J7" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J7" totalsRowCount="1" headerRowDxfId="96" dataDxfId="95" totalsRowDxfId="94">
   <autoFilter ref="A1:J6" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="93" totalsRowDxfId="92">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Container Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="87" totalsRowDxfId="86">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[BL Number])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="85" totalsRowDxfId="84">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[BL Number]],CT[BL Number],CT[SOB Date])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[SC'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="81" totalsRowDxfId="80">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Sales Rate/MT (USD)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer Final Price])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[PI'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[CI'#])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20936,7 +20936,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G374" sqref="G374"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58315,21 +58315,21 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D375:D801 E3:E65 E67:E374">
-    <cfRule type="duplicateValues" dxfId="29" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q375">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",Q375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",Q375)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG375">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",AG375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",AG375)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59373,7 +59373,7 @@
     <row r="8" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="24" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Contracts Traded.xlsx
+++ b/Contracts Traded.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/DA52C24A9933ACF4/Documents/WHL/Misbah/Docs - Misbah/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da52c24a9933acf4/Documents/WHL/Misbah/Docs - Misbah/WHL-exports-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="14_{E4FF24CB-0059-436D-911E-489241F6BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{633EE5F4-7000-4C4E-A1D0-36DD4A1F21CA}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="14_{E4FF24CB-0059-436D-911E-489241F6BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2CEA9BA-5AC7-4291-B708-79D100E50AD9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{8B25BEA1-06F2-49A6-909D-F47AD7FB83DE}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="31" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1284,7 +1284,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D2220298-5CBE-47F5-B672-37FE2A3033B3}"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="149">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1986,6 +1986,94 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -4412,7 +4500,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Misbah Khan" refreshedDate="45887.333433333333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="371" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Misbah Khan" refreshedDate="45887.454228935188" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="371" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
   <cacheSource type="worksheet">
     <worksheetSource name="CT"/>
   </cacheSource>
@@ -4564,7 +4652,7 @@
     <cacheField name="Cost Per MT" numFmtId="165">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1.2457954403886879" maxValue="58.818423486737849"/>
     </cacheField>
-    <cacheField name="Margin Per MT" numFmtId="165">
+    <cacheField name="Margin/MT" numFmtId="165">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="15.665576513262124" maxValue="33.75420455961131"/>
     </cacheField>
     <cacheField name="Gross Margin" numFmtId="165">
@@ -19843,7 +19931,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1333CDD6-9419-4B1F-AA10-E037DBD897CF}" name="PivotTable1" cacheId="16" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Puchase Contract">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1333CDD6-9419-4B1F-AA10-E037DBD897CF}" name="PivotTable1" cacheId="31" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Puchase Contract">
   <location ref="A3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -19955,7 +20043,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField name="Gross Margin2" dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -20043,13 +20131,13 @@
     <dataField name=" Gross Margin" fld="23" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="86">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -20062,7 +20150,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -20075,7 +20163,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="106">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20084,7 +20172,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20093,7 +20181,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="104">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20102,7 +20190,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -20116,7 +20204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -20130,19 +20218,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="101">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="99">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="98">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20218,7 +20306,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9F7C9F-35DE-4B78-8D6A-04536891CED8}" name="PivotTable12" cacheId="16" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Puchase Contract">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9F7C9F-35DE-4B78-8D6A-04536891CED8}" name="PivotTable12" cacheId="31" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Puchase Contract">
   <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -20330,7 +20418,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField name="Gross Margin2" dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -20396,13 +20484,13 @@
     <dataField name=" Gross Margin" fld="23" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="49">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20411,7 +20499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20420,7 +20508,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20429,7 +20517,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20438,16 +20526,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="67">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="65">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="64">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -20475,103 +20563,103 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}" name="CT" displayName="CT" ref="A2:AM374" totalsRowCount="1" headerRowDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}" name="CT" displayName="CT" ref="A2:AM374" totalsRowCount="1" headerRowDxfId="148">
   <autoFilter ref="A2:AM373" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}"/>
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="123" totalsRowDxfId="32"/>
-    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="122" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="121" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="120" totalsRowDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="118" totalsRowDxfId="27"/>
-    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="117" totalsRowDxfId="26"/>
-    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="25">
+    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="147" totalsRowDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="146" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="145" totalsRowDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="144" totalsRowDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="142" totalsRowDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="141" totalsRowDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="25">
       <totalsRowFormula>CT[[#Totals],[PC Qty (MT)]]-CT[[#Totals],[Container Qty]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="115" totalsRowDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="114" totalsRowDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="113" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="21"/>
-    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="111" totalsRowDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="110" totalsRowDxfId="19"/>
-    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="18">
+    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="139" totalsRowDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="138" totalsRowDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="137" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="21"/>
+    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="135" totalsRowDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="134" totalsRowDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="18">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[PC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="17">
+    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="17">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="16">
+    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(CT[[#This Row],[Supplier Final Price]]&lt;&gt;0,(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]])+20%*(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="106" totalsRowDxfId="15"/>
-    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Column2" dataDxfId="105" totalsRowDxfId="14"/>
-    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="104" totalsRowDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="103" totalsRowDxfId="12">
+    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="130" totalsRowDxfId="15"/>
+    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Column2" dataDxfId="129" totalsRowDxfId="14"/>
+    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="128" totalsRowDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="127" totalsRowDxfId="12">
       <calculatedColumnFormula>IFERROR(1250/CT[[#This Row],[Container Qty]]+50/SUM($F$3:$F$12)+600/SUM($F$3:$F$12),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="102" totalsRowDxfId="11">
+    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="126" totalsRowDxfId="11">
       <calculatedColumnFormula>IFERROR(AE3-(O3+CT[[#This Row],[Cost Per MT]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="10">
+    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="10">
       <calculatedColumnFormula>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="100" totalsRowDxfId="9"/>
-    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Column5" dataDxfId="99" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="97" totalsRowDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="96" totalsRowDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="94" totalsRowDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="3">
+    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="124" totalsRowDxfId="9"/>
+    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Column5" dataDxfId="123" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="121" totalsRowDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="120" totalsRowDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="118" totalsRowDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="3">
       <calculatedColumnFormula>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="2">
+    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="1">
+    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{55725ACA-5363-449D-B3B5-AE2F51F334AD}" name="POD"/>
-    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="90" totalsRowDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="89"/>
-    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges" dataDxfId="88"/>
-    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="87"/>
+    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="114" totalsRowDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="113"/>
+    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges" dataDxfId="112"/>
+    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J7" totalsRowCount="1" headerRowDxfId="72" dataDxfId="71" totalsRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J7" totalsRowCount="1" headerRowDxfId="96" dataDxfId="95" totalsRowDxfId="94">
   <autoFilter ref="A1:J6" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="93" totalsRowDxfId="92">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Container Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="87" totalsRowDxfId="86">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[BL Number])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="85" totalsRowDxfId="84">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[BL Number]],CT[BL Number],CT[SOB Date])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[SC'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="81" totalsRowDxfId="80">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Sales Rate/MT (USD)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer Final Price])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[PI'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[CI'#])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20929,7 +21017,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomRight" activeCell="AD12" sqref="AD3:AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21210,15 +21298,14 @@
         <v>45743</v>
       </c>
       <c r="AD3" s="14">
-        <f>240/10</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="7">
         <v>360</v>
       </c>
       <c r="AF3" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG3" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -21226,7 +21313,7 @@
       </c>
       <c r="AH3" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>-518.40000000000055</v>
+        <v>-878.40000000000055</v>
       </c>
       <c r="AI3" t="s">
         <v>8</v>
@@ -21335,15 +21422,14 @@
         <v>45743</v>
       </c>
       <c r="AD4" s="14">
-        <f t="shared" ref="AD4:AD12" si="2">240/10</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE4" s="7">
         <v>360</v>
       </c>
       <c r="AF4" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG4" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -21351,7 +21437,7 @@
       </c>
       <c r="AH4" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>-158.39999999999964</v>
+        <v>-518.39999999999964</v>
       </c>
       <c r="AI4" t="s">
         <v>8</v>
@@ -21460,15 +21546,14 @@
         <v>45743</v>
       </c>
       <c r="AD5" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE5" s="7">
         <v>360</v>
       </c>
       <c r="AF5" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG5" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -21476,7 +21561,7 @@
       </c>
       <c r="AH5" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="AI5" t="s">
         <v>8</v>
@@ -21585,15 +21670,14 @@
         <v>45743</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE6" s="7">
         <v>360</v>
       </c>
       <c r="AF6" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG6" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -21601,7 +21685,7 @@
       </c>
       <c r="AH6" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>460.80000000000109</v>
+        <v>100.80000000000109</v>
       </c>
       <c r="AI6" t="s">
         <v>8</v>
@@ -21710,15 +21794,14 @@
         <v>45743</v>
       </c>
       <c r="AD7" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE7" s="7">
         <v>360</v>
       </c>
       <c r="AF7" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG7" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -21726,7 +21809,7 @@
       </c>
       <c r="AH7" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>770.39999999999964</v>
+        <v>410.39999999999964</v>
       </c>
       <c r="AI7" t="s">
         <v>8</v>
@@ -21835,15 +21918,14 @@
         <v>45743</v>
       </c>
       <c r="AD8" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE8" s="7">
         <v>360</v>
       </c>
       <c r="AF8" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG8" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -21851,7 +21933,7 @@
       </c>
       <c r="AH8" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>288</v>
+        <v>-72</v>
       </c>
       <c r="AI8" t="s">
         <v>8</v>
@@ -21960,15 +22042,14 @@
         <v>45743</v>
       </c>
       <c r="AD9" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE9" s="7">
         <v>360</v>
       </c>
       <c r="AF9" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG9" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -21976,7 +22057,7 @@
       </c>
       <c r="AH9" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>288</v>
+        <v>-72</v>
       </c>
       <c r="AI9" t="s">
         <v>8</v>
@@ -22085,15 +22166,14 @@
         <v>45743</v>
       </c>
       <c r="AD10" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE10" s="7">
         <v>360</v>
       </c>
       <c r="AF10" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG10" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -22101,7 +22181,7 @@
       </c>
       <c r="AH10" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>-165.60000000000036</v>
+        <v>-525.60000000000036</v>
       </c>
       <c r="AI10" t="s">
         <v>8</v>
@@ -22210,15 +22290,14 @@
         <v>45743</v>
       </c>
       <c r="AD11" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE11" s="7">
         <v>360</v>
       </c>
       <c r="AF11" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG11" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -22226,7 +22305,7 @@
       </c>
       <c r="AH11" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>669.60000000000036</v>
+        <v>309.60000000000036</v>
       </c>
       <c r="AI11" t="s">
         <v>8</v>
@@ -22335,15 +22414,14 @@
         <v>45743</v>
       </c>
       <c r="AD12" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE12" s="7">
         <v>360</v>
       </c>
       <c r="AF12" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>8640</v>
+        <v>9000</v>
       </c>
       <c r="AG12" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -22351,7 +22429,7 @@
       </c>
       <c r="AH12" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>-280.80000000000109</v>
+        <v>-640.80000000000109</v>
       </c>
       <c r="AI12" t="s">
         <v>8</v>
@@ -22407,7 +22485,7 @@
         <v>64</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" ref="M13:M52" si="3">500/20</f>
+        <f t="shared" ref="M13:M52" si="2">500/20</f>
         <v>25</v>
       </c>
       <c r="N13" s="1">
@@ -22459,7 +22537,7 @@
         <v>45778</v>
       </c>
       <c r="AD13" s="14">
-        <f t="shared" ref="AD13:AD52" si="4">500/20</f>
+        <f t="shared" ref="AD13:AD52" si="3">500/20</f>
         <v>25</v>
       </c>
       <c r="AE13" s="7">
@@ -22531,7 +22609,7 @@
         <v>64</v>
       </c>
       <c r="M14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N14" s="1">
@@ -22583,7 +22661,7 @@
         <v>45778</v>
       </c>
       <c r="AD14" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE14" s="7">
@@ -22655,7 +22733,7 @@
         <v>64</v>
       </c>
       <c r="M15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N15" s="1">
@@ -22707,7 +22785,7 @@
         <v>45778</v>
       </c>
       <c r="AD15" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE15" s="7">
@@ -22779,7 +22857,7 @@
         <v>64</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N16" s="1">
@@ -22831,7 +22909,7 @@
         <v>45778</v>
       </c>
       <c r="AD16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE16" s="7">
@@ -22903,7 +22981,7 @@
         <v>64</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N17" s="1">
@@ -22955,7 +23033,7 @@
         <v>45778</v>
       </c>
       <c r="AD17" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE17" s="7">
@@ -23027,7 +23105,7 @@
         <v>64</v>
       </c>
       <c r="M18" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N18" s="1">
@@ -23151,7 +23229,7 @@
         <v>64</v>
       </c>
       <c r="M19" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N19" s="1">
@@ -23203,7 +23281,7 @@
         <v>45778</v>
       </c>
       <c r="AD19" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE19" s="7">
@@ -23275,7 +23353,7 @@
         <v>64</v>
       </c>
       <c r="M20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N20" s="1">
@@ -23327,7 +23405,7 @@
         <v>45778</v>
       </c>
       <c r="AD20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE20" s="7">
@@ -23399,7 +23477,7 @@
         <v>64</v>
       </c>
       <c r="M21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N21" s="1">
@@ -23451,7 +23529,7 @@
         <v>45778</v>
       </c>
       <c r="AD21" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE21" s="7">
@@ -23523,7 +23601,7 @@
         <v>64</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N22" s="1">
@@ -23575,7 +23653,7 @@
         <v>45778</v>
       </c>
       <c r="AD22" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE22" s="7">
@@ -23647,7 +23725,7 @@
         <v>23</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N23" s="1">
@@ -23699,7 +23777,7 @@
         <v>45778</v>
       </c>
       <c r="AD23" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE23" s="7">
@@ -23771,7 +23849,7 @@
         <v>23</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N24" s="1">
@@ -23823,7 +23901,7 @@
         <v>45778</v>
       </c>
       <c r="AD24" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE24" s="7">
@@ -23895,7 +23973,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N25" s="1">
@@ -23947,7 +24025,7 @@
         <v>45778</v>
       </c>
       <c r="AD25" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE25" s="7">
@@ -24019,7 +24097,7 @@
         <v>23</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N26" s="1">
@@ -24071,7 +24149,7 @@
         <v>45778</v>
       </c>
       <c r="AD26" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE26" s="7">
@@ -24143,7 +24221,7 @@
         <v>23</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N27" s="1">
@@ -24195,7 +24273,7 @@
         <v>45778</v>
       </c>
       <c r="AD27" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE27" s="7">
@@ -24267,7 +24345,7 @@
         <v>23</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N28" s="1">
@@ -24319,7 +24397,7 @@
         <v>45778</v>
       </c>
       <c r="AD28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE28" s="7">
@@ -24391,7 +24469,7 @@
         <v>23</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N29" s="1">
@@ -24443,7 +24521,7 @@
         <v>45778</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE29" s="7">
@@ -24515,7 +24593,7 @@
         <v>23</v>
       </c>
       <c r="M30" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N30" s="1">
@@ -24567,7 +24645,7 @@
         <v>45778</v>
       </c>
       <c r="AD30" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE30" s="7">
@@ -24639,7 +24717,7 @@
         <v>23</v>
       </c>
       <c r="M31" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N31" s="1">
@@ -24691,7 +24769,7 @@
         <v>45778</v>
       </c>
       <c r="AD31" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE31" s="7">
@@ -24763,7 +24841,7 @@
         <v>23</v>
       </c>
       <c r="M32" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N32" s="1">
@@ -24815,7 +24893,7 @@
         <v>45778</v>
       </c>
       <c r="AD32" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE32" s="7">
@@ -24887,7 +24965,7 @@
         <v>23</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N33" s="1">
@@ -24939,7 +25017,7 @@
         <v>45778</v>
       </c>
       <c r="AD33" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE33" s="7">
@@ -25011,7 +25089,7 @@
         <v>23</v>
       </c>
       <c r="M34" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N34" s="1">
@@ -25063,7 +25141,7 @@
         <v>45778</v>
       </c>
       <c r="AD34" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE34" s="7">
@@ -25135,7 +25213,7 @@
         <v>23</v>
       </c>
       <c r="M35" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N35" s="1">
@@ -25187,7 +25265,7 @@
         <v>45778</v>
       </c>
       <c r="AD35" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE35" s="7">
@@ -25259,7 +25337,7 @@
         <v>23</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N36" s="1">
@@ -25311,7 +25389,7 @@
         <v>45778</v>
       </c>
       <c r="AD36" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE36" s="7">
@@ -25383,7 +25461,7 @@
         <v>23</v>
       </c>
       <c r="M37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N37" s="1">
@@ -25435,7 +25513,7 @@
         <v>45778</v>
       </c>
       <c r="AD37" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE37" s="7">
@@ -25507,7 +25585,7 @@
         <v>23</v>
       </c>
       <c r="M38" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N38" s="1">
@@ -25559,7 +25637,7 @@
         <v>45778</v>
       </c>
       <c r="AD38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE38" s="7">
@@ -25631,7 +25709,7 @@
         <v>23</v>
       </c>
       <c r="M39" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N39" s="1">
@@ -25683,7 +25761,7 @@
         <v>45778</v>
       </c>
       <c r="AD39" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE39" s="7">
@@ -25755,7 +25833,7 @@
         <v>23</v>
       </c>
       <c r="M40" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N40" s="1">
@@ -25807,7 +25885,7 @@
         <v>45778</v>
       </c>
       <c r="AD40" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE40" s="7">
@@ -25879,7 +25957,7 @@
         <v>23</v>
       </c>
       <c r="M41" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N41" s="1">
@@ -25931,7 +26009,7 @@
         <v>45778</v>
       </c>
       <c r="AD41" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE41" s="7">
@@ -26003,7 +26081,7 @@
         <v>23</v>
       </c>
       <c r="M42" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N42" s="1">
@@ -26055,7 +26133,7 @@
         <v>45778</v>
       </c>
       <c r="AD42" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE42" s="7">
@@ -26127,7 +26205,7 @@
         <v>23</v>
       </c>
       <c r="M43" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N43" s="1">
@@ -26179,7 +26257,7 @@
         <v>45778</v>
       </c>
       <c r="AD43" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE43" s="7">
@@ -26251,7 +26329,7 @@
         <v>23</v>
       </c>
       <c r="M44" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N44" s="1">
@@ -26303,7 +26381,7 @@
         <v>45778</v>
       </c>
       <c r="AD44" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE44" s="7">
@@ -26375,7 +26453,7 @@
         <v>23</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N45" s="1">
@@ -26427,7 +26505,7 @@
         <v>45778</v>
       </c>
       <c r="AD45" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE45" s="7">
@@ -26499,7 +26577,7 @@
         <v>23</v>
       </c>
       <c r="M46" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N46" s="1">
@@ -26551,7 +26629,7 @@
         <v>45778</v>
       </c>
       <c r="AD46" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE46" s="7">
@@ -26623,7 +26701,7 @@
         <v>23</v>
       </c>
       <c r="M47" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N47" s="1">
@@ -26675,7 +26753,7 @@
         <v>45778</v>
       </c>
       <c r="AD47" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE47" s="7">
@@ -26747,7 +26825,7 @@
         <v>23</v>
       </c>
       <c r="M48" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N48" s="1">
@@ -26799,7 +26877,7 @@
         <v>45778</v>
       </c>
       <c r="AD48" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE48" s="7">
@@ -26871,7 +26949,7 @@
         <v>23</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N49" s="1">
@@ -26923,7 +27001,7 @@
         <v>45778</v>
       </c>
       <c r="AD49" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE49" s="7">
@@ -26995,7 +27073,7 @@
         <v>23</v>
       </c>
       <c r="M50" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N50" s="1">
@@ -27047,7 +27125,7 @@
         <v>45778</v>
       </c>
       <c r="AD50" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE50" s="7">
@@ -27119,7 +27197,7 @@
         <v>23</v>
       </c>
       <c r="M51" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N51" s="1">
@@ -27171,7 +27249,7 @@
         <v>45778</v>
       </c>
       <c r="AD51" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE51" s="7">
@@ -27243,7 +27321,7 @@
         <v>23</v>
       </c>
       <c r="M52" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N52" s="1">
@@ -27295,7 +27373,7 @@
         <v>45778</v>
       </c>
       <c r="AD52" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AE52" s="7">
@@ -27367,7 +27445,7 @@
         <v>23</v>
       </c>
       <c r="M53" s="14">
-        <f t="shared" ref="M53:M112" si="5">500/20</f>
+        <f t="shared" ref="M53:M112" si="4">500/20</f>
         <v>25</v>
       </c>
       <c r="N53" s="1">
@@ -27419,7 +27497,7 @@
         <v>45817</v>
       </c>
       <c r="AD53" s="14">
-        <f t="shared" ref="AD53:AD72" si="6">500/20</f>
+        <f t="shared" ref="AD53:AD72" si="5">500/20</f>
         <v>25</v>
       </c>
       <c r="AE53" s="7">
@@ -27491,7 +27569,7 @@
         <v>23</v>
       </c>
       <c r="M54" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N54" s="1">
@@ -27543,7 +27621,7 @@
         <v>45817</v>
       </c>
       <c r="AD54" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE54" s="7">
@@ -27615,7 +27693,7 @@
         <v>23</v>
       </c>
       <c r="M55" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N55" s="1">
@@ -27667,7 +27745,7 @@
         <v>45817</v>
       </c>
       <c r="AD55" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE55" s="7">
@@ -27739,7 +27817,7 @@
         <v>23</v>
       </c>
       <c r="M56" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N56" s="1">
@@ -27791,7 +27869,7 @@
         <v>45817</v>
       </c>
       <c r="AD56" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE56" s="7">
@@ -27863,7 +27941,7 @@
         <v>23</v>
       </c>
       <c r="M57" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N57" s="1">
@@ -27915,7 +27993,7 @@
         <v>45817</v>
       </c>
       <c r="AD57" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE57" s="7">
@@ -27987,7 +28065,7 @@
         <v>23</v>
       </c>
       <c r="M58" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N58" s="1">
@@ -28039,7 +28117,7 @@
         <v>45817</v>
       </c>
       <c r="AD58" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE58" s="7">
@@ -28111,7 +28189,7 @@
         <v>23</v>
       </c>
       <c r="M59" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N59" s="1">
@@ -28163,7 +28241,7 @@
         <v>45817</v>
       </c>
       <c r="AD59" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE59" s="7">
@@ -28235,7 +28313,7 @@
         <v>23</v>
       </c>
       <c r="M60" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N60" s="1">
@@ -28287,7 +28365,7 @@
         <v>45817</v>
       </c>
       <c r="AD60" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE60" s="7">
@@ -28359,7 +28437,7 @@
         <v>23</v>
       </c>
       <c r="M61" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N61" s="1">
@@ -28411,7 +28489,7 @@
         <v>45817</v>
       </c>
       <c r="AD61" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE61" s="7">
@@ -28483,7 +28561,7 @@
         <v>23</v>
       </c>
       <c r="M62" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N62" s="1">
@@ -28535,7 +28613,7 @@
         <v>45817</v>
       </c>
       <c r="AD62" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE62" s="7">
@@ -28607,7 +28685,7 @@
         <v>23</v>
       </c>
       <c r="M63" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N63" s="1">
@@ -28659,7 +28737,7 @@
         <v>45817</v>
       </c>
       <c r="AD63" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE63" s="7">
@@ -28729,7 +28807,7 @@
         <v>23</v>
       </c>
       <c r="M64" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N64" s="1">
@@ -28781,7 +28859,7 @@
         <v>45817</v>
       </c>
       <c r="AD64" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE64" s="7">
@@ -28851,7 +28929,7 @@
         <v>23</v>
       </c>
       <c r="M65" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N65" s="1">
@@ -28903,7 +28981,7 @@
         <v>45817</v>
       </c>
       <c r="AD65" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE65" s="7">
@@ -28973,7 +29051,7 @@
         <v>23</v>
       </c>
       <c r="M66" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N66" s="1">
@@ -29025,7 +29103,7 @@
         <v>45817</v>
       </c>
       <c r="AD66" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE66" s="7">
@@ -29095,7 +29173,7 @@
         <v>23</v>
       </c>
       <c r="M67" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N67" s="1">
@@ -29147,7 +29225,7 @@
         <v>45817</v>
       </c>
       <c r="AD67" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE67" s="7">
@@ -29217,7 +29295,7 @@
         <v>23</v>
       </c>
       <c r="M68" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N68" s="1">
@@ -29269,7 +29347,7 @@
         <v>45817</v>
       </c>
       <c r="AD68" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE68" s="7">
@@ -29339,7 +29417,7 @@
         <v>23</v>
       </c>
       <c r="M69" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N69" s="1">
@@ -29391,7 +29469,7 @@
         <v>45817</v>
       </c>
       <c r="AD69" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE69" s="7">
@@ -29461,7 +29539,7 @@
         <v>23</v>
       </c>
       <c r="M70" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N70" s="1">
@@ -29513,7 +29591,7 @@
         <v>45817</v>
       </c>
       <c r="AD70" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE70" s="7">
@@ -29583,7 +29661,7 @@
         <v>23</v>
       </c>
       <c r="M71" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N71" s="1">
@@ -29635,7 +29713,7 @@
         <v>45817</v>
       </c>
       <c r="AD71" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE71" s="7">
@@ -29705,7 +29783,7 @@
         <v>23</v>
       </c>
       <c r="M72" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N72" s="1">
@@ -29757,7 +29835,7 @@
         <v>45817</v>
       </c>
       <c r="AD72" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AE72" s="7">
@@ -29814,7 +29892,7 @@
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N73" s="1">
@@ -29864,7 +29942,7 @@
         <v>45861</v>
       </c>
       <c r="AD73" s="14">
-        <f t="shared" ref="AD73:AD136" si="7">7500/300</f>
+        <f t="shared" ref="AD73:AD136" si="6">7500/300</f>
         <v>25</v>
       </c>
       <c r="AE73" s="7">
@@ -29919,7 +29997,7 @@
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N74" s="1">
@@ -29969,7 +30047,7 @@
         <v>45861</v>
       </c>
       <c r="AD74" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE74" s="7">
@@ -30024,7 +30102,7 @@
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N75" s="1">
@@ -30074,7 +30152,7 @@
         <v>45861</v>
       </c>
       <c r="AD75" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE75" s="7">
@@ -30129,7 +30207,7 @@
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N76" s="1">
@@ -30179,7 +30257,7 @@
         <v>45861</v>
       </c>
       <c r="AD76" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE76" s="7">
@@ -30234,7 +30312,7 @@
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N77" s="1">
@@ -30284,7 +30362,7 @@
         <v>45861</v>
       </c>
       <c r="AD77" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE77" s="7">
@@ -30339,7 +30417,7 @@
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N78" s="1">
@@ -30389,7 +30467,7 @@
         <v>45861</v>
       </c>
       <c r="AD78" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE78" s="7">
@@ -30444,7 +30522,7 @@
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N79" s="1">
@@ -30494,7 +30572,7 @@
         <v>45861</v>
       </c>
       <c r="AD79" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE79" s="7">
@@ -30549,7 +30627,7 @@
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N80" s="1">
@@ -30599,7 +30677,7 @@
         <v>45861</v>
       </c>
       <c r="AD80" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE80" s="7">
@@ -30654,7 +30732,7 @@
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N81" s="1">
@@ -30704,7 +30782,7 @@
         <v>45861</v>
       </c>
       <c r="AD81" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE81" s="7">
@@ -30759,7 +30837,7 @@
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N82" s="1">
@@ -30809,7 +30887,7 @@
         <v>45861</v>
       </c>
       <c r="AD82" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE82" s="7">
@@ -30864,7 +30942,7 @@
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N83" s="1">
@@ -30914,7 +30992,7 @@
         <v>45861</v>
       </c>
       <c r="AD83" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE83" s="7">
@@ -30969,7 +31047,7 @@
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N84" s="1">
@@ -31019,7 +31097,7 @@
         <v>45861</v>
       </c>
       <c r="AD84" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE84" s="7">
@@ -31074,7 +31152,7 @@
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N85" s="1">
@@ -31124,7 +31202,7 @@
         <v>45861</v>
       </c>
       <c r="AD85" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE85" s="7">
@@ -31179,7 +31257,7 @@
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N86" s="1">
@@ -31229,7 +31307,7 @@
         <v>45861</v>
       </c>
       <c r="AD86" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE86" s="7">
@@ -31284,7 +31362,7 @@
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N87" s="1">
@@ -31334,7 +31412,7 @@
         <v>45861</v>
       </c>
       <c r="AD87" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE87" s="7">
@@ -31389,7 +31467,7 @@
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N88" s="1">
@@ -31439,7 +31517,7 @@
         <v>45861</v>
       </c>
       <c r="AD88" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE88" s="7">
@@ -31494,7 +31572,7 @@
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N89" s="1">
@@ -31544,7 +31622,7 @@
         <v>45861</v>
       </c>
       <c r="AD89" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE89" s="7">
@@ -31599,7 +31677,7 @@
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N90" s="1">
@@ -31649,7 +31727,7 @@
         <v>45861</v>
       </c>
       <c r="AD90" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE90" s="7">
@@ -31704,7 +31782,7 @@
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N91" s="1">
@@ -31754,7 +31832,7 @@
         <v>45861</v>
       </c>
       <c r="AD91" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE91" s="7">
@@ -31809,7 +31887,7 @@
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N92" s="1">
@@ -31859,7 +31937,7 @@
         <v>45861</v>
       </c>
       <c r="AD92" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE92" s="7">
@@ -31914,7 +31992,7 @@
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N93" s="1">
@@ -31964,7 +32042,7 @@
         <v>45861</v>
       </c>
       <c r="AD93" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE93" s="7">
@@ -32019,7 +32097,7 @@
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N94" s="1">
@@ -32069,7 +32147,7 @@
         <v>45861</v>
       </c>
       <c r="AD94" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE94" s="7">
@@ -32124,7 +32202,7 @@
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N95" s="1">
@@ -32174,7 +32252,7 @@
         <v>45861</v>
       </c>
       <c r="AD95" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE95" s="7">
@@ -32229,7 +32307,7 @@
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N96" s="1">
@@ -32279,7 +32357,7 @@
         <v>45861</v>
       </c>
       <c r="AD96" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE96" s="7">
@@ -32334,7 +32412,7 @@
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N97" s="1">
@@ -32384,7 +32462,7 @@
         <v>45861</v>
       </c>
       <c r="AD97" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE97" s="7">
@@ -32439,7 +32517,7 @@
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N98" s="1">
@@ -32489,7 +32567,7 @@
         <v>45861</v>
       </c>
       <c r="AD98" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE98" s="7">
@@ -32544,7 +32622,7 @@
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N99" s="1">
@@ -32594,7 +32672,7 @@
         <v>45861</v>
       </c>
       <c r="AD99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE99" s="7">
@@ -32649,7 +32727,7 @@
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N100" s="1">
@@ -32699,7 +32777,7 @@
         <v>45861</v>
       </c>
       <c r="AD100" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE100" s="7">
@@ -32754,7 +32832,7 @@
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N101" s="1">
@@ -32804,7 +32882,7 @@
         <v>45861</v>
       </c>
       <c r="AD101" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE101" s="7">
@@ -32859,7 +32937,7 @@
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N102" s="1">
@@ -32909,7 +32987,7 @@
         <v>45861</v>
       </c>
       <c r="AD102" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE102" s="7">
@@ -32964,7 +33042,7 @@
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N103" s="1">
@@ -33014,7 +33092,7 @@
         <v>45861</v>
       </c>
       <c r="AD103" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE103" s="7">
@@ -33069,7 +33147,7 @@
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N104" s="1">
@@ -33119,7 +33197,7 @@
         <v>45861</v>
       </c>
       <c r="AD104" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE104" s="7">
@@ -33174,7 +33252,7 @@
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N105" s="1">
@@ -33224,7 +33302,7 @@
         <v>45861</v>
       </c>
       <c r="AD105" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE105" s="7">
@@ -33279,7 +33357,7 @@
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N106" s="1">
@@ -33329,7 +33407,7 @@
         <v>45861</v>
       </c>
       <c r="AD106" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE106" s="7">
@@ -33384,7 +33462,7 @@
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N107" s="1">
@@ -33434,7 +33512,7 @@
         <v>45861</v>
       </c>
       <c r="AD107" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE107" s="7">
@@ -33489,7 +33567,7 @@
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N108" s="1">
@@ -33539,7 +33617,7 @@
         <v>45861</v>
       </c>
       <c r="AD108" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE108" s="7">
@@ -33594,7 +33672,7 @@
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N109" s="1">
@@ -33644,7 +33722,7 @@
         <v>45861</v>
       </c>
       <c r="AD109" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE109" s="7">
@@ -33699,7 +33777,7 @@
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N110" s="1">
@@ -33749,7 +33827,7 @@
         <v>45861</v>
       </c>
       <c r="AD110" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE110" s="7">
@@ -33804,7 +33882,7 @@
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N111" s="1">
@@ -33854,7 +33932,7 @@
         <v>45861</v>
       </c>
       <c r="AD111" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE111" s="7">
@@ -33909,7 +33987,7 @@
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N112" s="1">
@@ -33959,7 +34037,7 @@
         <v>45861</v>
       </c>
       <c r="AD112" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE112" s="7">
@@ -34061,7 +34139,7 @@
         <v>45861</v>
       </c>
       <c r="AD113" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE113" s="7">
@@ -34163,7 +34241,7 @@
         <v>45861</v>
       </c>
       <c r="AD114" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE114" s="7">
@@ -34265,7 +34343,7 @@
         <v>45861</v>
       </c>
       <c r="AD115" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE115" s="7">
@@ -34367,7 +34445,7 @@
         <v>45861</v>
       </c>
       <c r="AD116" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE116" s="7">
@@ -34469,7 +34547,7 @@
         <v>45861</v>
       </c>
       <c r="AD117" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE117" s="7">
@@ -34571,7 +34649,7 @@
         <v>45861</v>
       </c>
       <c r="AD118" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE118" s="7">
@@ -34673,7 +34751,7 @@
         <v>45861</v>
       </c>
       <c r="AD119" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE119" s="7">
@@ -34775,7 +34853,7 @@
         <v>45861</v>
       </c>
       <c r="AD120" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE120" s="7">
@@ -34877,7 +34955,7 @@
         <v>45861</v>
       </c>
       <c r="AD121" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE121" s="7">
@@ -34979,7 +35057,7 @@
         <v>45861</v>
       </c>
       <c r="AD122" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE122" s="7">
@@ -35081,7 +35159,7 @@
         <v>45861</v>
       </c>
       <c r="AD123" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE123" s="7">
@@ -35183,7 +35261,7 @@
         <v>45861</v>
       </c>
       <c r="AD124" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE124" s="7">
@@ -35285,7 +35363,7 @@
         <v>45861</v>
       </c>
       <c r="AD125" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE125" s="7">
@@ -35387,7 +35465,7 @@
         <v>45861</v>
       </c>
       <c r="AD126" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE126" s="7">
@@ -35489,7 +35567,7 @@
         <v>45861</v>
       </c>
       <c r="AD127" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE127" s="7">
@@ -35591,7 +35669,7 @@
         <v>45861</v>
       </c>
       <c r="AD128" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE128" s="7">
@@ -35693,7 +35771,7 @@
         <v>45861</v>
       </c>
       <c r="AD129" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE129" s="7">
@@ -35795,7 +35873,7 @@
         <v>45861</v>
       </c>
       <c r="AD130" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE130" s="7">
@@ -35897,7 +35975,7 @@
         <v>45861</v>
       </c>
       <c r="AD131" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE131" s="7">
@@ -35999,7 +36077,7 @@
         <v>45861</v>
       </c>
       <c r="AD132" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE132" s="7">
@@ -36091,7 +36169,7 @@
         <v>45861</v>
       </c>
       <c r="AD133" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE133" s="7">
@@ -36183,7 +36261,7 @@
         <v>45861</v>
       </c>
       <c r="AD134" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE134" s="7">
@@ -36275,7 +36353,7 @@
         <v>45861</v>
       </c>
       <c r="AD135" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE135" s="7">
@@ -36367,7 +36445,7 @@
         <v>45861</v>
       </c>
       <c r="AD136" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE136" s="7">
@@ -36459,7 +36537,7 @@
         <v>45861</v>
       </c>
       <c r="AD137" s="14">
-        <f t="shared" ref="AD137:AD200" si="8">7500/300</f>
+        <f t="shared" ref="AD137:AD200" si="7">7500/300</f>
         <v>25</v>
       </c>
       <c r="AE137" s="7">
@@ -36551,7 +36629,7 @@
         <v>45861</v>
       </c>
       <c r="AD138" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE138" s="7">
@@ -36643,7 +36721,7 @@
         <v>45861</v>
       </c>
       <c r="AD139" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE139" s="7">
@@ -36735,7 +36813,7 @@
         <v>45861</v>
       </c>
       <c r="AD140" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE140" s="7">
@@ -36827,7 +36905,7 @@
         <v>45861</v>
       </c>
       <c r="AD141" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE141" s="7">
@@ -36919,7 +36997,7 @@
         <v>45861</v>
       </c>
       <c r="AD142" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE142" s="7">
@@ -37011,7 +37089,7 @@
         <v>45861</v>
       </c>
       <c r="AD143" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE143" s="7">
@@ -37103,7 +37181,7 @@
         <v>45861</v>
       </c>
       <c r="AD144" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE144" s="7">
@@ -37195,7 +37273,7 @@
         <v>45861</v>
       </c>
       <c r="AD145" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE145" s="7">
@@ -37287,7 +37365,7 @@
         <v>45861</v>
       </c>
       <c r="AD146" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE146" s="7">
@@ -37379,7 +37457,7 @@
         <v>45861</v>
       </c>
       <c r="AD147" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE147" s="7">
@@ -37471,7 +37549,7 @@
         <v>45861</v>
       </c>
       <c r="AD148" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE148" s="7">
@@ -37563,7 +37641,7 @@
         <v>45861</v>
       </c>
       <c r="AD149" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE149" s="7">
@@ -37655,7 +37733,7 @@
         <v>45861</v>
       </c>
       <c r="AD150" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE150" s="7">
@@ -37747,7 +37825,7 @@
         <v>45861</v>
       </c>
       <c r="AD151" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE151" s="7">
@@ -37839,7 +37917,7 @@
         <v>45861</v>
       </c>
       <c r="AD152" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE152" s="7">
@@ -37931,7 +38009,7 @@
         <v>45861</v>
       </c>
       <c r="AD153" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE153" s="7">
@@ -38023,7 +38101,7 @@
         <v>45861</v>
       </c>
       <c r="AD154" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE154" s="7">
@@ -38115,7 +38193,7 @@
         <v>45861</v>
       </c>
       <c r="AD155" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE155" s="7">
@@ -38207,7 +38285,7 @@
         <v>45861</v>
       </c>
       <c r="AD156" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE156" s="7">
@@ -38299,7 +38377,7 @@
         <v>45861</v>
       </c>
       <c r="AD157" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE157" s="7">
@@ -38391,7 +38469,7 @@
         <v>45861</v>
       </c>
       <c r="AD158" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE158" s="7">
@@ -38483,7 +38561,7 @@
         <v>45861</v>
       </c>
       <c r="AD159" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE159" s="7">
@@ -38575,7 +38653,7 @@
         <v>45861</v>
       </c>
       <c r="AD160" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE160" s="7">
@@ -38667,7 +38745,7 @@
         <v>45861</v>
       </c>
       <c r="AD161" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE161" s="7">
@@ -38759,7 +38837,7 @@
         <v>45861</v>
       </c>
       <c r="AD162" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE162" s="7">
@@ -38851,7 +38929,7 @@
         <v>45861</v>
       </c>
       <c r="AD163" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE163" s="7">
@@ -38943,7 +39021,7 @@
         <v>45861</v>
       </c>
       <c r="AD164" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE164" s="7">
@@ -39035,7 +39113,7 @@
         <v>45861</v>
       </c>
       <c r="AD165" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE165" s="7">
@@ -39127,7 +39205,7 @@
         <v>45861</v>
       </c>
       <c r="AD166" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE166" s="7">
@@ -39219,7 +39297,7 @@
         <v>45861</v>
       </c>
       <c r="AD167" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE167" s="7">
@@ -39311,7 +39389,7 @@
         <v>45861</v>
       </c>
       <c r="AD168" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE168" s="7">
@@ -39403,7 +39481,7 @@
         <v>45861</v>
       </c>
       <c r="AD169" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE169" s="7">
@@ -39495,7 +39573,7 @@
         <v>45861</v>
       </c>
       <c r="AD170" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE170" s="7">
@@ -39587,7 +39665,7 @@
         <v>45861</v>
       </c>
       <c r="AD171" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE171" s="7">
@@ -39679,7 +39757,7 @@
         <v>45861</v>
       </c>
       <c r="AD172" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE172" s="7">
@@ -39771,7 +39849,7 @@
         <v>45861</v>
       </c>
       <c r="AD173" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE173" s="7">
@@ -39863,7 +39941,7 @@
         <v>45861</v>
       </c>
       <c r="AD174" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE174" s="7">
@@ -39955,7 +40033,7 @@
         <v>45861</v>
       </c>
       <c r="AD175" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE175" s="7">
@@ -40047,7 +40125,7 @@
         <v>45861</v>
       </c>
       <c r="AD176" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE176" s="7">
@@ -40139,7 +40217,7 @@
         <v>45861</v>
       </c>
       <c r="AD177" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE177" s="7">
@@ -40231,7 +40309,7 @@
         <v>45861</v>
       </c>
       <c r="AD178" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE178" s="7">
@@ -40323,7 +40401,7 @@
         <v>45861</v>
       </c>
       <c r="AD179" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE179" s="7">
@@ -40415,7 +40493,7 @@
         <v>45861</v>
       </c>
       <c r="AD180" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE180" s="7">
@@ -40507,7 +40585,7 @@
         <v>45861</v>
       </c>
       <c r="AD181" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE181" s="7">
@@ -40599,7 +40677,7 @@
         <v>45861</v>
       </c>
       <c r="AD182" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE182" s="7">
@@ -40691,7 +40769,7 @@
         <v>45861</v>
       </c>
       <c r="AD183" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE183" s="7">
@@ -40783,7 +40861,7 @@
         <v>45861</v>
       </c>
       <c r="AD184" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE184" s="7">
@@ -40875,7 +40953,7 @@
         <v>45861</v>
       </c>
       <c r="AD185" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE185" s="7">
@@ -40967,7 +41045,7 @@
         <v>45861</v>
       </c>
       <c r="AD186" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE186" s="7">
@@ -41059,7 +41137,7 @@
         <v>45861</v>
       </c>
       <c r="AD187" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE187" s="7">
@@ -41151,7 +41229,7 @@
         <v>45861</v>
       </c>
       <c r="AD188" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE188" s="7">
@@ -41243,7 +41321,7 @@
         <v>45861</v>
       </c>
       <c r="AD189" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE189" s="7">
@@ -41335,7 +41413,7 @@
         <v>45861</v>
       </c>
       <c r="AD190" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE190" s="7">
@@ -41427,7 +41505,7 @@
         <v>45861</v>
       </c>
       <c r="AD191" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE191" s="7">
@@ -41519,7 +41597,7 @@
         <v>45861</v>
       </c>
       <c r="AD192" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE192" s="7">
@@ -41611,7 +41689,7 @@
         <v>45861</v>
       </c>
       <c r="AD193" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE193" s="7">
@@ -41703,7 +41781,7 @@
         <v>45861</v>
       </c>
       <c r="AD194" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE194" s="7">
@@ -41795,7 +41873,7 @@
         <v>45861</v>
       </c>
       <c r="AD195" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE195" s="7">
@@ -41887,7 +41965,7 @@
         <v>45861</v>
       </c>
       <c r="AD196" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE196" s="7">
@@ -41979,7 +42057,7 @@
         <v>45861</v>
       </c>
       <c r="AD197" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE197" s="7">
@@ -42071,7 +42149,7 @@
         <v>45861</v>
       </c>
       <c r="AD198" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE198" s="7">
@@ -42163,7 +42241,7 @@
         <v>45861</v>
       </c>
       <c r="AD199" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE199" s="7">
@@ -42255,7 +42333,7 @@
         <v>45861</v>
       </c>
       <c r="AD200" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AE200" s="7">
@@ -42347,7 +42425,7 @@
         <v>45861</v>
       </c>
       <c r="AD201" s="14">
-        <f t="shared" ref="AD201:AD264" si="9">7500/300</f>
+        <f t="shared" ref="AD201:AD264" si="8">7500/300</f>
         <v>25</v>
       </c>
       <c r="AE201" s="7">
@@ -42439,7 +42517,7 @@
         <v>45861</v>
       </c>
       <c r="AD202" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE202" s="7">
@@ -42531,7 +42609,7 @@
         <v>45861</v>
       </c>
       <c r="AD203" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE203" s="7">
@@ -42623,7 +42701,7 @@
         <v>45861</v>
       </c>
       <c r="AD204" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE204" s="7">
@@ -42715,7 +42793,7 @@
         <v>45861</v>
       </c>
       <c r="AD205" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE205" s="7">
@@ -42807,7 +42885,7 @@
         <v>45861</v>
       </c>
       <c r="AD206" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE206" s="7">
@@ -42899,7 +42977,7 @@
         <v>45861</v>
       </c>
       <c r="AD207" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE207" s="7">
@@ -42991,7 +43069,7 @@
         <v>45861</v>
       </c>
       <c r="AD208" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE208" s="7">
@@ -43083,7 +43161,7 @@
         <v>45861</v>
       </c>
       <c r="AD209" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE209" s="7">
@@ -43175,7 +43253,7 @@
         <v>45861</v>
       </c>
       <c r="AD210" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE210" s="7">
@@ -43267,7 +43345,7 @@
         <v>45861</v>
       </c>
       <c r="AD211" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE211" s="7">
@@ -43359,7 +43437,7 @@
         <v>45861</v>
       </c>
       <c r="AD212" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE212" s="7">
@@ -43451,7 +43529,7 @@
         <v>45861</v>
       </c>
       <c r="AD213" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE213" s="7">
@@ -43543,7 +43621,7 @@
         <v>45861</v>
       </c>
       <c r="AD214" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE214" s="7">
@@ -43635,7 +43713,7 @@
         <v>45861</v>
       </c>
       <c r="AD215" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE215" s="7">
@@ -43727,7 +43805,7 @@
         <v>45861</v>
       </c>
       <c r="AD216" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE216" s="7">
@@ -43819,7 +43897,7 @@
         <v>45861</v>
       </c>
       <c r="AD217" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE217" s="7">
@@ -43911,7 +43989,7 @@
         <v>45861</v>
       </c>
       <c r="AD218" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE218" s="7">
@@ -44003,7 +44081,7 @@
         <v>45861</v>
       </c>
       <c r="AD219" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE219" s="7">
@@ -44095,7 +44173,7 @@
         <v>45861</v>
       </c>
       <c r="AD220" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE220" s="7">
@@ -44187,7 +44265,7 @@
         <v>45861</v>
       </c>
       <c r="AD221" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE221" s="7">
@@ -44279,7 +44357,7 @@
         <v>45861</v>
       </c>
       <c r="AD222" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE222" s="7">
@@ -44371,7 +44449,7 @@
         <v>45861</v>
       </c>
       <c r="AD223" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE223" s="7">
@@ -44463,7 +44541,7 @@
         <v>45861</v>
       </c>
       <c r="AD224" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE224" s="7">
@@ -44555,7 +44633,7 @@
         <v>45861</v>
       </c>
       <c r="AD225" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE225" s="7">
@@ -44647,7 +44725,7 @@
         <v>45861</v>
       </c>
       <c r="AD226" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE226" s="7">
@@ -44739,7 +44817,7 @@
         <v>45861</v>
       </c>
       <c r="AD227" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE227" s="7">
@@ -44831,7 +44909,7 @@
         <v>45861</v>
       </c>
       <c r="AD228" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE228" s="7">
@@ -44923,7 +45001,7 @@
         <v>45861</v>
       </c>
       <c r="AD229" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE229" s="7">
@@ -45015,7 +45093,7 @@
         <v>45861</v>
       </c>
       <c r="AD230" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE230" s="7">
@@ -45107,7 +45185,7 @@
         <v>45861</v>
       </c>
       <c r="AD231" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE231" s="7">
@@ -45199,7 +45277,7 @@
         <v>45861</v>
       </c>
       <c r="AD232" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE232" s="7">
@@ -45291,7 +45369,7 @@
         <v>45861</v>
       </c>
       <c r="AD233" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE233" s="7">
@@ -45383,7 +45461,7 @@
         <v>45861</v>
       </c>
       <c r="AD234" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE234" s="7">
@@ -45475,7 +45553,7 @@
         <v>45861</v>
       </c>
       <c r="AD235" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE235" s="7">
@@ -45567,7 +45645,7 @@
         <v>45861</v>
       </c>
       <c r="AD236" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE236" s="7">
@@ -45659,7 +45737,7 @@
         <v>45861</v>
       </c>
       <c r="AD237" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE237" s="7">
@@ -45751,7 +45829,7 @@
         <v>45861</v>
       </c>
       <c r="AD238" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE238" s="7">
@@ -45843,7 +45921,7 @@
         <v>45861</v>
       </c>
       <c r="AD239" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE239" s="7">
@@ -45935,7 +46013,7 @@
         <v>45861</v>
       </c>
       <c r="AD240" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE240" s="7">
@@ -46027,7 +46105,7 @@
         <v>45861</v>
       </c>
       <c r="AD241" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE241" s="7">
@@ -46119,7 +46197,7 @@
         <v>45861</v>
       </c>
       <c r="AD242" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE242" s="7">
@@ -46211,7 +46289,7 @@
         <v>45861</v>
       </c>
       <c r="AD243" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE243" s="7">
@@ -46303,7 +46381,7 @@
         <v>45861</v>
       </c>
       <c r="AD244" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE244" s="7">
@@ -46395,7 +46473,7 @@
         <v>45861</v>
       </c>
       <c r="AD245" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE245" s="7">
@@ -46487,7 +46565,7 @@
         <v>45861</v>
       </c>
       <c r="AD246" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE246" s="7">
@@ -46579,7 +46657,7 @@
         <v>45861</v>
       </c>
       <c r="AD247" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE247" s="7">
@@ -46671,7 +46749,7 @@
         <v>45861</v>
       </c>
       <c r="AD248" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE248" s="7">
@@ -46763,7 +46841,7 @@
         <v>45861</v>
       </c>
       <c r="AD249" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE249" s="7">
@@ -46855,7 +46933,7 @@
         <v>45861</v>
       </c>
       <c r="AD250" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE250" s="7">
@@ -46947,7 +47025,7 @@
         <v>45861</v>
       </c>
       <c r="AD251" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE251" s="7">
@@ -47039,7 +47117,7 @@
         <v>45861</v>
       </c>
       <c r="AD252" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE252" s="7">
@@ -47131,7 +47209,7 @@
         <v>45861</v>
       </c>
       <c r="AD253" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE253" s="7">
@@ -47223,7 +47301,7 @@
         <v>45861</v>
       </c>
       <c r="AD254" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE254" s="7">
@@ -47315,7 +47393,7 @@
         <v>45861</v>
       </c>
       <c r="AD255" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE255" s="7">
@@ -47407,7 +47485,7 @@
         <v>45861</v>
       </c>
       <c r="AD256" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE256" s="7">
@@ -47499,7 +47577,7 @@
         <v>45861</v>
       </c>
       <c r="AD257" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE257" s="7">
@@ -47591,7 +47669,7 @@
         <v>45861</v>
       </c>
       <c r="AD258" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE258" s="7">
@@ -47683,7 +47761,7 @@
         <v>45861</v>
       </c>
       <c r="AD259" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE259" s="7">
@@ -47775,7 +47853,7 @@
         <v>45861</v>
       </c>
       <c r="AD260" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE260" s="7">
@@ -47867,7 +47945,7 @@
         <v>45861</v>
       </c>
       <c r="AD261" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE261" s="7">
@@ -47959,7 +48037,7 @@
         <v>45861</v>
       </c>
       <c r="AD262" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE262" s="7">
@@ -48051,7 +48129,7 @@
         <v>45861</v>
       </c>
       <c r="AD263" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE263" s="7">
@@ -48143,7 +48221,7 @@
         <v>45861</v>
       </c>
       <c r="AD264" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE264" s="7">
@@ -48235,7 +48313,7 @@
         <v>45861</v>
       </c>
       <c r="AD265" s="14">
-        <f t="shared" ref="AD265:AD328" si="10">7500/300</f>
+        <f t="shared" ref="AD265:AD328" si="9">7500/300</f>
         <v>25</v>
       </c>
       <c r="AE265" s="7">
@@ -48327,7 +48405,7 @@
         <v>45861</v>
       </c>
       <c r="AD266" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE266" s="7">
@@ -48419,7 +48497,7 @@
         <v>45861</v>
       </c>
       <c r="AD267" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE267" s="7">
@@ -48511,7 +48589,7 @@
         <v>45861</v>
       </c>
       <c r="AD268" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE268" s="7">
@@ -48603,7 +48681,7 @@
         <v>45861</v>
       </c>
       <c r="AD269" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE269" s="7">
@@ -48695,7 +48773,7 @@
         <v>45861</v>
       </c>
       <c r="AD270" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE270" s="7">
@@ -48787,7 +48865,7 @@
         <v>45861</v>
       </c>
       <c r="AD271" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE271" s="7">
@@ -48879,7 +48957,7 @@
         <v>45861</v>
       </c>
       <c r="AD272" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE272" s="7">
@@ -48971,7 +49049,7 @@
         <v>45861</v>
       </c>
       <c r="AD273" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE273" s="7">
@@ -49063,7 +49141,7 @@
         <v>45861</v>
       </c>
       <c r="AD274" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE274" s="7">
@@ -49155,7 +49233,7 @@
         <v>45861</v>
       </c>
       <c r="AD275" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE275" s="7">
@@ -49247,7 +49325,7 @@
         <v>45861</v>
       </c>
       <c r="AD276" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE276" s="7">
@@ -49339,7 +49417,7 @@
         <v>45861</v>
       </c>
       <c r="AD277" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE277" s="7">
@@ -49431,7 +49509,7 @@
         <v>45861</v>
       </c>
       <c r="AD278" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE278" s="7">
@@ -49523,7 +49601,7 @@
         <v>45861</v>
       </c>
       <c r="AD279" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE279" s="7">
@@ -49615,7 +49693,7 @@
         <v>45861</v>
       </c>
       <c r="AD280" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE280" s="7">
@@ -49707,7 +49785,7 @@
         <v>45861</v>
       </c>
       <c r="AD281" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE281" s="7">
@@ -49799,7 +49877,7 @@
         <v>45861</v>
       </c>
       <c r="AD282" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE282" s="7">
@@ -49891,7 +49969,7 @@
         <v>45861</v>
       </c>
       <c r="AD283" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE283" s="7">
@@ -49983,7 +50061,7 @@
         <v>45861</v>
       </c>
       <c r="AD284" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE284" s="7">
@@ -50075,7 +50153,7 @@
         <v>45861</v>
       </c>
       <c r="AD285" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE285" s="7">
@@ -50167,7 +50245,7 @@
         <v>45861</v>
       </c>
       <c r="AD286" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE286" s="7">
@@ -50259,7 +50337,7 @@
         <v>45861</v>
       </c>
       <c r="AD287" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE287" s="7">
@@ -50351,7 +50429,7 @@
         <v>45861</v>
       </c>
       <c r="AD288" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE288" s="7">
@@ -50443,7 +50521,7 @@
         <v>45861</v>
       </c>
       <c r="AD289" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE289" s="7">
@@ -50535,7 +50613,7 @@
         <v>45861</v>
       </c>
       <c r="AD290" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE290" s="7">
@@ -50627,7 +50705,7 @@
         <v>45861</v>
       </c>
       <c r="AD291" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE291" s="7">
@@ -50719,7 +50797,7 @@
         <v>45861</v>
       </c>
       <c r="AD292" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE292" s="7">
@@ -50811,7 +50889,7 @@
         <v>45861</v>
       </c>
       <c r="AD293" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE293" s="7">
@@ -50903,7 +50981,7 @@
         <v>45861</v>
       </c>
       <c r="AD294" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE294" s="7">
@@ -50995,7 +51073,7 @@
         <v>45861</v>
       </c>
       <c r="AD295" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE295" s="7">
@@ -51087,7 +51165,7 @@
         <v>45861</v>
       </c>
       <c r="AD296" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE296" s="7">
@@ -51179,7 +51257,7 @@
         <v>45861</v>
       </c>
       <c r="AD297" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE297" s="7">
@@ -51271,7 +51349,7 @@
         <v>45861</v>
       </c>
       <c r="AD298" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE298" s="7">
@@ -51363,7 +51441,7 @@
         <v>45861</v>
       </c>
       <c r="AD299" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE299" s="7">
@@ -51455,7 +51533,7 @@
         <v>45861</v>
       </c>
       <c r="AD300" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE300" s="7">
@@ -51547,7 +51625,7 @@
         <v>45861</v>
       </c>
       <c r="AD301" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE301" s="7">
@@ -51639,7 +51717,7 @@
         <v>45861</v>
       </c>
       <c r="AD302" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE302" s="7">
@@ -51731,7 +51809,7 @@
         <v>45861</v>
       </c>
       <c r="AD303" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE303" s="7">
@@ -51823,7 +51901,7 @@
         <v>45861</v>
       </c>
       <c r="AD304" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE304" s="7">
@@ -51915,7 +51993,7 @@
         <v>45861</v>
       </c>
       <c r="AD305" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE305" s="7">
@@ -52007,7 +52085,7 @@
         <v>45861</v>
       </c>
       <c r="AD306" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE306" s="7">
@@ -52099,7 +52177,7 @@
         <v>45861</v>
       </c>
       <c r="AD307" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE307" s="7">
@@ -52191,7 +52269,7 @@
         <v>45861</v>
       </c>
       <c r="AD308" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE308" s="7">
@@ -52283,7 +52361,7 @@
         <v>45861</v>
       </c>
       <c r="AD309" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE309" s="7">
@@ -52375,7 +52453,7 @@
         <v>45861</v>
       </c>
       <c r="AD310" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE310" s="7">
@@ -52467,7 +52545,7 @@
         <v>45861</v>
       </c>
       <c r="AD311" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE311" s="7">
@@ -52559,7 +52637,7 @@
         <v>45861</v>
       </c>
       <c r="AD312" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE312" s="7">
@@ -52651,7 +52729,7 @@
         <v>45861</v>
       </c>
       <c r="AD313" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE313" s="7">
@@ -52743,7 +52821,7 @@
         <v>45861</v>
       </c>
       <c r="AD314" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE314" s="7">
@@ -52835,7 +52913,7 @@
         <v>45861</v>
       </c>
       <c r="AD315" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE315" s="7">
@@ -52927,7 +53005,7 @@
         <v>45861</v>
       </c>
       <c r="AD316" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE316" s="7">
@@ -53019,7 +53097,7 @@
         <v>45861</v>
       </c>
       <c r="AD317" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE317" s="7">
@@ -53111,7 +53189,7 @@
         <v>45861</v>
       </c>
       <c r="AD318" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE318" s="7">
@@ -53203,7 +53281,7 @@
         <v>45861</v>
       </c>
       <c r="AD319" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE319" s="7">
@@ -53295,7 +53373,7 @@
         <v>45861</v>
       </c>
       <c r="AD320" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE320" s="7">
@@ -53387,7 +53465,7 @@
         <v>45861</v>
       </c>
       <c r="AD321" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE321" s="7">
@@ -53479,7 +53557,7 @@
         <v>45861</v>
       </c>
       <c r="AD322" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE322" s="7">
@@ -53571,7 +53649,7 @@
         <v>45861</v>
       </c>
       <c r="AD323" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE323" s="7">
@@ -53663,7 +53741,7 @@
         <v>45861</v>
       </c>
       <c r="AD324" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE324" s="7">
@@ -53755,7 +53833,7 @@
         <v>45861</v>
       </c>
       <c r="AD325" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE325" s="7">
@@ -53847,7 +53925,7 @@
         <v>45861</v>
       </c>
       <c r="AD326" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE326" s="7">
@@ -53939,7 +54017,7 @@
         <v>45861</v>
       </c>
       <c r="AD327" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE327" s="7">
@@ -54031,7 +54109,7 @@
         <v>45861</v>
       </c>
       <c r="AD328" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AE328" s="7">
@@ -54123,7 +54201,7 @@
         <v>45861</v>
       </c>
       <c r="AD329" s="14">
-        <f t="shared" ref="AD329:AD371" si="11">7500/300</f>
+        <f t="shared" ref="AD329:AD371" si="10">7500/300</f>
         <v>25</v>
       </c>
       <c r="AE329" s="7">
@@ -54215,7 +54293,7 @@
         <v>45861</v>
       </c>
       <c r="AD330" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE330" s="7">
@@ -54307,7 +54385,7 @@
         <v>45861</v>
       </c>
       <c r="AD331" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE331" s="7">
@@ -54399,7 +54477,7 @@
         <v>45861</v>
       </c>
       <c r="AD332" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE332" s="7">
@@ -54491,7 +54569,7 @@
         <v>45861</v>
       </c>
       <c r="AD333" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE333" s="7">
@@ -54583,7 +54661,7 @@
         <v>45861</v>
       </c>
       <c r="AD334" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE334" s="7">
@@ -54675,7 +54753,7 @@
         <v>45861</v>
       </c>
       <c r="AD335" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE335" s="7">
@@ -54767,7 +54845,7 @@
         <v>45861</v>
       </c>
       <c r="AD336" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE336" s="7">
@@ -54859,7 +54937,7 @@
         <v>45861</v>
       </c>
       <c r="AD337" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE337" s="7">
@@ -54951,7 +55029,7 @@
         <v>45861</v>
       </c>
       <c r="AD338" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE338" s="7">
@@ -55043,7 +55121,7 @@
         <v>45861</v>
       </c>
       <c r="AD339" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE339" s="7">
@@ -55135,7 +55213,7 @@
         <v>45861</v>
       </c>
       <c r="AD340" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE340" s="7">
@@ -55227,7 +55305,7 @@
         <v>45861</v>
       </c>
       <c r="AD341" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE341" s="7">
@@ -55319,7 +55397,7 @@
         <v>45861</v>
       </c>
       <c r="AD342" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE342" s="7">
@@ -55411,7 +55489,7 @@
         <v>45861</v>
       </c>
       <c r="AD343" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE343" s="7">
@@ -55503,7 +55581,7 @@
         <v>45861</v>
       </c>
       <c r="AD344" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE344" s="7">
@@ -55595,7 +55673,7 @@
         <v>45861</v>
       </c>
       <c r="AD345" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE345" s="7">
@@ -55687,7 +55765,7 @@
         <v>45861</v>
       </c>
       <c r="AD346" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE346" s="7">
@@ -55779,7 +55857,7 @@
         <v>45861</v>
       </c>
       <c r="AD347" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE347" s="7">
@@ -55871,7 +55949,7 @@
         <v>45861</v>
       </c>
       <c r="AD348" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE348" s="7">
@@ -55963,7 +56041,7 @@
         <v>45861</v>
       </c>
       <c r="AD349" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE349" s="7">
@@ -56055,7 +56133,7 @@
         <v>45861</v>
       </c>
       <c r="AD350" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE350" s="7">
@@ -56147,7 +56225,7 @@
         <v>45861</v>
       </c>
       <c r="AD351" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE351" s="7">
@@ -56239,7 +56317,7 @@
         <v>45861</v>
       </c>
       <c r="AD352" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE352" s="7">
@@ -56331,7 +56409,7 @@
         <v>45861</v>
       </c>
       <c r="AD353" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE353" s="7">
@@ -56423,7 +56501,7 @@
         <v>45861</v>
       </c>
       <c r="AD354" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE354" s="7">
@@ -56515,7 +56593,7 @@
         <v>45861</v>
       </c>
       <c r="AD355" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE355" s="7">
@@ -56607,7 +56685,7 @@
         <v>45861</v>
       </c>
       <c r="AD356" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE356" s="7">
@@ -56699,7 +56777,7 @@
         <v>45861</v>
       </c>
       <c r="AD357" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE357" s="7">
@@ -56791,7 +56869,7 @@
         <v>45861</v>
       </c>
       <c r="AD358" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE358" s="7">
@@ -56883,7 +56961,7 @@
         <v>45861</v>
       </c>
       <c r="AD359" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE359" s="7">
@@ -56975,7 +57053,7 @@
         <v>45861</v>
       </c>
       <c r="AD360" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE360" s="7">
@@ -57067,7 +57145,7 @@
         <v>45861</v>
       </c>
       <c r="AD361" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE361" s="7">
@@ -57159,7 +57237,7 @@
         <v>45861</v>
       </c>
       <c r="AD362" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE362" s="7">
@@ -57251,7 +57329,7 @@
         <v>45861</v>
       </c>
       <c r="AD363" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE363" s="7">
@@ -57343,7 +57421,7 @@
         <v>45861</v>
       </c>
       <c r="AD364" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE364" s="7">
@@ -57435,7 +57513,7 @@
         <v>45861</v>
       </c>
       <c r="AD365" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE365" s="7">
@@ -57527,7 +57605,7 @@
         <v>45861</v>
       </c>
       <c r="AD366" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE366" s="7">
@@ -57619,7 +57697,7 @@
         <v>45861</v>
       </c>
       <c r="AD367" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE367" s="7">
@@ -57711,7 +57789,7 @@
         <v>45861</v>
       </c>
       <c r="AD368" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE368" s="7">
@@ -57803,7 +57881,7 @@
         <v>45861</v>
       </c>
       <c r="AD369" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE369" s="7">
@@ -57895,7 +57973,7 @@
         <v>45861</v>
       </c>
       <c r="AD370" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE370" s="7">
@@ -57987,7 +58065,7 @@
         <v>45861</v>
       </c>
       <c r="AD371" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AE371" s="7">
@@ -58240,7 +58318,7 @@
       <c r="AC374" s="16"/>
       <c r="AD374" s="15">
         <f>SUBTOTAL(109,CT[SC Qty (MT)])</f>
-        <v>9240</v>
+        <v>9250</v>
       </c>
       <c r="AE374" s="16">
         <f>SUBTOTAL(101,CT[Sales Rate/MT (USD)])</f>
@@ -58248,7 +58326,7 @@
       </c>
       <c r="AF374" s="16">
         <f>SUBTOTAL(109,CT[Customer  Prov. Price])</f>
-        <v>3123900</v>
+        <v>3127500</v>
       </c>
       <c r="AG374" s="16">
         <f>SUBTOTAL(109,CT[Customer Final Price])</f>
@@ -58256,7 +58334,7 @@
       </c>
       <c r="AH374" s="16">
         <f>SUBTOTAL(109,CT[Customer Price Difference])</f>
-        <v>-17789.899999999998</v>
+        <v>-21389.899999999998</v>
       </c>
       <c r="AJ374" s="1"/>
     </row>
@@ -58367,7 +58445,7 @@
       </c>
       <c r="AB378" s="89">
         <f>CT[[#Totals],[Customer  Prov. Price]]/$X$378</f>
-        <v>2407073.5090152565</v>
+        <v>2409847.4341192786</v>
       </c>
       <c r="AC378" s="89">
         <f>CT[[#Totals],[Customer Final Price]]/$X$378</f>
@@ -58471,21 +58549,21 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D375:D801 E67:E374 E3:E65">
-    <cfRule type="duplicateValues" dxfId="39" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q375">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",Q375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",Q375)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG375">
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",AG375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",AG375)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58909,7 +58987,7 @@
       </c>
       <c r="J16" s="70">
         <f>SUMIFS(CT[SC Qty (MT)],CT[SC'#],Pivot!H16)</f>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K16" s="70">
         <f>SUMIFS(CT[Container Qty],CT[SC'#],Pivot!H16)</f>
@@ -58921,7 +58999,7 @@
       </c>
       <c r="M16" s="72">
         <f>J16*L16</f>
-        <v>86400</v>
+        <v>90000</v>
       </c>
       <c r="N16" s="72">
         <f>K16*L16</f>
@@ -58929,7 +59007,7 @@
       </c>
       <c r="O16" s="73">
         <f>IF(N16&lt;&gt;0,N16-M16,-M16)</f>
-        <v>1533.6000000000058</v>
+        <v>-2066.3999999999942</v>
       </c>
       <c r="P16" s="69" t="s">
         <v>170</v>
@@ -59037,7 +59115,7 @@
       <c r="N21" s="78"/>
       <c r="O21" s="103">
         <f>SUM(O16:O20)</f>
-        <v>-17789.899999999965</v>
+        <v>-21389.899999999965</v>
       </c>
       <c r="P21" s="80"/>
     </row>
@@ -59121,7 +59199,7 @@
       <c r="N25" s="84"/>
       <c r="O25" s="64">
         <f>SUM(O21:O24)</f>
-        <v>-2517789.9</v>
+        <v>-2521389.9</v>
       </c>
       <c r="P25" s="85"/>
     </row>
@@ -59529,7 +59607,7 @@
     <row r="8" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="34" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Contracts Traded.xlsx
+++ b/Contracts Traded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da52c24a9933acf4/Documents/WHL/Misbah/Docs - Misbah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="14_{E4FF24CB-0059-436D-911E-489241F6BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E62F2F9-6F80-4ED3-8713-593556C5D36D}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="14_{E4FF24CB-0059-436D-911E-489241F6BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E57C77B-78AF-407B-B9DC-B602FB1FA2E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B25BEA1-06F2-49A6-909D-F47AD7FB83DE}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="197">
   <si>
     <t>CONTRACTS TRADED - Walter Heselwood Ltd.</t>
   </si>
@@ -1242,12 +1242,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,200 +1957,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF6161"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF6161"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -2237,6 +2043,74 @@
     </dxf>
     <dxf>
       <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF6161"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF6161"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2624,6 +2498,132 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2785,7 +2785,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>PC-2025-000006</c:v>
+                  <c:v>PC-2025-000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PC 02</c:v>
@@ -2803,7 +2803,7 @@
                 <c:formatCode>[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>568.53343177464751</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11418.249999999995</c:v>
@@ -3098,7 +3098,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>PC-2025-000006</c:v>
+                  <c:v>PC-2025-000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PC 02</c:v>
@@ -3116,7 +3116,7 @@
                 <c:formatCode>[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>568.53343177464751</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11418.249999999995</c:v>
@@ -4473,7 +4473,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45889.376632291664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45889.415533333333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
   <cacheSource type="worksheet">
     <worksheetSource name="CT"/>
   </cacheSource>
@@ -4482,7 +4482,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="PC#" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="705119" maxValue="705119" count="7">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="705119" maxValue="705119" count="8">
         <n v="705119"/>
         <s v="PC 02"/>
         <s v="PC 03"/>
@@ -4490,10 +4490,11 @@
         <s v="PC-2025-000005"/>
         <s v="PC-2025-000006"/>
         <m/>
+        <s v="PC-2025-000007"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PC Date" numFmtId="15">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-04-01T00:00:00" maxDate="2025-08-05T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-04-01T00:00:00" maxDate="2025-08-14T00:00:00"/>
     </cacheField>
     <cacheField name="Commodity" numFmtId="0">
       <sharedItems/>
@@ -4598,13 +4599,13 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="PC Qty (MT)" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="24" maxValue="25"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24" maxValue="25.86"/>
     </cacheField>
     <cacheField name="Supplier Invoice#" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="91" maxValue="103"/>
     </cacheField>
     <cacheField name="Purchase Rate/MT (USD)" numFmtId="165">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="192.28220000000002" maxValue="325"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="226.13470000000001" maxValue="325"/>
     </cacheField>
     <cacheField name="Supplier Prov. Price" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="8125"/>
@@ -4618,20 +4619,20 @@
     <cacheField name="FX Rate" numFmtId="172">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2978000000000001" maxValue="1.3541000000000001"/>
     </cacheField>
-    <cacheField name="Column2" numFmtId="165">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    <cacheField name="Date of Inspection" numFmtId="15">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-04-28T00:00:00" maxDate="2025-08-19T00:00:00"/>
     </cacheField>
-    <cacheField name="Date of Inspection" numFmtId="15">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-04-28T00:00:00" maxDate="2025-07-28T00:00:00"/>
+    <cacheField name="Inspection Cost/MT" numFmtId="165">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.3794992175273864" maxValue="5.3794992175273864"/>
     </cacheField>
     <cacheField name="Cost Per MT" numFmtId="165">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1.2457954403886879" maxValue="58.818423486737849"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1.2457954403886879" maxValue="63.61897115073657"/>
     </cacheField>
     <cacheField name="Margin/MT" numFmtId="165">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="15.665576513262124" maxValue="33.75420455961131"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="10.246328849263421" maxValue="33.75420455961131"/>
     </cacheField>
     <cacheField name="Gross Margin" numFmtId="165">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="353.41540613919352" maxValue="882.33490718823964"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="258.82226673239404" maxValue="882.33490718823964"/>
     </cacheField>
     <cacheField name="Column6" numFmtId="165">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -4667,7 +4668,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="PI#" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="CI#" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -4711,8 +4712,8 @@
     <n v="6441.2409600000001"/>
     <n v="493.37164799999988"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-04-29T00:00:00"/>
+    <m/>
     <n v="58.818423486737849"/>
     <n v="15.665576513262124"/>
     <n v="353.41540613919352"/>
@@ -4752,8 +4753,8 @@
     <n v="6726.7569599999997"/>
     <n v="150.75244800000036"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-04-28T00:00:00"/>
+    <m/>
     <n v="56.466649232984039"/>
     <n v="18.017350767015955"/>
     <n v="424.48878407089586"/>
@@ -4793,8 +4794,8 @@
     <n v="6995.1420000000007"/>
     <n v="-171.30960000000087"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-04-28T00:00:00"/>
+    <m/>
     <n v="54.43103023156344"/>
     <n v="20.052969768436526"/>
     <n v="491.29775932669486"/>
@@ -4834,8 +4835,8 @@
     <n v="7217.8444800000007"/>
     <n v="-438.55257600000078"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-04-29T00:00:00"/>
+    <m/>
     <n v="52.8568245999437"/>
     <n v="21.627175400056274"/>
     <n v="546.73499411342266"/>
@@ -4875,8 +4876,8 @@
     <n v="7463.3882400000002"/>
     <n v="-733.20508800000027"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-05-06T00:00:00"/>
+    <m/>
     <n v="50.892643198128781"/>
     <n v="23.5913568018712"/>
     <n v="616.67806680091314"/>
@@ -4916,8 +4917,8 @@
     <n v="7080.796800000001"/>
     <n v="-274.09536000000116"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-05-06T00:00:00"/>
+    <m/>
     <n v="53.476435186676795"/>
     <n v="21.007564813323199"/>
     <n v="520.98760737041539"/>
@@ -4957,8 +4958,8 @@
     <n v="7080.796800000001"/>
     <n v="-274.09536000000116"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-05-06T00:00:00"/>
+    <m/>
     <n v="53.476435186676795"/>
     <n v="21.007564813323199"/>
     <n v="520.98760737041539"/>
@@ -4998,8 +4999,8 @@
     <n v="6721.0466400000005"/>
     <n v="157.60483199999945"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-05-06T00:00:00"/>
+    <m/>
     <n v="56.174313883198849"/>
     <n v="18.309686116801117"/>
     <n v="431.0100111894983"/>
@@ -5039,8 +5040,8 @@
     <n v="7383.4437600000001"/>
     <n v="-637.27171200000009"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-05-06T00:00:00"/>
+    <m/>
     <n v="51.410409689583268"/>
     <n v="23.073590310416705"/>
     <n v="596.68304542737599"/>
@@ -5080,8 +5081,8 @@
     <n v="6629.6815200000001"/>
     <n v="3144.0029760000002"/>
     <n v="1.2978000000000001"/>
-    <m/>
     <d v="2025-05-06T00:00:00"/>
+    <m/>
     <n v="56.906112050337164"/>
     <n v="17.577887949662795"/>
     <n v="408.15855819117007"/>
@@ -5121,8 +5122,8 @@
     <n v="7273.5"/>
     <n v="1021.8"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-09T00:00:00"/>
+    <m/>
     <n v="1.5389524326875055"/>
     <n v="23.461047567312505"/>
     <n v="525.05824455645381"/>
@@ -5162,8 +5163,8 @@
     <n v="7559.5000000000009"/>
     <n v="678.59999999999889"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-09T00:00:00"/>
+    <m/>
     <n v="1.5389524326875055"/>
     <n v="23.461047567312505"/>
     <n v="545.70396641568891"/>
@@ -5203,8 +5204,8 @@
     <n v="7657"/>
     <n v="561.6"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-09T00:00:00"/>
+    <m/>
     <n v="1.5389524326875055"/>
     <n v="23.461047567312505"/>
     <n v="552.74228068588263"/>
@@ -5244,8 +5245,8 @@
     <n v="7845.5"/>
     <n v="335.4"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-08T00:00:00"/>
+    <m/>
     <n v="1.5389524326875055"/>
     <n v="23.461047567312505"/>
     <n v="566.34968827492389"/>
@@ -5285,8 +5286,8 @@
     <n v="8027.5"/>
     <n v="117"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-09T00:00:00"/>
+    <m/>
     <n v="1.5389524326875055"/>
     <n v="23.461047567312505"/>
     <n v="579.48787491261885"/>
@@ -5326,8 +5327,8 @@
     <n v="8099.0000000000009"/>
     <n v="31.199999999998909"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-08T00:00:00"/>
+    <m/>
     <n v="1.5389524326875055"/>
     <n v="23.461047567312505"/>
     <n v="584.64930537742771"/>
@@ -5367,8 +5368,8 @@
     <n v="7572.5"/>
     <n v="663"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-09T00:00:00"/>
+    <m/>
     <n v="1.6868945846631147"/>
     <n v="23.313105415336906"/>
     <n v="543.19535617734994"/>
@@ -5408,8 +5409,8 @@
     <n v="7949.5"/>
     <n v="210.6"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-08T00:00:00"/>
+    <m/>
     <n v="1.6868945846631147"/>
     <n v="23.313105415336906"/>
     <n v="570.23855845914079"/>
@@ -5449,8 +5450,8 @@
     <n v="7806.5"/>
     <n v="382.2"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-08T00:00:00"/>
+    <m/>
     <n v="1.6868945846631147"/>
     <n v="23.313105415336906"/>
     <n v="559.9807920763925"/>
@@ -5490,8 +5491,8 @@
     <n v="7468.5"/>
     <n v="787.8"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-08T00:00:00"/>
+    <m/>
     <n v="1.6868945846631147"/>
     <n v="23.313105415336906"/>
     <n v="535.73516244444215"/>
@@ -5531,8 +5532,8 @@
     <n v="7715.4999999999991"/>
     <n v="491.40000000000106"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-27T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="559.81488998194061"/>
@@ -5572,8 +5573,8 @@
     <n v="7920.25"/>
     <n v="245.7"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-27T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="574.67097172956585"/>
@@ -5613,8 +5614,8 @@
     <n v="7929.9999999999991"/>
     <n v="234.00000000000108"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-27T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="575.37840419373845"/>
@@ -5654,8 +5655,8 @@
     <n v="7969"/>
     <n v="187.2"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-27T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="578.20813405042895"/>
@@ -5695,8 +5696,8 @@
     <n v="7237.75"/>
     <n v="1064.7"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-28T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="525.15069923748172"/>
@@ -5736,8 +5737,8 @@
     <n v="7429.5"/>
     <n v="834.6"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-28T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="539.06353769954342"/>
@@ -5777,8 +5778,8 @@
     <n v="8469.5"/>
     <n v="-413.4"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-29T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="614.52300054462387"/>
@@ -5818,8 +5819,8 @@
     <n v="8339.5"/>
     <n v="-257.39999999999998"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-29T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="605.09056768898893"/>
@@ -5859,8 +5860,8 @@
     <n v="7592"/>
     <n v="639.6"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-29T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="550.85407876908732"/>
@@ -5900,8 +5901,8 @@
     <n v="8375.25"/>
     <n v="-300.3"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-05-29T00:00:00"/>
+    <m/>
     <n v="1.4189178609123798"/>
     <n v="23.581082139087641"/>
     <n v="607.68448672428849"/>
@@ -5941,8 +5942,8 @@
     <n v="7601.75"/>
     <n v="627.9"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-18T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="553.53920280862292"/>
@@ -5982,8 +5983,8 @@
     <n v="7800"/>
     <n v="390"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-18T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="567.97524016275975"/>
@@ -6023,8 +6024,8 @@
     <n v="7816.25"/>
     <n v="370.5"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-18T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="569.15852191309887"/>
@@ -6064,8 +6065,8 @@
     <n v="7458.75"/>
     <n v="799.5"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-19T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="543.12632340563903"/>
@@ -6105,8 +6106,8 @@
     <n v="8021"/>
     <n v="124.8"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-19T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="584.06787196737127"/>
@@ -6146,8 +6147,8 @@
     <n v="8924.5"/>
     <n v="-959.4"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-20T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="649.85833728622424"/>
@@ -6187,8 +6188,8 @@
     <n v="8385"/>
     <n v="-312"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-20T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="610.57338317496669"/>
@@ -6228,8 +6229,8 @@
     <n v="7946.25"/>
     <n v="214.5"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-20T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="578.62477591581148"/>
@@ -6269,8 +6270,8 @@
     <n v="7267"/>
     <n v="1029.5999999999999"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-23T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="529.16359875163778"/>
@@ -6310,8 +6311,8 @@
     <n v="7735"/>
     <n v="468"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-23T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="563.24211316140338"/>
@@ -6351,8 +6352,8 @@
     <n v="7910.5"/>
     <n v="257.39999999999998"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-23T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="576.02155606506551"/>
@@ -6392,8 +6393,8 @@
     <n v="7926.75"/>
     <n v="237.89999999999998"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-24T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="577.20483781540463"/>
@@ -6433,8 +6434,8 @@
     <n v="7449.0000000000009"/>
     <n v="811.19999999999891"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-24T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="542.4163543554356"/>
@@ -6474,8 +6475,8 @@
     <n v="7572.5"/>
     <n v="663"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-25T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="551.40929565801264"/>
@@ -6515,8 +6516,8 @@
     <n v="7865"/>
     <n v="312"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-26T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="572.70836716411611"/>
@@ -6556,8 +6557,8 @@
     <n v="7780.5"/>
     <n v="413.4"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-25T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="566.55530206235289"/>
@@ -6597,8 +6598,8 @@
     <n v="7946.25"/>
     <n v="214.5"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-25T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="578.62477591581148"/>
@@ -6638,8 +6639,8 @@
     <n v="7800"/>
     <n v="390"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-24T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="567.97524016275975"/>
@@ -6679,8 +6680,8 @@
     <n v="7806.5"/>
     <n v="382.2"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-25T00:00:00"/>
+    <m/>
     <n v="1.3343649932183161"/>
     <n v="23.665635006781656"/>
     <n v="568.44855286289533"/>
@@ -6720,8 +6721,8 @@
     <n v="7780.5"/>
     <n v="413.4"/>
     <n v="1.3270999999999999"/>
-    <m/>
     <d v="2025-06-25T00:00:00"/>
+    <m/>
     <n v="2.9805200755807104"/>
     <n v="22.019479924419272"/>
     <n v="527.14634939059738"/>
@@ -6761,8 +6762,8 @@
     <n v="7585.2"/>
     <n v="347.76000000000022"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-10T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="808.50383010261919"/>
@@ -6802,8 +6803,8 @@
     <n v="7736.4"/>
     <n v="166.32000000000042"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-10T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="824.6201855199472"/>
@@ -6843,8 +6844,8 @@
     <n v="7188.3"/>
     <n v="824.03999999999974"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-10T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="766.19839713213344"/>
@@ -6884,8 +6885,8 @@
     <n v="7704.9000000000005"/>
     <n v="204.11999999999935"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-10T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="821.26261147467062"/>
@@ -6925,8 +6926,8 @@
     <n v="7626.1500000000005"/>
     <n v="298.61999999999932"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-11T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="812.86867636147895"/>
@@ -6966,8 +6967,8 @@
     <n v="7629.2999999999993"/>
     <n v="294.84000000000088"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-11T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="813.20443376600656"/>
@@ -7007,8 +7008,8 @@
     <n v="7686"/>
     <n v="226.79999999999998"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-11T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="819.24806704750449"/>
@@ -7048,8 +7049,8 @@
     <n v="7805.7000000000007"/>
     <n v="83.15999999999913"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-15T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="832.00684841955592"/>
@@ -7089,8 +7090,8 @@
     <n v="7418.25"/>
     <n v="548.1"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-15T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="790.70868766265301"/>
@@ -7130,8 +7131,8 @@
     <n v="7093.8"/>
     <n v="937.43999999999971"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-15T00:00:00"/>
+    <m/>
     <n v="1.4242595472334292"/>
     <n v="33.575740452766581"/>
     <n v="756.12567499630336"/>
@@ -7171,8 +7172,8 @@
     <n v="8234.1"/>
     <n v="-430.92000000000041"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-18T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="882.33490718823964"/>
@@ -7212,8 +7213,8 @@
     <n v="7941.1500000000005"/>
     <n v="-79.380000000000649"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-18T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="850.94349694780112"/>
@@ -7253,8 +7254,8 @@
     <n v="7383.6"/>
     <n v="589.6799999999995"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-18T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="791.1985548772891"/>
@@ -7294,8 +7295,8 @@
     <n v="7704.9000000000005"/>
     <n v="204.11999999999935"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-18T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="825.62784352809263"/>
@@ -7335,8 +7336,8 @@
     <n v="7585.2"/>
     <n v="347.76000000000022"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-18T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="812.80124579544031"/>
@@ -7376,8 +7377,8 @@
     <n v="7950.5999999999995"/>
     <n v="-90.719999999999345"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-24T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="851.95612308458942"/>
@@ -7417,8 +7418,8 @@
     <n v="7418.25"/>
     <n v="548.1"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-24T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="794.91151737884638"/>
@@ -7458,8 +7459,8 @@
     <n v="7156.7999999999993"/>
     <n v="861.84000000000083"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-24T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="766.8955275943689"/>
@@ -7499,8 +7500,8 @@
     <n v="7582.05"/>
     <n v="351.53999999999979"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-26T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="812.46370374984429"/>
@@ -7540,8 +7541,8 @@
     <n v="7279.65"/>
     <n v="714.42000000000041"/>
     <n v="1.3411999999999999"/>
-    <m/>
     <d v="2025-07-27T00:00:00"/>
+    <m/>
     <n v="1.2457954403886879"/>
     <n v="33.75420455961131"/>
     <n v="780.05966737261735"/>
@@ -19863,29 +19864,29 @@
   </r>
   <r>
     <s v="Walter Heselwood Ltd"/>
-    <x v="6"/>
-    <m/>
+    <x v="7"/>
+    <d v="2025-08-13T00:00:00"/>
     <s v="Turnnings"/>
     <x v="71"/>
     <n v="25.26"/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="25"/>
-    <m/>
-    <n v="192.28220000000002"/>
-    <n v="4807.0550000000003"/>
-    <n v="4857.0483720000011"/>
-    <n v="59.99204640000098"/>
+    <s v="PENDING"/>
+    <s v="September"/>
+    <s v="CNF"/>
+    <m/>
+    <n v="25.26"/>
+    <m/>
+    <n v="226.13470000000001"/>
+    <n v="5712.1625220000005"/>
+    <n v="5712.1625220000005"/>
+    <n v="0"/>
     <n v="1.3541000000000001"/>
-    <m/>
-    <m/>
-    <e v="#DIV/0!"/>
-    <s v=""/>
-    <s v=""/>
+    <d v="2025-08-18T00:00:00"/>
+    <n v="5.3794992175273864"/>
+    <n v="63.61897115073657"/>
+    <n v="10.246328849263421"/>
+    <n v="258.82226673239404"/>
     <m/>
     <m/>
     <s v="Urja"/>
@@ -19897,36 +19898,36 @@
     <n v="7578.0000000000009"/>
     <n v="78.000000000000909"/>
     <s v="Nhava Sheva"/>
-    <m/>
+    <s v="PI-2025-000007"/>
     <s v="CI-2025-000011"/>
-    <m/>
+    <n v="42.76"/>
     <s v="Pending"/>
   </r>
   <r>
     <s v="Walter Heselwood Ltd"/>
-    <x v="6"/>
-    <m/>
+    <x v="7"/>
+    <d v="2025-08-13T00:00:00"/>
     <s v="Turnnings"/>
     <x v="72"/>
     <n v="25.86"/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="25"/>
-    <m/>
-    <n v="192.28220000000002"/>
-    <n v="4807.0550000000003"/>
-    <n v="4972.417692"/>
-    <n v="198.43523039999963"/>
+    <s v="PENDING"/>
+    <s v="September"/>
+    <s v="CNF"/>
+    <m/>
+    <n v="25.86"/>
+    <m/>
+    <n v="226.13470000000001"/>
+    <n v="5847.8433420000001"/>
+    <n v="5847.8433420000001"/>
+    <n v="0"/>
     <n v="1.3541000000000001"/>
-    <m/>
-    <m/>
-    <e v="#DIV/0!"/>
-    <s v=""/>
-    <s v=""/>
+    <d v="2025-08-18T00:00:00"/>
+    <n v="5.3794992175273864"/>
+    <n v="61.888843501846345"/>
+    <n v="11.976456498153652"/>
+    <n v="309.71116504225347"/>
     <m/>
     <m/>
     <s v="Urja"/>
@@ -19938,9 +19939,9 @@
     <n v="7758"/>
     <n v="258"/>
     <s v="Nhava Sheva"/>
-    <m/>
+    <s v="PI-2025-000007"/>
     <s v="CI-2025-000011"/>
-    <m/>
+    <n v="42.76"/>
     <s v="Pending"/>
   </r>
 </pivotCacheRecords>
@@ -19948,11 +19949,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1333CDD6-9419-4B1F-AA10-E037DBD897CF}" name="PivotTable1" cacheId="5" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Puchase Contract">
-  <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="9">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
@@ -19960,6 +19961,7 @@
         <item sd="0" x="4"/>
         <item sd="0" x="6"/>
         <item sd="0" x="5"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20085,7 +20087,7 @@
     <field x="1"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
@@ -20106,6 +20108,15 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
     </i>
     <i t="grand">
       <x/>
@@ -20143,13 +20154,13 @@
     <dataField name=" Gross Margin" fld="23" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="147">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -20162,7 +20173,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="144">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -20175,7 +20186,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="143">
+    <format dxfId="106">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20184,7 +20195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="142">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20193,7 +20204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="141">
+    <format dxfId="104">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20202,7 +20213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -20216,7 +20227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="139">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -20230,19 +20241,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="101">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="99">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="98">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20323,7 +20334,7 @@
   <pivotFields count="41">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="9">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
@@ -20331,6 +20342,7 @@
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20456,7 +20468,7 @@
     <field x="1"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="14">
     <i>
       <x/>
     </i>
@@ -20481,17 +20493,20 @@
     <i r="1">
       <x v="50"/>
     </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
     <i r="1">
       <x v="72"/>
     </i>
     <i r="1">
       <x v="73"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
     </i>
     <i t="grand">
       <x/>
@@ -20504,13 +20519,13 @@
     <dataField name=" Gross Margin" fld="23" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="110">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20519,7 +20534,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="107">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20528,7 +20543,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20537,7 +20552,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20546,16 +20561,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="67">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="65">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="64">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -20587,99 +20602,99 @@
   <autoFilter ref="A2:AM374" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}"/>
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="70" totalsRowDxfId="32"/>
-    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="69" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="68" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="67" totalsRowDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="65" totalsRowDxfId="27"/>
-    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="64" totalsRowDxfId="26"/>
-    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="25">
+    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="147" totalsRowDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="146" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="145" totalsRowDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="144" totalsRowDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="142" totalsRowDxfId="27"/>
+    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="141" totalsRowDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="25">
       <totalsRowFormula>CT[[#Totals],[PC Qty (MT)]]-CT[[#Totals],[Container Qty]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="62" totalsRowDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="61" totalsRowDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="60" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="21"/>
-    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="58" totalsRowDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="57" totalsRowDxfId="19"/>
-    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="18">
+    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="139" totalsRowDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="138" totalsRowDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="137" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="21"/>
+    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="135" totalsRowDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="134" totalsRowDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="18">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[PC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="17">
+    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="17">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="16">
+    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(CT[[#This Row],[Supplier Final Price]]&lt;&gt;0,(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]])+20%*(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="53" totalsRowDxfId="15"/>
-    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="52" totalsRowDxfId="14"/>
-    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" dataDxfId="51" totalsRowDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="50" totalsRowDxfId="12">
+    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="130" totalsRowDxfId="15"/>
+    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="129" totalsRowDxfId="14"/>
+    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" dataDxfId="128" totalsRowDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="127" totalsRowDxfId="12">
       <calculatedColumnFormula>IFERROR(1250/CT[[#This Row],[Container Qty]]+50/SUM($F$3:$F$12)+600/SUM($F$3:$F$12),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="49" totalsRowDxfId="11">
+    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="126" totalsRowDxfId="11">
       <calculatedColumnFormula>IFERROR(AE3-(O3+CT[[#This Row],[Cost Per MT]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="10">
+    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="10">
       <calculatedColumnFormula>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="47" totalsRowDxfId="9"/>
-    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Column5" dataDxfId="46" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="44" totalsRowDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="43" totalsRowDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="3">
+    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="124" totalsRowDxfId="9"/>
+    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Column5" dataDxfId="123" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="121" totalsRowDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="120" totalsRowDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="118" totalsRowDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="3">
       <calculatedColumnFormula>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="2">
+    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="1">
+    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{55725ACA-5363-449D-B3B5-AE2F51F334AD}" name="POD"/>
-    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="37" totalsRowDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="36"/>
-    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges" dataDxfId="35"/>
-    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="114" totalsRowDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="113"/>
+    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges" dataDxfId="112"/>
+    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J7" totalsRowCount="1" headerRowDxfId="133" dataDxfId="132" totalsRowDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J7" totalsRowCount="1" headerRowDxfId="96" dataDxfId="95" totalsRowDxfId="94">
   <autoFilter ref="A1:J6" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="130" totalsRowDxfId="129">
+    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="93" totalsRowDxfId="92">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125">
+    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Container Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="124" totalsRowDxfId="123">
+    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="87" totalsRowDxfId="86">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[BL Number])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="122" totalsRowDxfId="121">
+    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="85" totalsRowDxfId="84">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[BL Number]],CT[BL Number],CT[SOB Date])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="120" totalsRowDxfId="119">
+    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[SC'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="81" totalsRowDxfId="80">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Sales Rate/MT (USD)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer Final Price])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[PI'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[CI'#])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21034,10 +21049,10 @@
   <dimension ref="A1:AM390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q351" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C361" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL373" sqref="AL373:AL374"/>
+      <selection pane="bottomRight" activeCell="AC390" sqref="AC390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21297,7 +21312,7 @@
         <v>45776</v>
       </c>
       <c r="U3" s="7"/>
-      <c r="V3" s="113">
+      <c r="V3" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>58.818423486737849</v>
       </c>
@@ -21422,7 +21437,7 @@
         <v>45775</v>
       </c>
       <c r="U4" s="7"/>
-      <c r="V4" s="113">
+      <c r="V4" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>56.466649232984039</v>
       </c>
@@ -21547,7 +21562,7 @@
         <v>45775</v>
       </c>
       <c r="U5" s="7"/>
-      <c r="V5" s="113">
+      <c r="V5" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>54.43103023156344</v>
       </c>
@@ -21672,7 +21687,7 @@
         <v>45776</v>
       </c>
       <c r="U6" s="7"/>
-      <c r="V6" s="113">
+      <c r="V6" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>52.8568245999437</v>
       </c>
@@ -21797,7 +21812,7 @@
         <v>45783</v>
       </c>
       <c r="U7" s="7"/>
-      <c r="V7" s="113">
+      <c r="V7" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>50.892643198128781</v>
       </c>
@@ -21922,7 +21937,7 @@
         <v>45783</v>
       </c>
       <c r="U8" s="7"/>
-      <c r="V8" s="113">
+      <c r="V8" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>53.476435186676795</v>
       </c>
@@ -22047,7 +22062,7 @@
         <v>45783</v>
       </c>
       <c r="U9" s="7"/>
-      <c r="V9" s="113">
+      <c r="V9" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>53.476435186676795</v>
       </c>
@@ -22172,7 +22187,7 @@
         <v>45783</v>
       </c>
       <c r="U10" s="7"/>
-      <c r="V10" s="113">
+      <c r="V10" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>56.174313883198849</v>
       </c>
@@ -22297,7 +22312,7 @@
         <v>45783</v>
       </c>
       <c r="U11" s="7"/>
-      <c r="V11" s="113">
+      <c r="V11" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>51.410409689583268</v>
       </c>
@@ -22422,7 +22437,7 @@
         <v>45783</v>
       </c>
       <c r="U12" s="7"/>
-      <c r="V12" s="113">
+      <c r="V12" s="111">
         <f>1250/CT[[#This Row],[Container Qty]]+50/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])+600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]])</f>
         <v>56.906112050337164</v>
       </c>
@@ -22546,7 +22561,7 @@
         <v>45786</v>
       </c>
       <c r="U13" s="7"/>
-      <c r="V13" s="113">
+      <c r="V13" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.5389524326875055</v>
       </c>
@@ -22670,7 +22685,7 @@
         <v>45786</v>
       </c>
       <c r="U14" s="7"/>
-      <c r="V14" s="113">
+      <c r="V14" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.5389524326875055</v>
       </c>
@@ -22794,7 +22809,7 @@
         <v>45786</v>
       </c>
       <c r="U15" s="7"/>
-      <c r="V15" s="113">
+      <c r="V15" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.5389524326875055</v>
       </c>
@@ -22918,7 +22933,7 @@
         <v>45785</v>
       </c>
       <c r="U16" s="7"/>
-      <c r="V16" s="113">
+      <c r="V16" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.5389524326875055</v>
       </c>
@@ -23042,7 +23057,7 @@
         <v>45786</v>
       </c>
       <c r="U17" s="7"/>
-      <c r="V17" s="113">
+      <c r="V17" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.5389524326875055</v>
       </c>
@@ -23166,7 +23181,7 @@
         <v>45785</v>
       </c>
       <c r="U18" s="7"/>
-      <c r="V18" s="113">
+      <c r="V18" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.5389524326875055</v>
       </c>
@@ -23290,7 +23305,7 @@
         <v>45786</v>
       </c>
       <c r="U19" s="7"/>
-      <c r="V19" s="113">
+      <c r="V19" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.6868945846631147</v>
       </c>
@@ -23414,7 +23429,7 @@
         <v>45785</v>
       </c>
       <c r="U20" s="7"/>
-      <c r="V20" s="113">
+      <c r="V20" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.6868945846631147</v>
       </c>
@@ -23538,7 +23553,7 @@
         <v>45785</v>
       </c>
       <c r="U21" s="7"/>
-      <c r="V21" s="113">
+      <c r="V21" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.6868945846631147</v>
       </c>
@@ -23662,7 +23677,7 @@
         <v>45785</v>
       </c>
       <c r="U22" s="7"/>
-      <c r="V22" s="113">
+      <c r="V22" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.6868945846631147</v>
       </c>
@@ -23786,7 +23801,7 @@
         <v>45804</v>
       </c>
       <c r="U23" s="7"/>
-      <c r="V23" s="113">
+      <c r="V23" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -23910,7 +23925,7 @@
         <v>45804</v>
       </c>
       <c r="U24" s="7"/>
-      <c r="V24" s="113">
+      <c r="V24" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -24034,7 +24049,7 @@
         <v>45804</v>
       </c>
       <c r="U25" s="7"/>
-      <c r="V25" s="113">
+      <c r="V25" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -24158,7 +24173,7 @@
         <v>45804</v>
       </c>
       <c r="U26" s="7"/>
-      <c r="V26" s="113">
+      <c r="V26" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -24282,7 +24297,7 @@
         <v>45805</v>
       </c>
       <c r="U27" s="7"/>
-      <c r="V27" s="113">
+      <c r="V27" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -24406,7 +24421,7 @@
         <v>45805</v>
       </c>
       <c r="U28" s="7"/>
-      <c r="V28" s="113">
+      <c r="V28" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -24530,7 +24545,7 @@
         <v>45806</v>
       </c>
       <c r="U29" s="7"/>
-      <c r="V29" s="113">
+      <c r="V29" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -24654,7 +24669,7 @@
         <v>45806</v>
       </c>
       <c r="U30" s="7"/>
-      <c r="V30" s="113">
+      <c r="V30" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -24778,7 +24793,7 @@
         <v>45806</v>
       </c>
       <c r="U31" s="7"/>
-      <c r="V31" s="113">
+      <c r="V31" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -24902,7 +24917,7 @@
         <v>45806</v>
       </c>
       <c r="U32" s="7"/>
-      <c r="V32" s="113">
+      <c r="V32" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4189178609123798</v>
       </c>
@@ -25026,7 +25041,7 @@
         <v>45826</v>
       </c>
       <c r="U33" s="7"/>
-      <c r="V33" s="113">
+      <c r="V33" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -25150,7 +25165,7 @@
         <v>45826</v>
       </c>
       <c r="U34" s="7"/>
-      <c r="V34" s="113">
+      <c r="V34" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -25274,7 +25289,7 @@
         <v>45826</v>
       </c>
       <c r="U35" s="7"/>
-      <c r="V35" s="113">
+      <c r="V35" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -25398,7 +25413,7 @@
         <v>45827</v>
       </c>
       <c r="U36" s="7"/>
-      <c r="V36" s="113">
+      <c r="V36" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -25522,7 +25537,7 @@
         <v>45827</v>
       </c>
       <c r="U37" s="7"/>
-      <c r="V37" s="113">
+      <c r="V37" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -25646,7 +25661,7 @@
         <v>45828</v>
       </c>
       <c r="U38" s="7"/>
-      <c r="V38" s="113">
+      <c r="V38" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -25770,7 +25785,7 @@
         <v>45828</v>
       </c>
       <c r="U39" s="7"/>
-      <c r="V39" s="113">
+      <c r="V39" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -25894,7 +25909,7 @@
         <v>45828</v>
       </c>
       <c r="U40" s="7"/>
-      <c r="V40" s="113">
+      <c r="V40" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -26018,7 +26033,7 @@
         <v>45831</v>
       </c>
       <c r="U41" s="7"/>
-      <c r="V41" s="113">
+      <c r="V41" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -26142,7 +26157,7 @@
         <v>45831</v>
       </c>
       <c r="U42" s="7"/>
-      <c r="V42" s="113">
+      <c r="V42" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -26266,7 +26281,7 @@
         <v>45831</v>
       </c>
       <c r="U43" s="7"/>
-      <c r="V43" s="113">
+      <c r="V43" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -26390,7 +26405,7 @@
         <v>45832</v>
       </c>
       <c r="U44" s="7"/>
-      <c r="V44" s="113">
+      <c r="V44" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -26514,7 +26529,7 @@
         <v>45832</v>
       </c>
       <c r="U45" s="7"/>
-      <c r="V45" s="113">
+      <c r="V45" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -26638,7 +26653,7 @@
         <v>45833</v>
       </c>
       <c r="U46" s="7"/>
-      <c r="V46" s="113">
+      <c r="V46" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -26762,7 +26777,7 @@
         <v>45834</v>
       </c>
       <c r="U47" s="7"/>
-      <c r="V47" s="113">
+      <c r="V47" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -26886,7 +26901,7 @@
         <v>45833</v>
       </c>
       <c r="U48" s="7"/>
-      <c r="V48" s="113">
+      <c r="V48" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -27010,7 +27025,7 @@
         <v>45833</v>
       </c>
       <c r="U49" s="7"/>
-      <c r="V49" s="113">
+      <c r="V49" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -27134,7 +27149,7 @@
         <v>45832</v>
       </c>
       <c r="U50" s="7"/>
-      <c r="V50" s="113">
+      <c r="V50" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -27258,7 +27273,7 @@
         <v>45833</v>
       </c>
       <c r="U51" s="7"/>
-      <c r="V51" s="113">
+      <c r="V51" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.3343649932183161</v>
       </c>
@@ -27382,7 +27397,7 @@
         <v>45833</v>
       </c>
       <c r="U52" s="7"/>
-      <c r="V52" s="113">
+      <c r="V52" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>2.9805200755807104</v>
       </c>
@@ -27506,7 +27521,7 @@
         <v>45848</v>
       </c>
       <c r="U53" s="7"/>
-      <c r="V53" s="113">
+      <c r="V53" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -27630,7 +27645,7 @@
         <v>45848</v>
       </c>
       <c r="U54" s="7"/>
-      <c r="V54" s="113">
+      <c r="V54" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -27754,7 +27769,7 @@
         <v>45848</v>
       </c>
       <c r="U55" s="7"/>
-      <c r="V55" s="113">
+      <c r="V55" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -27878,7 +27893,7 @@
         <v>45848</v>
       </c>
       <c r="U56" s="7"/>
-      <c r="V56" s="113">
+      <c r="V56" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -28002,7 +28017,7 @@
         <v>45849</v>
       </c>
       <c r="U57" s="7"/>
-      <c r="V57" s="113">
+      <c r="V57" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -28126,7 +28141,7 @@
         <v>45849</v>
       </c>
       <c r="U58" s="7"/>
-      <c r="V58" s="113">
+      <c r="V58" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -28250,7 +28265,7 @@
         <v>45849</v>
       </c>
       <c r="U59" s="7"/>
-      <c r="V59" s="113">
+      <c r="V59" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -28374,7 +28389,7 @@
         <v>45853</v>
       </c>
       <c r="U60" s="7"/>
-      <c r="V60" s="113">
+      <c r="V60" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -28498,7 +28513,7 @@
         <v>45853</v>
       </c>
       <c r="U61" s="7"/>
-      <c r="V61" s="113">
+      <c r="V61" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -28622,7 +28637,7 @@
         <v>45853</v>
       </c>
       <c r="U62" s="7"/>
-      <c r="V62" s="113">
+      <c r="V62" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.4242595472334292</v>
       </c>
@@ -28746,7 +28761,7 @@
         <v>45856</v>
       </c>
       <c r="U63" s="7"/>
-      <c r="V63" s="113">
+      <c r="V63" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -28868,7 +28883,7 @@
         <v>45856</v>
       </c>
       <c r="U64" s="7"/>
-      <c r="V64" s="113">
+      <c r="V64" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -28990,7 +29005,7 @@
         <v>45856</v>
       </c>
       <c r="U65" s="7"/>
-      <c r="V65" s="113">
+      <c r="V65" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -29112,7 +29127,7 @@
         <v>45856</v>
       </c>
       <c r="U66" s="7"/>
-      <c r="V66" s="113">
+      <c r="V66" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -29234,7 +29249,7 @@
         <v>45856</v>
       </c>
       <c r="U67" s="7"/>
-      <c r="V67" s="113">
+      <c r="V67" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -29356,7 +29371,7 @@
         <v>45862</v>
       </c>
       <c r="U68" s="7"/>
-      <c r="V68" s="113">
+      <c r="V68" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -29478,7 +29493,7 @@
         <v>45862</v>
       </c>
       <c r="U69" s="7"/>
-      <c r="V69" s="113">
+      <c r="V69" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -29600,7 +29615,7 @@
         <v>45862</v>
       </c>
       <c r="U70" s="7"/>
-      <c r="V70" s="113">
+      <c r="V70" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -29722,7 +29737,7 @@
         <v>45864</v>
       </c>
       <c r="U71" s="7"/>
-      <c r="V71" s="113">
+      <c r="V71" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -29844,7 +29859,7 @@
         <v>45865</v>
       </c>
       <c r="U72" s="7"/>
-      <c r="V72" s="113">
+      <c r="V72" s="111">
         <f>IFERROR(600/SUMIF(CT[PC'#],CT[[#This Row],[PC'#]],CT[Container Qty])+CT[[#This Row],[DHL Charges]]/SUMIFS(CT[Container Qty],CT[BL Number],CT[[#This Row],[BL Number]]),"")</f>
         <v>1.2457954403886879</v>
       </c>
@@ -58306,14 +58321,14 @@
         <v>45888</v>
       </c>
       <c r="AD373" s="14">
-        <v>25</v>
+        <v>25.26</v>
       </c>
       <c r="AE373" s="7">
         <v>300</v>
       </c>
       <c r="AF373" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>7500</v>
+        <v>7578.0000000000009</v>
       </c>
       <c r="AG373" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -58321,7 +58336,7 @@
       </c>
       <c r="AH373" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>78.000000000000909</v>
+        <v>0</v>
       </c>
       <c r="AI373" t="s">
         <v>8</v>
@@ -58332,7 +58347,7 @@
       <c r="AK373" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AL373" s="114">
+      <c r="AL373" s="112">
         <v>42.76</v>
       </c>
       <c r="AM373" s="106" t="s">
@@ -58425,14 +58440,14 @@
         <v>45888</v>
       </c>
       <c r="AD374" s="14">
-        <v>25</v>
+        <v>25.86</v>
       </c>
       <c r="AE374" s="7">
         <v>300</v>
       </c>
       <c r="AF374" s="7">
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
-        <v>7500</v>
+        <v>7758</v>
       </c>
       <c r="AG374" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
@@ -58440,7 +58455,7 @@
       </c>
       <c r="AH374" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="AI374" t="s">
         <v>8</v>
@@ -58451,7 +58466,7 @@
       <c r="AK374" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AL374" s="114">
+      <c r="AL374" s="112">
         <v>42.76</v>
       </c>
       <c r="AM374" s="106" t="s">
@@ -58520,7 +58535,7 @@
       <c r="AC375" s="16"/>
       <c r="AD375" s="15">
         <f>SUBTOTAL(109,CT[SC Qty (MT)])</f>
-        <v>9290</v>
+        <v>9291.1200000000008</v>
       </c>
       <c r="AE375" s="16">
         <f>SUBTOTAL(101,CT[Sales Rate/MT (USD)])</f>
@@ -58528,7 +58543,7 @@
       </c>
       <c r="AF375" s="16">
         <f>SUBTOTAL(109,CT[Customer  Prov. Price])</f>
-        <v>3138900</v>
+        <v>3139236</v>
       </c>
       <c r="AG375" s="16">
         <f>SUBTOTAL(109,CT[Customer Final Price])</f>
@@ -58536,7 +58551,7 @@
       </c>
       <c r="AH375" s="16">
         <f>SUBTOTAL(109,CT[Customer Price Difference])</f>
-        <v>-17453.899999999998</v>
+        <v>-17789.899999999998</v>
       </c>
       <c r="AJ375" s="1"/>
     </row>
@@ -58648,7 +58663,7 @@
       </c>
       <c r="AB379" s="89">
         <f>CT[[#Totals],[Customer  Prov. Price]]/$X$379</f>
-        <v>2418631.5302820154</v>
+        <v>2418890.429958391</v>
       </c>
       <c r="AC379" s="89">
         <f>CT[[#Totals],[Customer Final Price]]/$X$379</f>
@@ -58752,21 +58767,21 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D376:D802 E67:E375 E3:E65">
-    <cfRule type="duplicateValues" dxfId="76" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q376">
-    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",Q376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="6" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",Q376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG376">
-    <cfRule type="containsText" dxfId="73" priority="2" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",AG376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",AG376)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58939,7 +58954,7 @@
       <c r="B5" s="38">
         <v>240</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="113">
         <v>244.26000000000002</v>
       </c>
       <c r="D5" s="40">
@@ -58962,7 +58977,7 @@
       <c r="B6" s="38">
         <v>500</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="113">
         <v>480.73</v>
       </c>
       <c r="D6" s="40">
@@ -58985,7 +59000,7 @@
       <c r="B7" s="38">
         <v>500</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="113">
         <v>482.43999999999994</v>
       </c>
       <c r="D7" s="40">
@@ -59008,7 +59023,7 @@
       <c r="B8" s="38">
         <v>500</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="113">
         <v>481.62000000000006</v>
       </c>
       <c r="D8" s="40">
@@ -59031,7 +59046,7 @@
       <c r="B9" s="38">
         <v>1000</v>
       </c>
-      <c r="C9" s="111"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="40">
         <v>-1000</v>
       </c>
@@ -59050,19 +59065,17 @@
         <v>127</v>
       </c>
       <c r="B10" s="38">
-        <v>6050</v>
-      </c>
-      <c r="C10" s="111">
-        <v>51.120000000000005</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="C10" s="113"/>
       <c r="D10" s="40">
-        <v>-5998.88</v>
+        <v>-6000</v>
       </c>
       <c r="E10" s="7">
-        <v>9829.4660640000002</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>15336</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -59075,7 +59088,7 @@
       <c r="B11" s="38">
         <v>500</v>
       </c>
-      <c r="C11" s="111"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="40">
         <v>-500</v>
       </c>
@@ -59090,29 +59103,96 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="45">
-        <v>9290</v>
-      </c>
-      <c r="C12" s="112">
-        <v>1740.17</v>
-      </c>
-      <c r="D12" s="46">
-        <v>-7549.83</v>
-      </c>
-      <c r="E12" s="35">
-        <v>544310.15422400006</v>
-      </c>
-      <c r="F12" s="35">
-        <v>608946.1</v>
-      </c>
-      <c r="G12" s="35">
-        <v>43795.80184</v>
+      <c r="A12" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="38">
+        <v>51.120000000000005</v>
+      </c>
+      <c r="C12" s="113">
+        <v>51.120000000000005</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>11560.005864000001</v>
+      </c>
+      <c r="F12" s="7">
+        <v>15336</v>
+      </c>
+      <c r="G12" s="7">
+        <v>568.53343177464751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="38">
+        <v>25.26</v>
+      </c>
+      <c r="C13" s="113">
+        <v>25.26</v>
+      </c>
+      <c r="D13" s="40">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5712.1625220000005</v>
+      </c>
+      <c r="F13" s="7">
+        <v>7578.0000000000009</v>
+      </c>
+      <c r="G13" s="7">
+        <v>258.82226673239404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="38">
+        <v>25.86</v>
+      </c>
+      <c r="C14" s="113">
+        <v>25.86</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5847.8433420000001</v>
+      </c>
+      <c r="F14" s="7">
+        <v>7758</v>
+      </c>
+      <c r="G14" s="7">
+        <v>309.71116504225347</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="45">
+        <v>9291.1200000000008</v>
+      </c>
+      <c r="C15" s="114">
+        <v>1740.1699999999998</v>
+      </c>
+      <c r="D15" s="46">
+        <v>-7550.9500000000007</v>
+      </c>
+      <c r="E15" s="35">
+        <v>546040.69402400008</v>
+      </c>
+      <c r="F15" s="35">
+        <v>608946.1</v>
+      </c>
+      <c r="G15" s="35">
+        <v>44364.335271774646</v>
+      </c>
       <c r="H15" s="65" t="s">
         <v>129</v>
       </c>
@@ -59807,7 +59887,7 @@
     <row r="8" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="71" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -59904,8 +59984,8 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>189</v>
+      <c r="A10" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="B10" s="7">
         <v>0</v>
@@ -59913,7 +59993,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -59921,10 +60001,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
+        <v>568.53343177464751</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">

--- a/Contracts Traded.xlsx
+++ b/Contracts Traded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da52c24a9933acf4/Documents/WHL/Misbah/Docs - Misbah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="673" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E744DB95-9C2E-4964-BAAA-912CDA4BF7EF}"/>
+  <xr:revisionPtr revIDLastSave="679" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8077BD-FDC0-43AB-85D3-DBD211D5A170}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B25BEA1-06F2-49A6-909D-F47AD7FB83DE}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="205">
   <si>
     <t>CONTRACTS TRADED - Walter Heselwood Ltd.</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>PENDING</t>
+  </si>
+  <si>
+    <t>TGHU0538164</t>
   </si>
 </sst>
 </file>
@@ -2005,6 +2008,134 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -2584,134 +2715,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3657,7 +3660,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45931.43185439815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45931.441132175925" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
   <cacheSource type="worksheet">
     <worksheetSource name="CT"/>
   </cacheSource>
@@ -6754,10 +6757,10 @@
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
     <x v="70"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="23.69"/>
+    <m/>
+    <m/>
+    <s v="PENDING"/>
     <s v="July"/>
     <s v="CNF"/>
     <m/>
@@ -6765,8 +6768,8 @@
     <n v="103"/>
     <n v="302"/>
     <n v="7550"/>
-    <n v="0"/>
-    <s v=""/>
+    <n v="7154.38"/>
+    <n v="474.74399999999986"/>
     <n v="1.3451"/>
     <m/>
     <m/>
@@ -6774,7 +6777,7 @@
     <m/>
     <n v="0"/>
     <n v="33"/>
-    <n v="0"/>
+    <n v="781.7700000000001"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -6782,8 +6785,8 @@
     <n v="25"/>
     <n v="335"/>
     <n v="8375"/>
-    <s v=""/>
-    <s v=""/>
+    <n v="7936.1500000000005"/>
+    <n v="-438.84999999999945"/>
     <s v="Nhava Sheva"/>
     <s v="PI-2025-000006"/>
     <m/>
@@ -19134,7 +19137,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1333CDD6-9419-4B1F-AA10-E037DBD897CF}" name="PivotTable1" cacheId="5" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Puchase Contract">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1333CDD6-9419-4B1F-AA10-E037DBD897CF}" name="PivotTable1" cacheId="11" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Puchase Contract">
   <location ref="A3:G17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -19348,13 +19351,13 @@
     <dataField name=" Gross Margin" fld="25" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="123">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="159">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="158">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -19367,7 +19370,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="157">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -19380,7 +19383,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="156">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19389,7 +19392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19398,7 +19401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="154">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19407,7 +19410,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -19421,7 +19424,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -19435,19 +19438,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="151">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="149">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="148">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19523,7 +19526,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9F7C9F-35DE-4B78-8D6A-04536891CED8}" name="PivotTable12" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21" rowHeaderCaption="Puchase Contract">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9F7C9F-35DE-4B78-8D6A-04536891CED8}" name="PivotTable12" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21" rowHeaderCaption="Puchase Contract">
   <location ref="A1:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -19733,13 +19736,13 @@
     <dataField name="Sum of Container Qty" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="86">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19748,7 +19751,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="120">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19757,7 +19760,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19766,7 +19769,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19775,19 +19778,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="117">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="115">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="114">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19797,10 +19800,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="112">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19810,10 +19813,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="110">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19823,7 +19826,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19861,99 +19864,99 @@
   <autoFilter ref="A2:AM374" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}"/>
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="160" totalsRowDxfId="33"/>
-    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="159" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="158" totalsRowDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="157" totalsRowDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="155" totalsRowDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="154" totalsRowDxfId="27"/>
-    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="26">
+    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="71" totalsRowDxfId="33"/>
+    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="70" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="69" totalsRowDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="68" totalsRowDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="66" totalsRowDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="65" totalsRowDxfId="27"/>
+    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="26">
       <totalsRowFormula>CT[[#Totals],[PC Qty (MT)]]-CT[[#Totals],[Container Qty]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="152" totalsRowDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="151" totalsRowDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="150" totalsRowDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="22"/>
-    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="148" totalsRowDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="147" totalsRowDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="19">
+    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="63" totalsRowDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="62" totalsRowDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="61" totalsRowDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="22"/>
+    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="59" totalsRowDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="19">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[PC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="145" totalsRowDxfId="18">
+    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="18">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="17">
+    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="17">
       <calculatedColumnFormula>IF(CT[[#This Row],[Supplier Final Price]]&lt;&gt;0,(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]])+20%*(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="143" totalsRowDxfId="16"/>
-    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="142" totalsRowDxfId="15"/>
-    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Freight Charges" totalsRowFunction="average" dataDxfId="141" totalsRowDxfId="14"/>
-    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" totalsRowFunction="average" dataDxfId="140" totalsRowDxfId="13"/>
-    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges PMT" totalsRowFunction="average" dataDxfId="139" totalsRowDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="138" totalsRowDxfId="11">
+    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="54" totalsRowDxfId="16"/>
+    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="53" totalsRowDxfId="15"/>
+    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Freight Charges" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="14"/>
+    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" totalsRowFunction="average" dataDxfId="51" totalsRowDxfId="13"/>
+    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges PMT" totalsRowFunction="average" dataDxfId="50" totalsRowDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="49" totalsRowDxfId="11">
       <calculatedColumnFormula>IFERROR(1250/CT[[#This Row],[Container Qty]]+50/SUM($F$3:$F$12)+600/SUM($F$3:$F$12),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="137" totalsRowDxfId="10">
+    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="48" totalsRowDxfId="10">
       <calculatedColumnFormula>IFERROR(AF3-(O3+CT[[#This Row],[Cost Per MT]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="9">
+    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="9">
       <calculatedColumnFormula>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="135" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="133" totalsRowDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="132" totalsRowDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="130" totalsRowDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="3">
+    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="46" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="44" totalsRowDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="43" totalsRowDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="3">
       <calculatedColumnFormula>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="2">
+    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="1">
+    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{55725ACA-5363-449D-B3B5-AE2F51F334AD}" name="POD"/>
-    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="126" totalsRowDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="125"/>
-    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="124"/>
+    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="37" totalsRowDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="36"/>
+    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowCount="1" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowCount="1" headerRowDxfId="146" dataDxfId="145" totalsRowDxfId="144">
   <autoFilter ref="A1:J3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="143" totalsRowDxfId="142">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Container Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="137" totalsRowDxfId="136">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[BL Number])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="135" totalsRowDxfId="134">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[BL Number]],CT[BL Number],CT[SOB Date])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="133" totalsRowDxfId="132">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[SC'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="131" totalsRowDxfId="130">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Sales Rate/MT (USD)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91">
+    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer Final Price])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="90" totalsRowDxfId="89">
+    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="127" totalsRowDxfId="126">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[PI'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87">
+    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[CI'#])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20309,7 +20312,7 @@
       <selection activeCell="B8" sqref="B8"/>
       <selection pane="topRight" activeCell="B8" sqref="B8"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30026,10 +30029,17 @@
       <c r="D74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="11"/>
+      <c r="E74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" s="11">
+        <v>25.58</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="J74" s="1" t="s">
         <v>126</v>
       </c>
@@ -30053,11 +30063,11 @@
       </c>
       <c r="Q74" s="7">
         <f>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</f>
-        <v>0</v>
-      </c>
-      <c r="R74" s="7" t="str">
+        <v>7725.16</v>
+      </c>
+      <c r="R74" s="7">
         <f>IF(CT[[#This Row],[BL Number]]&lt;&gt;0,(CT[[#This Row],[Supplier Prov. Price]]-CT[[#This Row],[Supplier Final Price]])*1.2,"")</f>
-        <v/>
+        <v>-210.19199999999981</v>
       </c>
       <c r="S74" s="103">
         <v>1.3451</v>
@@ -30076,7 +30086,7 @@
       </c>
       <c r="Z74" s="7">
         <f>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v>0</v>
+        <v>844.14</v>
       </c>
       <c r="AA74" s="7"/>
       <c r="AB74" t="s">
@@ -30099,13 +30109,13 @@
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
         <v>8375</v>
       </c>
-      <c r="AH74" s="7" t="str">
+      <c r="AH74" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v/>
-      </c>
-      <c r="AI74" s="7" t="str">
+        <v>8569.2999999999993</v>
+      </c>
+      <c r="AI74" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v/>
+        <v>194.29999999999927</v>
       </c>
       <c r="AJ74" t="s">
         <v>8</v>
@@ -58017,7 +58027,7 @@
       <c r="C375" s="3"/>
       <c r="F375" s="13">
         <f>SUBTOTAL(109,CT[Container Qty])</f>
-        <v>1763.86</v>
+        <v>1789.4399999999998</v>
       </c>
       <c r="G375" s="1"/>
       <c r="H375" s="31" t="s">
@@ -58025,7 +58035,7 @@
       </c>
       <c r="I375" s="100">
         <f>CT[[#Totals],[PC Qty (MT)]]-CT[[#Totals],[Container Qty]]</f>
-        <v>7527.2600000000011</v>
+        <v>7501.6800000000012</v>
       </c>
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
@@ -58045,11 +58055,11 @@
       </c>
       <c r="Q375" s="16">
         <f>SUBTOTAL(109,CT[Supplier Final Price])</f>
-        <v>553195.07402400021</v>
+        <v>560920.23402400024</v>
       </c>
       <c r="R375" s="16">
         <f>SUBTOTAL(109,CT[Supplier Price Diff. (VAT incl.)])</f>
-        <v>23203.286207999983</v>
+        <v>22993.094207999984</v>
       </c>
       <c r="S375" s="16"/>
       <c r="T375" s="105"/>
@@ -58075,7 +58085,7 @@
       </c>
       <c r="Z375" s="16">
         <f>SUBTOTAL(109,CT[Gross Margin])</f>
-        <v>39328.951500999981</v>
+        <v>40173.091500999981</v>
       </c>
       <c r="AA375" s="16"/>
       <c r="AC375" s="1"/>
@@ -58094,11 +58104,11 @@
       </c>
       <c r="AH375" s="16">
         <f>SUBTOTAL(109,CT[Customer Final Price])</f>
-        <v>616882.25</v>
+        <v>625451.55000000005</v>
       </c>
       <c r="AI375" s="16">
         <f>SUBTOTAL(109,CT[Customer Price Difference])</f>
-        <v>-18228.749999999996</v>
+        <v>-18034.449999999997</v>
       </c>
       <c r="AK375" s="1"/>
       <c r="AO375" s="7">
@@ -58130,7 +58140,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="24">
         <f>CT[[#Totals],[Gross Margin]]/M380</f>
-        <v>30304.323856526415</v>
+        <v>30954.76306133455</v>
       </c>
       <c r="AA376" s="7"/>
       <c r="AD376" s="1"/>
@@ -58181,11 +58191,11 @@
       </c>
       <c r="P378" s="86">
         <f>CT[[#Totals],[Supplier Final Price]]*0.2</f>
-        <v>110639.01480480004</v>
+        <v>112184.04680480005</v>
       </c>
       <c r="Q378" s="40" cm="1">
         <f t="array" ref="Q378">O378-_xlfn.ANCHORARRAY(P378)</f>
-        <v>93077.754367999965</v>
+        <v>91532.722367999959</v>
       </c>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
@@ -58207,11 +58217,11 @@
       </c>
       <c r="P379" s="87">
         <f>CT[[#Totals],[Supplier Final Price]]+P378</f>
-        <v>663834.08882880025</v>
+        <v>673104.28082880029</v>
       </c>
       <c r="Q379" s="40" cm="1">
         <f t="array" ref="Q379">O379-_xlfn.ANCHORARRAY(P379)</f>
-        <v>558466.52620799979</v>
+        <v>549196.33420799975</v>
       </c>
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
@@ -58238,7 +58248,7 @@
       </c>
       <c r="P380" s="86">
         <f>CT[[#Totals],[Supplier Final Price]]/M380</f>
-        <v>426256.02868238569</v>
+        <v>432208.53292032686</v>
       </c>
       <c r="Q380" s="7"/>
       <c r="R380" s="7"/>
@@ -58268,7 +58278,7 @@
       </c>
       <c r="P381" s="86">
         <f>P380*0.2</f>
-        <v>85251.205736477146</v>
+        <v>86441.706584065381</v>
       </c>
       <c r="Q381" s="7"/>
       <c r="R381" s="7"/>
@@ -58287,7 +58297,7 @@
       </c>
       <c r="P382" s="88">
         <f>P380+P381</f>
-        <v>511507.23441886285</v>
+        <v>518650.23950439226</v>
       </c>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
@@ -58315,15 +58325,15 @@
       </c>
       <c r="O384" s="85">
         <f>CT[[#Totals],[Customer Final Price]]/M380</f>
-        <v>475329.21097241482</v>
+        <v>481932.15441516414</v>
       </c>
       <c r="P384" s="85">
         <f>CT[[#Totals],[Supplier Final Price]]/M380</f>
-        <v>426256.02868238569</v>
+        <v>432208.53292032686</v>
       </c>
       <c r="Q384" s="90">
         <f>O384-P384-(CT[[#Totals],[Cost Per MT]]*CT[[#Totals],[Container Qty]])/1.2978</f>
-        <v>45427.036115004237</v>
+        <v>46024.597869698919</v>
       </c>
       <c r="R384" s="7"/>
       <c r="T384" s="7"/>
@@ -58358,21 +58368,21 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D376:D803 E67:E375 E3:E65">
-    <cfRule type="duplicateValues" dxfId="70" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q376:Q377">
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="106" priority="5" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",Q376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="6" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="105" priority="6" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",Q376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI376:AI377">
-    <cfRule type="containsText" dxfId="67" priority="2" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="104" priority="2" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",AI376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="103" priority="3" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",AI376)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58637,18 +58647,20 @@
       <c r="B9" s="38">
         <v>500</v>
       </c>
-      <c r="C9" s="111"/>
+      <c r="C9" s="111">
+        <v>23.69</v>
+      </c>
       <c r="D9" s="39">
-        <v>-500</v>
+        <v>-476.31</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>7154.38</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>7936.1500000000005</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>781.7700000000001</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -58872,19 +58884,19 @@
         <v>9291.1200000000008</v>
       </c>
       <c r="C17" s="112">
-        <v>1740.1699999999998</v>
+        <v>1763.86</v>
       </c>
       <c r="D17" s="45">
-        <v>-7550.9500000000007</v>
+        <v>-7527.2600000000011</v>
       </c>
       <c r="E17" s="35">
-        <v>546040.69402400008</v>
+        <v>553195.07402400009</v>
       </c>
       <c r="F17" s="35">
-        <v>608946.1</v>
+        <v>616882.25</v>
       </c>
       <c r="G17" s="35">
-        <v>38547.181500999992</v>
+        <v>39328.951500999989</v>
       </c>
       <c r="H17" s="71"/>
       <c r="I17" s="72"/>
@@ -59041,7 +59053,7 @@
       </c>
       <c r="K24" s="67">
         <f>SUMIFS(CT[Container Qty],CT[SC'#],Pivot!H24)</f>
-        <v>23.69</v>
+        <v>49.269999999999996</v>
       </c>
       <c r="L24" s="68">
         <f>_xlfn.XLOOKUP(H24,CT[SC'#],CT[Sales Rate/MT (USD)])</f>
@@ -59053,11 +59065,11 @@
       </c>
       <c r="N24" s="69">
         <f>K24*L24</f>
-        <v>7936.1500000000005</v>
+        <v>16505.449999999997</v>
       </c>
       <c r="O24" s="70">
         <f>IF(N24&lt;&gt;0,N24-M24,-M24)</f>
-        <v>-2492063.85</v>
+        <v>-2483494.5499999998</v>
       </c>
       <c r="P24" s="66"/>
     </row>
@@ -59071,7 +59083,7 @@
       <c r="N25" s="81"/>
       <c r="O25" s="61">
         <f>SUM(O21:O24)</f>
-        <v>-2509853.75</v>
+        <v>-2501284.4499999997</v>
       </c>
       <c r="P25" s="82"/>
     </row>
@@ -59186,7 +59198,7 @@
       </c>
       <c r="K32" s="95">
         <f>GETPIVOTDATA(" Container Qty (MT)",$A$3,"PC#","PC-2025-000005")</f>
-        <v>0</v>
+        <v>23.69</v>
       </c>
       <c r="L32" s="96">
         <f t="shared" si="0"/>
@@ -59205,7 +59217,7 @@
       </c>
       <c r="K33" s="95">
         <f>GETPIVOTDATA(" Container Qty (MT)",$A$3,"PC#","PC-2025-000005")</f>
-        <v>0</v>
+        <v>23.69</v>
       </c>
       <c r="L33" s="96">
         <f>IF(I33="Completed",K33-J33,0)</f>
@@ -59393,7 +59405,7 @@
     <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="65" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="47"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -59510,9 +59522,11 @@
         <v>124</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="111"/>
+        <v>781.7700000000001</v>
+      </c>
+      <c r="C6" s="111">
+        <v>23.69</v>
+      </c>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
     </row>
@@ -59532,9 +59546,11 @@
         <v>202</v>
       </c>
       <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="111"/>
+        <v>781.7700000000001</v>
+      </c>
+      <c r="C8" s="111">
+        <v>23.69</v>
+      </c>
       <c r="E8" s="55"/>
       <c r="F8" s="56"/>
     </row>

--- a/Contracts Traded.xlsx
+++ b/Contracts Traded.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da52c24a9933acf4/Documents/WHL/Misbah/Docs - Misbah/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da52c24a9933acf4/Documents/WHL/Misbah/Docs - Misbah/WHL-exports-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="679" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A8077BD-FDC0-43AB-85D3-DBD211D5A170}"/>
+  <xr:revisionPtr revIDLastSave="680" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEA9D756-B588-4B0B-A6E0-04B773459BE9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B25BEA1-06F2-49A6-909D-F47AD7FB83DE}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="23" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1277,865 +1277,6 @@
   </cellStyles>
   <dxfs count="162">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -2715,6 +1856,865 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3660,7 +3660,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45931.441132175925" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45931.44613113426" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
   <cacheSource type="worksheet">
     <worksheetSource name="CT"/>
   </cacheSource>
@@ -3688,7 +3688,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Container Number" numFmtId="0">
-      <sharedItems containsBlank="1" count="75">
+      <sharedItems containsBlank="1" count="76">
         <s v="HLXU1092493"/>
         <s v="TRHU1653668"/>
         <s v="HLBU2940349"/>
@@ -3760,6 +3760,7 @@
         <s v="MRKU7189008"/>
         <s v="MRKU9316800"/>
         <s v="HLXU3541130"/>
+        <s v="TGHU0538164"/>
         <m/>
         <s v="TGCU2456447"/>
         <s v="GLDU5182336"/>
@@ -3827,7 +3828,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.8296360907593794" maxValue="335"/>
     </cacheField>
     <cacheField name="Gross Margin" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="830.53165903490628"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="844.14"/>
     </cacheField>
     <cacheField name="Column6" numFmtId="165">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -6798,10 +6799,10 @@
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
     <x v="71"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="25.58"/>
+    <m/>
+    <m/>
+    <s v="PENDING"/>
     <s v="July"/>
     <s v="CNF"/>
     <m/>
@@ -6809,8 +6810,8 @@
     <n v="103"/>
     <n v="302"/>
     <n v="7550"/>
-    <n v="0"/>
-    <s v=""/>
+    <n v="7725.16"/>
+    <n v="-210.19199999999981"/>
     <n v="1.3451"/>
     <m/>
     <m/>
@@ -6818,7 +6819,7 @@
     <m/>
     <n v="0"/>
     <n v="33"/>
-    <n v="0"/>
+    <n v="844.14"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -6826,8 +6827,8 @@
     <n v="25"/>
     <n v="335"/>
     <n v="8375"/>
-    <s v=""/>
-    <s v=""/>
+    <n v="8569.2999999999993"/>
+    <n v="194.29999999999927"/>
     <s v="Nhava Sheva"/>
     <s v="PI-2025-000006"/>
     <m/>
@@ -6838,7 +6839,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -6879,7 +6880,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -6920,7 +6921,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -6961,7 +6962,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7002,7 +7003,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7043,7 +7044,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7084,7 +7085,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7125,7 +7126,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7166,7 +7167,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7207,7 +7208,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7248,7 +7249,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7289,7 +7290,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7330,7 +7331,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7371,7 +7372,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7412,7 +7413,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7453,7 +7454,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7494,7 +7495,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7535,7 +7536,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7576,7 +7577,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7617,7 +7618,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7658,7 +7659,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7699,7 +7700,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7740,7 +7741,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7781,7 +7782,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7822,7 +7823,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7863,7 +7864,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7904,7 +7905,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7945,7 +7946,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -7986,7 +7987,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8027,7 +8028,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8068,7 +8069,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8109,7 +8110,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8150,7 +8151,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8191,7 +8192,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8232,7 +8233,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8273,7 +8274,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8314,7 +8315,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8355,7 +8356,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8396,7 +8397,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8437,7 +8438,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8478,7 +8479,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8519,7 +8520,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8560,7 +8561,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8601,7 +8602,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8642,7 +8643,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8683,7 +8684,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8724,7 +8725,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8765,7 +8766,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8806,7 +8807,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8847,7 +8848,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8888,7 +8889,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8929,7 +8930,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -8970,7 +8971,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9011,7 +9012,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9052,7 +9053,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9093,7 +9094,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9134,7 +9135,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9175,7 +9176,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9216,7 +9217,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9257,7 +9258,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9298,7 +9299,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9339,7 +9340,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9380,7 +9381,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9421,7 +9422,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9462,7 +9463,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9503,7 +9504,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9544,7 +9545,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9585,7 +9586,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9626,7 +9627,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9667,7 +9668,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9708,7 +9709,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9749,7 +9750,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9790,7 +9791,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9831,7 +9832,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9872,7 +9873,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9913,7 +9914,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9954,7 +9955,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -9995,7 +9996,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10036,7 +10037,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10077,7 +10078,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10118,7 +10119,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10159,7 +10160,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10200,7 +10201,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10241,7 +10242,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10282,7 +10283,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10323,7 +10324,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10364,7 +10365,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10405,7 +10406,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10446,7 +10447,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10487,7 +10488,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10528,7 +10529,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10569,7 +10570,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10610,7 +10611,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10651,7 +10652,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10692,7 +10693,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10733,7 +10734,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10774,7 +10775,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10815,7 +10816,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10856,7 +10857,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10897,7 +10898,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10938,7 +10939,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -10979,7 +10980,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11020,7 +11021,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11061,7 +11062,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11102,7 +11103,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11143,7 +11144,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11184,7 +11185,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11225,7 +11226,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11266,7 +11267,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11307,7 +11308,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11348,7 +11349,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11389,7 +11390,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11430,7 +11431,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11471,7 +11472,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11512,7 +11513,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11553,7 +11554,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11594,7 +11595,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11635,7 +11636,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11676,7 +11677,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11717,7 +11718,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11758,7 +11759,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11799,7 +11800,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11840,7 +11841,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11881,7 +11882,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11922,7 +11923,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -11963,7 +11964,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12004,7 +12005,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12045,7 +12046,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12086,7 +12087,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12127,7 +12128,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12168,7 +12169,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12209,7 +12210,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12250,7 +12251,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12291,7 +12292,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12332,7 +12333,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12373,7 +12374,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12414,7 +12415,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12455,7 +12456,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12496,7 +12497,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12537,7 +12538,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12578,7 +12579,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12619,7 +12620,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12660,7 +12661,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12701,7 +12702,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12742,7 +12743,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12783,7 +12784,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12824,7 +12825,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12865,7 +12866,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12906,7 +12907,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12947,7 +12948,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -12988,7 +12989,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13029,7 +13030,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13070,7 +13071,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13111,7 +13112,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13152,7 +13153,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13193,7 +13194,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13234,7 +13235,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13275,7 +13276,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13316,7 +13317,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13357,7 +13358,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13398,7 +13399,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13439,7 +13440,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13480,7 +13481,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13521,7 +13522,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13562,7 +13563,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13603,7 +13604,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13644,7 +13645,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13685,7 +13686,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13726,7 +13727,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13767,7 +13768,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13808,7 +13809,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13849,7 +13850,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13890,7 +13891,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13931,7 +13932,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -13972,7 +13973,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14013,7 +14014,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14054,7 +14055,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14095,7 +14096,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14136,7 +14137,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14177,7 +14178,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14218,7 +14219,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14259,7 +14260,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14300,7 +14301,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14341,7 +14342,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14382,7 +14383,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14423,7 +14424,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14464,7 +14465,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14505,7 +14506,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14546,7 +14547,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14587,7 +14588,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14628,7 +14629,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14669,7 +14670,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14710,7 +14711,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14751,7 +14752,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14792,7 +14793,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14833,7 +14834,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14874,7 +14875,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14915,7 +14916,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14956,7 +14957,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -14997,7 +14998,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15038,7 +15039,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15079,7 +15080,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15120,7 +15121,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15161,7 +15162,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15202,7 +15203,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15243,7 +15244,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15284,7 +15285,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15325,7 +15326,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15366,7 +15367,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15407,7 +15408,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15448,7 +15449,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15489,7 +15490,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15530,7 +15531,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15571,7 +15572,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15612,7 +15613,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15653,7 +15654,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15694,7 +15695,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15735,7 +15736,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15776,7 +15777,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15817,7 +15818,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15858,7 +15859,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15899,7 +15900,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15940,7 +15941,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -15981,7 +15982,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16022,7 +16023,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16063,7 +16064,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16104,7 +16105,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16145,7 +16146,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16186,7 +16187,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16227,7 +16228,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16268,7 +16269,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16309,7 +16310,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16350,7 +16351,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16391,7 +16392,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16432,7 +16433,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16473,7 +16474,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16514,7 +16515,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16555,7 +16556,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16596,7 +16597,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16637,7 +16638,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16678,7 +16679,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16719,7 +16720,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16760,7 +16761,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16801,7 +16802,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16842,7 +16843,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16883,7 +16884,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16924,7 +16925,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -16965,7 +16966,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17006,7 +17007,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17047,7 +17048,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17088,7 +17089,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17129,7 +17130,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17170,7 +17171,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17211,7 +17212,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17252,7 +17253,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17293,7 +17294,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17334,7 +17335,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17375,7 +17376,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17416,7 +17417,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17457,7 +17458,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17498,7 +17499,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17539,7 +17540,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17580,7 +17581,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17621,7 +17622,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17662,7 +17663,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17703,7 +17704,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17744,7 +17745,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17785,7 +17786,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17826,7 +17827,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17867,7 +17868,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17908,7 +17909,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17949,7 +17950,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -17990,7 +17991,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18031,7 +18032,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18072,7 +18073,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18113,7 +18114,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18154,7 +18155,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18195,7 +18196,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18236,7 +18237,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18277,7 +18278,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18318,7 +18319,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18359,7 +18360,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18400,7 +18401,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18441,7 +18442,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18482,7 +18483,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18523,7 +18524,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18564,7 +18565,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18605,7 +18606,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18646,7 +18647,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18687,7 +18688,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18728,7 +18729,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18769,7 +18770,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18810,7 +18811,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18851,7 +18852,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18892,7 +18893,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18933,7 +18934,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -18974,7 +18975,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -19015,7 +19016,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="71"/>
+    <x v="72"/>
     <m/>
     <m/>
     <m/>
@@ -19056,7 +19057,7 @@
     <x v="8"/>
     <d v="2025-08-13T00:00:00"/>
     <s v="Turnnings"/>
-    <x v="72"/>
+    <x v="73"/>
     <n v="25.26"/>
     <d v="2025-08-28T00:00:00"/>
     <d v="2025-10-14T00:00:00"/>
@@ -19097,7 +19098,7 @@
     <x v="8"/>
     <d v="2025-08-13T00:00:00"/>
     <s v="Turnnings"/>
-    <x v="73"/>
+    <x v="74"/>
     <n v="25.86"/>
     <d v="2025-08-28T00:00:00"/>
     <d v="2025-10-14T00:00:00"/>
@@ -19137,7 +19138,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1333CDD6-9419-4B1F-AA10-E037DBD897CF}" name="PivotTable1" cacheId="11" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Puchase Contract">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1333CDD6-9419-4B1F-AA10-E037DBD897CF}" name="PivotTable1" cacheId="23" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Puchase Contract">
   <location ref="A3:G17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -19158,7 +19159,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="76">
+      <items count="77">
         <item x="10"/>
         <item x="36"/>
         <item x="38"/>
@@ -19209,7 +19210,7 @@
         <item x="27"/>
         <item x="42"/>
         <item x="45"/>
-        <item x="71"/>
+        <item x="72"/>
         <item x="50"/>
         <item x="51"/>
         <item x="52"/>
@@ -19227,13 +19228,14 @@
         <item x="64"/>
         <item x="65"/>
         <item x="66"/>
-        <item m="1" x="74"/>
+        <item m="1" x="75"/>
         <item x="68"/>
         <item x="67"/>
         <item x="69"/>
-        <item x="72"/>
         <item x="73"/>
+        <item x="74"/>
         <item x="70"/>
+        <item x="71"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19351,13 +19353,13 @@
     <dataField name=" Gross Margin" fld="25" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="160">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -19370,7 +19372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -19383,7 +19385,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="84">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19392,7 +19394,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19401,7 +19403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="82">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19410,7 +19412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="153">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -19424,7 +19426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="152">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -19438,19 +19440,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="151">
+    <format dxfId="79">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="150">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="149">
+    <format dxfId="77">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="76">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="147">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19526,7 +19528,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9F7C9F-35DE-4B78-8D6A-04536891CED8}" name="PivotTable12" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21" rowHeaderCaption="Puchase Contract">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9F7C9F-35DE-4B78-8D6A-04536891CED8}" name="PivotTable12" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21" rowHeaderCaption="Puchase Contract">
   <location ref="A1:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
@@ -19547,7 +19549,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="76">
+      <items count="77">
         <item x="10"/>
         <item x="36"/>
         <item x="38"/>
@@ -19598,7 +19600,7 @@
         <item x="27"/>
         <item x="42"/>
         <item x="45"/>
-        <item x="71"/>
+        <item x="72"/>
         <item x="50"/>
         <item x="51"/>
         <item x="52"/>
@@ -19616,13 +19618,14 @@
         <item x="64"/>
         <item x="65"/>
         <item x="66"/>
-        <item m="1" x="74"/>
+        <item m="1" x="75"/>
         <item x="68"/>
         <item x="67"/>
         <item x="69"/>
-        <item x="72"/>
         <item x="73"/>
+        <item x="74"/>
         <item x="70"/>
+        <item x="71"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19667,7 +19670,7 @@
     <field x="1"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -19688,6 +19691,9 @@
     </i>
     <i r="1">
       <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
     </i>
     <i>
       <x v="5"/>
@@ -19736,13 +19742,13 @@
     <dataField name="Sum of Container Qty" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="123">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19751,7 +19757,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19760,7 +19766,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19769,7 +19775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19778,19 +19784,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="45">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="43">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="42">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19800,10 +19806,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="112">
+    <format dxfId="40">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19813,10 +19819,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="38">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19826,7 +19832,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19863,100 +19869,100 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}" name="CT" displayName="CT" ref="A2:AM375" totalsRowCount="1" headerRowDxfId="161">
   <autoFilter ref="A2:AM374" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="71" totalsRowDxfId="33"/>
-    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="70" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="69" totalsRowDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="68" totalsRowDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="66" totalsRowDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="65" totalsRowDxfId="27"/>
-    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="26">
+    <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
       <totalsRowFormula>CT[[#Totals],[PC Qty (MT)]]-CT[[#Totals],[Container Qty]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="63" totalsRowDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="62" totalsRowDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="61" totalsRowDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="22"/>
-    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="59" totalsRowDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="58" totalsRowDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="19">
+    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="130">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[PC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="18">
+    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="17">
+    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126">
       <calculatedColumnFormula>IF(CT[[#This Row],[Supplier Final Price]]&lt;&gt;0,(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]])+20%*(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="54" totalsRowDxfId="16"/>
-    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="53" totalsRowDxfId="15"/>
-    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Freight Charges" totalsRowFunction="average" dataDxfId="52" totalsRowDxfId="14"/>
-    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" totalsRowFunction="average" dataDxfId="51" totalsRowDxfId="13"/>
-    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges PMT" totalsRowFunction="average" dataDxfId="50" totalsRowDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="49" totalsRowDxfId="11">
+    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Freight Charges" totalsRowFunction="average" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" totalsRowFunction="average" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges PMT" totalsRowFunction="average" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>IFERROR(1250/CT[[#This Row],[Container Qty]]+50/SUM($F$3:$F$12)+600/SUM($F$3:$F$12),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="48" totalsRowDxfId="10">
+    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>IFERROR(AF3-(O3+CT[[#This Row],[Cost Per MT]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="9">
+    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="46" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="44" totalsRowDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="43" totalsRowDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="41" totalsRowDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="3">
+    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="2">
+    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="1">
+    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{55725ACA-5363-449D-B3B5-AE2F51F334AD}" name="POD"/>
-    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="37" totalsRowDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="36"/>
-    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="35"/>
+    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="90"/>
+    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowCount="1" headerRowDxfId="146" dataDxfId="145" totalsRowDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
   <autoFilter ref="A1:J3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Container Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="137" totalsRowDxfId="136">
+    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[BL Number])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[BL Number]],CT[BL Number],CT[SOB Date])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="133" totalsRowDxfId="132">
+    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[SC'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Sales Rate/MT (USD)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer Final Price])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[PI'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[CI'#])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20308,7 +20314,7 @@
   <dimension ref="A1:AO391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C349" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B8" sqref="B8"/>
       <selection pane="topRight" activeCell="B8" sqref="B8"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
@@ -58368,21 +58374,21 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D376:D803 E67:E375 E3:E65">
-    <cfRule type="duplicateValues" dxfId="107" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q376:Q377">
-    <cfRule type="containsText" dxfId="106" priority="5" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",Q376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="6" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",Q376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI376:AI377">
-    <cfRule type="containsText" dxfId="104" priority="2" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",AI376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="3" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",AI376)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58648,19 +58654,19 @@
         <v>500</v>
       </c>
       <c r="C9" s="111">
-        <v>23.69</v>
+        <v>49.269999999999996</v>
       </c>
       <c r="D9" s="39">
-        <v>-476.31</v>
+        <v>-450.73</v>
       </c>
       <c r="E9" s="7">
-        <v>7154.38</v>
+        <v>14879.54</v>
       </c>
       <c r="F9" s="7">
-        <v>7936.1500000000005</v>
+        <v>16505.45</v>
       </c>
       <c r="G9" s="7">
-        <v>781.7700000000001</v>
+        <v>1625.91</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -58884,19 +58890,19 @@
         <v>9291.1200000000008</v>
       </c>
       <c r="C17" s="112">
-        <v>1763.86</v>
+        <v>1789.4399999999998</v>
       </c>
       <c r="D17" s="45">
-        <v>-7527.2600000000011</v>
+        <v>-7501.6800000000012</v>
       </c>
       <c r="E17" s="35">
-        <v>553195.07402400009</v>
+        <v>560920.23402400012</v>
       </c>
       <c r="F17" s="35">
-        <v>616882.25</v>
+        <v>625451.54999999993</v>
       </c>
       <c r="G17" s="35">
-        <v>39328.951500999989</v>
+        <v>40173.091500999995</v>
       </c>
       <c r="H17" s="71"/>
       <c r="I17" s="72"/>
@@ -59198,7 +59204,7 @@
       </c>
       <c r="K32" s="95">
         <f>GETPIVOTDATA(" Container Qty (MT)",$A$3,"PC#","PC-2025-000005")</f>
-        <v>23.69</v>
+        <v>49.269999999999996</v>
       </c>
       <c r="L32" s="96">
         <f t="shared" si="0"/>
@@ -59217,7 +59223,7 @@
       </c>
       <c r="K33" s="95">
         <f>GETPIVOTDATA(" Container Qty (MT)",$A$3,"PC#","PC-2025-000005")</f>
-        <v>23.69</v>
+        <v>49.269999999999996</v>
       </c>
       <c r="L33" s="96">
         <f>IF(I33="Completed",K33-J33,0)</f>
@@ -59405,7 +59411,7 @@
     <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="102" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="47"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -59522,10 +59528,10 @@
         <v>124</v>
       </c>
       <c r="B6" s="7">
-        <v>781.7700000000001</v>
+        <v>1625.91</v>
       </c>
       <c r="C6" s="111">
-        <v>23.69</v>
+        <v>49.269999999999996</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
@@ -59555,18 +59561,20 @@
       <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>127</v>
+      <c r="A9" s="51" t="s">
+        <v>204</v>
       </c>
       <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="111"/>
+        <v>844.14</v>
+      </c>
+      <c r="C9" s="111">
+        <v>25.58</v>
+      </c>
       <c r="E9" s="55"/>
       <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B10" s="7">
@@ -59577,8 +59585,8 @@
       <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>173</v>
+      <c r="A11" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -59588,8 +59596,8 @@
       <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>127</v>
+      <c r="A12" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -59599,8 +59607,8 @@
       <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>189</v>
+      <c r="A13" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
@@ -59610,8 +59618,8 @@
       <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>127</v>
+      <c r="A14" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -59621,40 +59629,38 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>201</v>
+      <c r="A15" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="B15" s="7">
-        <v>383.71532000000042</v>
-      </c>
-      <c r="C15" s="111">
-        <v>51.120000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C15" s="111"/>
       <c r="E15" s="55"/>
       <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>185</v>
+      <c r="A16" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="B16" s="7">
-        <v>172.51660765258194</v>
+        <v>383.71532000000042</v>
       </c>
       <c r="C16" s="111">
-        <v>25.26</v>
+        <v>51.120000000000005</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="7">
-        <v>211.19871234741848</v>
+        <v>172.51660765258194</v>
       </c>
       <c r="C17" s="111">
-        <v>25.86</v>
+        <v>25.26</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="56"/>

--- a/Contracts Traded.xlsx
+++ b/Contracts Traded.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://walterheselwood-my.sharepoint.com/personal/misbah_khan_heselwood_com/Documents/Documents/WHL/Misbah/Docs - Misbah/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://walterheselwood-my.sharepoint.com/personal/misbah_khan_heselwood_com/Documents/Documents/WHL/Misbah/Docs - Misbah/WHL-exports-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="690" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE08347-DBE6-460E-8210-9A264258BE54}"/>
+  <xr:revisionPtr revIDLastSave="691" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{280710CC-889E-47A4-8644-E845FBC3576F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B25BEA1-06F2-49A6-909D-F47AD7FB83DE}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3373" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="207">
   <si>
     <t>CONTRACTS TRADED - Walter Heselwood Ltd.</t>
   </si>
@@ -1279,737 +1279,6 @@
   </cellStyles>
   <dxfs count="162">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -2597,27 +1866,208 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.000"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2628,26 +2078,494 @@
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2655,26 +2573,60 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2682,7 +2634,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2690,19 +2641,42 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2715,7 +2689,33 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3662,7 +3662,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45932.428225694443" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45932.438446296299" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
   <cacheSource type="worksheet">
     <worksheetSource name="CT"/>
   </cacheSource>
@@ -3690,7 +3690,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Container Number" numFmtId="0">
-      <sharedItems containsBlank="1" count="76">
+      <sharedItems containsBlank="1" count="78">
         <s v="HLXU1092493"/>
         <s v="TRHU1653668"/>
         <s v="HLBU2940349"/>
@@ -3763,6 +3763,8 @@
         <s v="MRKU9316800"/>
         <s v="HLXU3541130"/>
         <s v="TGHU0538164"/>
+        <s v="UACU3778277"/>
+        <s v="GLDU5432203"/>
         <m/>
         <s v="TGCU2456447"/>
         <s v="GLDU5182336"/>
@@ -3830,7 +3832,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.8296360907593794" maxValue="335"/>
     </cacheField>
     <cacheField name="Gross Margin" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="844.14"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="874.5"/>
     </cacheField>
     <cacheField name="Column6" numFmtId="165">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -6842,10 +6844,10 @@
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
     <x v="72"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="26.5"/>
+    <m/>
+    <m/>
+    <s v="PENDING"/>
     <s v="July"/>
     <s v="CNF"/>
     <m/>
@@ -6853,8 +6855,8 @@
     <n v="103"/>
     <n v="302"/>
     <n v="7550"/>
-    <n v="0"/>
-    <s v=""/>
+    <n v="8003"/>
+    <n v="-543.6"/>
     <n v="1.3451"/>
     <m/>
     <m/>
@@ -6862,7 +6864,7 @@
     <m/>
     <n v="0"/>
     <n v="33"/>
-    <n v="0"/>
+    <n v="874.5"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -6870,8 +6872,8 @@
     <n v="25"/>
     <n v="335"/>
     <n v="8375"/>
-    <s v=""/>
-    <s v=""/>
+    <n v="8877.5"/>
+    <n v="502.5"/>
     <s v="Nhava Sheva"/>
     <s v="PI-2025-000006"/>
     <m/>
@@ -6882,11 +6884,11 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="73"/>
+    <n v="23.64"/>
+    <m/>
+    <m/>
+    <s v="PENDING"/>
     <s v="July"/>
     <s v="CNF"/>
     <m/>
@@ -6894,8 +6896,8 @@
     <n v="103"/>
     <n v="302"/>
     <n v="7550"/>
-    <n v="0"/>
-    <s v=""/>
+    <n v="7139.28"/>
+    <n v="492.86400000000026"/>
     <n v="1.3451"/>
     <m/>
     <m/>
@@ -6903,7 +6905,7 @@
     <m/>
     <n v="0"/>
     <n v="33"/>
-    <n v="0"/>
+    <n v="780.12"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -6911,8 +6913,8 @@
     <n v="25"/>
     <n v="335"/>
     <n v="8375"/>
-    <s v=""/>
-    <s v=""/>
+    <n v="7919.4000000000005"/>
+    <n v="-455.59999999999945"/>
     <s v="Nhava Sheva"/>
     <s v="PI-2025-000006"/>
     <m/>
@@ -6923,7 +6925,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -6964,7 +6966,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7005,7 +7007,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7046,7 +7048,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7087,7 +7089,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7128,7 +7130,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7169,7 +7171,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7210,7 +7212,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7251,7 +7253,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7292,7 +7294,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7333,7 +7335,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7374,7 +7376,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7415,7 +7417,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7456,7 +7458,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7497,7 +7499,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7538,7 +7540,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7579,7 +7581,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7620,7 +7622,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7661,7 +7663,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7702,7 +7704,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7743,7 +7745,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7784,7 +7786,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7825,7 +7827,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7866,7 +7868,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7907,7 +7909,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7948,7 +7950,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -7989,7 +7991,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8030,7 +8032,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8071,7 +8073,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8112,7 +8114,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8153,7 +8155,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8194,7 +8196,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8235,7 +8237,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8276,7 +8278,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8317,7 +8319,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8358,7 +8360,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8399,7 +8401,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8440,7 +8442,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8481,7 +8483,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8522,7 +8524,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8563,7 +8565,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8604,7 +8606,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8645,7 +8647,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8686,7 +8688,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8727,7 +8729,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8768,7 +8770,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8809,7 +8811,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8850,7 +8852,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8891,7 +8893,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8932,7 +8934,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -8973,7 +8975,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9014,7 +9016,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9055,7 +9057,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9096,7 +9098,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9137,7 +9139,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9178,7 +9180,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9219,7 +9221,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9260,7 +9262,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9301,7 +9303,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9342,7 +9344,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9383,7 +9385,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9424,7 +9426,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9465,7 +9467,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9506,7 +9508,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9547,7 +9549,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9588,7 +9590,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9629,7 +9631,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9670,7 +9672,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9711,7 +9713,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9752,7 +9754,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9793,7 +9795,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9834,7 +9836,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9875,7 +9877,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9916,7 +9918,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9957,7 +9959,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -9998,7 +10000,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10039,7 +10041,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10080,7 +10082,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10121,7 +10123,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10162,7 +10164,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10203,7 +10205,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10244,7 +10246,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10285,7 +10287,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10326,7 +10328,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10367,7 +10369,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10408,7 +10410,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10449,7 +10451,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10490,7 +10492,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10531,7 +10533,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10572,7 +10574,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10613,7 +10615,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10654,7 +10656,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10695,7 +10697,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10736,7 +10738,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10777,7 +10779,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10818,7 +10820,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10859,7 +10861,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10900,7 +10902,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10941,7 +10943,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -10982,7 +10984,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11023,7 +11025,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11064,7 +11066,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11105,7 +11107,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11146,7 +11148,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11187,7 +11189,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11228,7 +11230,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11269,7 +11271,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11310,7 +11312,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11351,7 +11353,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11392,7 +11394,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11433,7 +11435,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11474,7 +11476,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11515,7 +11517,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11556,7 +11558,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11597,7 +11599,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11638,7 +11640,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11679,7 +11681,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11720,7 +11722,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11761,7 +11763,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11802,7 +11804,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11843,7 +11845,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11884,7 +11886,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11925,7 +11927,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -11966,7 +11968,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12007,7 +12009,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12048,7 +12050,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12089,7 +12091,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12130,7 +12132,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12171,7 +12173,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12212,7 +12214,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12253,7 +12255,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12294,7 +12296,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12335,7 +12337,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12376,7 +12378,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12417,7 +12419,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12458,7 +12460,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12499,7 +12501,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12540,7 +12542,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12581,7 +12583,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12622,7 +12624,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12663,7 +12665,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12704,7 +12706,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12745,7 +12747,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12786,7 +12788,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12827,7 +12829,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12868,7 +12870,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12909,7 +12911,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12950,7 +12952,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -12991,7 +12993,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13032,7 +13034,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13073,7 +13075,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13114,7 +13116,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13155,7 +13157,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13196,7 +13198,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13237,7 +13239,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13278,7 +13280,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13319,7 +13321,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13360,7 +13362,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13401,7 +13403,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13442,7 +13444,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13483,7 +13485,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13524,7 +13526,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13565,7 +13567,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13606,7 +13608,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13647,7 +13649,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13688,7 +13690,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13729,7 +13731,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13770,7 +13772,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13811,7 +13813,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13852,7 +13854,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13893,7 +13895,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13934,7 +13936,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -13975,7 +13977,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14016,7 +14018,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14057,7 +14059,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14098,7 +14100,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14139,7 +14141,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14180,7 +14182,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14221,7 +14223,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14262,7 +14264,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14303,7 +14305,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14344,7 +14346,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14385,7 +14387,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14426,7 +14428,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14467,7 +14469,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14508,7 +14510,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14549,7 +14551,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14590,7 +14592,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14631,7 +14633,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14672,7 +14674,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14713,7 +14715,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14754,7 +14756,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14795,7 +14797,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14836,7 +14838,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14877,7 +14879,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14918,7 +14920,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -14959,7 +14961,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15000,7 +15002,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15041,7 +15043,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15082,7 +15084,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15123,7 +15125,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15164,7 +15166,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15205,7 +15207,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15246,7 +15248,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15287,7 +15289,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15328,7 +15330,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15369,7 +15371,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15410,7 +15412,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15451,7 +15453,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15492,7 +15494,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15533,7 +15535,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15574,7 +15576,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15615,7 +15617,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15656,7 +15658,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15697,7 +15699,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15738,7 +15740,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15779,7 +15781,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15820,7 +15822,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15861,7 +15863,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15902,7 +15904,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15943,7 +15945,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -15984,7 +15986,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16025,7 +16027,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16066,7 +16068,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16107,7 +16109,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16148,7 +16150,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16189,7 +16191,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16230,7 +16232,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16271,7 +16273,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16312,7 +16314,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16353,7 +16355,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16394,7 +16396,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16435,7 +16437,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16476,7 +16478,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16517,7 +16519,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16558,7 +16560,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16599,7 +16601,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16640,7 +16642,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16681,7 +16683,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16722,7 +16724,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16763,7 +16765,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16804,7 +16806,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16845,7 +16847,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16886,7 +16888,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16927,7 +16929,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -16968,7 +16970,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17009,7 +17011,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17050,7 +17052,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17091,7 +17093,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17132,7 +17134,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17173,7 +17175,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17214,7 +17216,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17255,7 +17257,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17296,7 +17298,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17337,7 +17339,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17378,7 +17380,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17419,7 +17421,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17460,7 +17462,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17501,7 +17503,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17542,7 +17544,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17583,7 +17585,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17624,7 +17626,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17665,7 +17667,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17706,7 +17708,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17747,7 +17749,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17788,7 +17790,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17829,7 +17831,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17870,7 +17872,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17911,7 +17913,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17952,7 +17954,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -17993,7 +17995,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18034,7 +18036,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18075,7 +18077,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18116,7 +18118,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18157,7 +18159,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18198,7 +18200,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18239,7 +18241,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18280,7 +18282,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18321,7 +18323,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18362,7 +18364,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18403,7 +18405,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18444,7 +18446,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18485,7 +18487,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18526,7 +18528,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18567,7 +18569,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18608,7 +18610,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18649,7 +18651,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18690,7 +18692,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18731,7 +18733,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18772,7 +18774,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18813,7 +18815,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18854,7 +18856,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18895,7 +18897,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18936,7 +18938,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -18977,7 +18979,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -19018,7 +19020,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="72"/>
+    <x v="74"/>
     <m/>
     <m/>
     <m/>
@@ -19059,7 +19061,7 @@
     <x v="8"/>
     <d v="2025-08-13T00:00:00"/>
     <s v="Turnnings"/>
-    <x v="73"/>
+    <x v="75"/>
     <n v="25.26"/>
     <d v="2025-08-28T00:00:00"/>
     <d v="2025-10-14T00:00:00"/>
@@ -19100,7 +19102,7 @@
     <x v="8"/>
     <d v="2025-08-13T00:00:00"/>
     <s v="Turnnings"/>
-    <x v="74"/>
+    <x v="76"/>
     <n v="25.86"/>
     <d v="2025-08-28T00:00:00"/>
     <d v="2025-10-14T00:00:00"/>
@@ -19161,7 +19163,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="77">
+      <items count="79">
         <item x="10"/>
         <item x="36"/>
         <item x="38"/>
@@ -19212,7 +19214,7 @@
         <item x="27"/>
         <item x="42"/>
         <item x="45"/>
-        <item x="72"/>
+        <item x="74"/>
         <item x="50"/>
         <item x="51"/>
         <item x="52"/>
@@ -19230,14 +19232,16 @@
         <item x="64"/>
         <item x="65"/>
         <item x="66"/>
-        <item m="1" x="75"/>
+        <item m="1" x="77"/>
         <item x="68"/>
         <item x="67"/>
         <item x="69"/>
-        <item x="73"/>
-        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
         <item x="70"/>
         <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19355,13 +19359,13 @@
     <dataField name=" Gross Margin" fld="25" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="123">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -19374,7 +19378,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -19387,7 +19391,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="84">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19396,7 +19400,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19405,7 +19409,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="82">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19414,7 +19418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -19428,7 +19432,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -19442,19 +19446,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="79">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="77">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="76">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19531,7 +19535,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9F7C9F-35DE-4B78-8D6A-04536891CED8}" name="PivotTable12" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21" rowHeaderCaption="Puchase Contract">
-  <location ref="A1:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -19551,7 +19555,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="77">
+      <items count="79">
         <item x="10"/>
         <item x="36"/>
         <item x="38"/>
@@ -19602,7 +19606,7 @@
         <item x="27"/>
         <item x="42"/>
         <item x="45"/>
-        <item x="72"/>
+        <item x="74"/>
         <item x="50"/>
         <item x="51"/>
         <item x="52"/>
@@ -19620,14 +19624,16 @@
         <item x="64"/>
         <item x="65"/>
         <item x="66"/>
-        <item m="1" x="75"/>
+        <item m="1" x="77"/>
         <item x="68"/>
         <item x="67"/>
         <item x="69"/>
-        <item x="73"/>
-        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
         <item x="70"/>
         <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19672,7 +19678,7 @@
     <field x="1"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="20">
     <i>
       <x/>
     </i>
@@ -19696,6 +19702,12 @@
     </i>
     <i r="1">
       <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
     </i>
     <i>
       <x v="5"/>
@@ -19744,13 +19756,13 @@
     <dataField name="Sum of Container Qty" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="86">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19759,7 +19771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19768,7 +19780,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19777,7 +19789,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19786,19 +19798,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="45">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="43">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="42">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19808,10 +19820,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="40">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19821,10 +19833,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="38">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19834,7 +19846,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19871,100 +19883,100 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}" name="CT" displayName="CT" ref="A2:AM375" totalsRowCount="1" headerRowDxfId="161">
   <autoFilter ref="A2:AM374" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="160" totalsRowDxfId="33"/>
-    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="159" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="158" totalsRowDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="157" totalsRowDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="155" totalsRowDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="154" totalsRowDxfId="27"/>
-    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="26">
+    <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
       <totalsRowFormula>CT[[#Totals],[PC Qty (MT)]]-CT[[#Totals],[Container Qty]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="152" totalsRowDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="151" totalsRowDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="150" totalsRowDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="22"/>
-    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="148" totalsRowDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="147" totalsRowDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="19">
+    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="130">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[PC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="145" totalsRowDxfId="18">
+    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="17">
+    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126">
       <calculatedColumnFormula>IF(CT[[#This Row],[Supplier Final Price]]&lt;&gt;0,(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]])+20%*(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="143" totalsRowDxfId="16"/>
-    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="142" totalsRowDxfId="15"/>
-    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Freight Charges" totalsRowFunction="average" dataDxfId="141" totalsRowDxfId="14"/>
-    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" totalsRowFunction="average" dataDxfId="140" totalsRowDxfId="13"/>
-    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges PMT" totalsRowFunction="average" dataDxfId="139" totalsRowDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="138" totalsRowDxfId="11">
+    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Freight Charges" totalsRowFunction="average" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" totalsRowFunction="average" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges PMT" totalsRowFunction="average" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>IFERROR(1250/CT[[#This Row],[Container Qty]]+50/SUM($F$3:$F$12)+600/SUM($F$3:$F$12),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="137" totalsRowDxfId="10">
+    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>IFERROR(AF3-(O3+CT[[#This Row],[Cost Per MT]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="9">
+    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="135" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="133" totalsRowDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="132" totalsRowDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="130" totalsRowDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="3">
+    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="2">
+    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="1">
+    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{55725ACA-5363-449D-B3B5-AE2F51F334AD}" name="POD"/>
-    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="126" totalsRowDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="125"/>
-    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="124"/>
+    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="90"/>
+    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowCount="1" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
   <autoFilter ref="A1:J3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Container Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[BL Number])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[BL Number]],CT[BL Number],CT[SOB Date])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[SC'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Sales Rate/MT (USD)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91">
+    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer Final Price])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="90" totalsRowDxfId="89">
+    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[PI'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87">
+    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[CI'#])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20320,7 +20332,7 @@
       <selection activeCell="B8" sqref="B8"/>
       <selection pane="topRight" activeCell="B8" sqref="B8"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58390,21 +58402,21 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D376:D803 E67:E375 E3:E65">
-    <cfRule type="duplicateValues" dxfId="70" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q376:Q377">
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",Q376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="6" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",Q376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI376:AI377">
-    <cfRule type="containsText" dxfId="67" priority="2" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",AI376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",AI376)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58670,19 +58682,19 @@
         <v>500</v>
       </c>
       <c r="C9" s="109">
-        <v>49.269999999999996</v>
+        <v>99.41</v>
       </c>
       <c r="D9" s="39">
-        <v>-450.73</v>
+        <v>-400.59000000000003</v>
       </c>
       <c r="E9" s="7">
-        <v>14879.54</v>
+        <v>30021.82</v>
       </c>
       <c r="F9" s="7">
-        <v>16505.45</v>
+        <v>33302.35</v>
       </c>
       <c r="G9" s="7">
-        <v>1625.91</v>
+        <v>3280.5299999999997</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -58906,19 +58918,19 @@
         <v>9291.1200000000008</v>
       </c>
       <c r="C17" s="110">
-        <v>1789.4399999999998</v>
+        <v>1839.58</v>
       </c>
       <c r="D17" s="45">
-        <v>-7501.6800000000012</v>
+        <v>-7451.5400000000009</v>
       </c>
       <c r="E17" s="35">
-        <v>560920.23402400012</v>
+        <v>576062.51402400003</v>
       </c>
       <c r="F17" s="35">
-        <v>625451.54999999993</v>
+        <v>642248.44999999995</v>
       </c>
       <c r="G17" s="35">
-        <v>40173.091500999995</v>
+        <v>41827.711500999991</v>
       </c>
       <c r="H17" s="69"/>
       <c r="I17" s="70"/>
@@ -59220,7 +59232,7 @@
       </c>
       <c r="K32" s="93">
         <f>GETPIVOTDATA(" Container Qty (MT)",$A$3,"PC#","PC-2025-000005")</f>
-        <v>49.269999999999996</v>
+        <v>99.41</v>
       </c>
       <c r="L32" s="94">
         <f t="shared" si="0"/>
@@ -59239,7 +59251,7 @@
       </c>
       <c r="K33" s="93">
         <f>GETPIVOTDATA(" Container Qty (MT)",$A$3,"PC#","PC-2025-000005")</f>
-        <v>49.269999999999996</v>
+        <v>99.41</v>
       </c>
       <c r="L33" s="94">
         <f>IF(I33="Completed",K33-J33,0)</f>
@@ -59427,7 +59439,7 @@
     <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="65" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="47"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -59438,7 +59450,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456D8CC9-D122-408F-B3F0-8FA8009EA8FB}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -59544,10 +59556,10 @@
         <v>124</v>
       </c>
       <c r="B6" s="7">
-        <v>1625.91</v>
+        <v>3280.5299999999997</v>
       </c>
       <c r="C6" s="109">
-        <v>49.269999999999996</v>
+        <v>99.41</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
@@ -59590,30 +59602,34 @@
       <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>127</v>
+      <c r="A10" s="51" t="s">
+        <v>206</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="109"/>
+        <v>874.5</v>
+      </c>
+      <c r="C10" s="109">
+        <v>26.5</v>
+      </c>
       <c r="E10" s="55"/>
       <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="109"/>
+        <v>780.12</v>
+      </c>
+      <c r="C11" s="109">
+        <v>23.64</v>
+      </c>
       <c r="E11" s="55"/>
       <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -59635,7 +59651,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -59657,52 +59673,70 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B16" s="7">
-        <v>383.71532000000042</v>
-      </c>
-      <c r="C16" s="109">
-        <v>51.120000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C16" s="109"/>
       <c r="E16" s="55"/>
       <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="B17" s="7">
-        <v>172.51660765258194</v>
-      </c>
-      <c r="C17" s="109">
-        <v>25.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C17" s="109"/>
       <c r="E17" s="55"/>
       <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
-        <v>186</v>
+      <c r="A18" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="B18" s="7">
-        <v>211.19871234741848</v>
+        <v>383.71532000000042</v>
       </c>
       <c r="C18" s="109">
-        <v>25.86</v>
+        <v>51.120000000000005</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="7">
+        <v>172.51660765258194</v>
+      </c>
+      <c r="C19" s="109">
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="7">
+        <v>211.19871234741848</v>
+      </c>
+      <c r="C20" s="109">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="35">
-        <v>40173.091500999988</v>
-      </c>
-      <c r="C19" s="110">
-        <v>1789.4399999999998</v>
+      <c r="B21" s="35">
+        <v>41827.711500999991</v>
+      </c>
+      <c r="C21" s="110">
+        <v>1839.58</v>
       </c>
     </row>
   </sheetData>

--- a/Contracts Traded.xlsx
+++ b/Contracts Traded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://walterheselwood-my.sharepoint.com/personal/misbah_khan_heselwood_com/Documents/Documents/WHL/Misbah/Docs - Misbah/WHL-exports-tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="691" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{280710CC-889E-47A4-8644-E845FBC3576F}"/>
+  <xr:revisionPtr revIDLastSave="692" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E487987D-90A1-45A9-B3E5-0CFA828BDAC5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B25BEA1-06F2-49A6-909D-F47AD7FB83DE}"/>
   </bookViews>
@@ -3662,7 +3662,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45932.438446296299" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45932.445304398148" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
   <cacheSource type="worksheet">
     <worksheetSource name="CT"/>
   </cacheSource>

--- a/Contracts Traded.xlsx
+++ b/Contracts Traded.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://walterheselwood-my.sharepoint.com/personal/misbah_khan_heselwood_com/Documents/Documents/WHL/Misbah/Docs - Misbah/WHL-exports-tracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://walterheselwood-my.sharepoint.com/personal/misbah_khan_heselwood_com/Documents/Documents/WHL/Misbah/Docs - Misbah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="692" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E487987D-90A1-45A9-B3E5-0CFA828BDAC5}"/>
+  <xr:revisionPtr revIDLastSave="726" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71428A1-A214-410D-BFA1-03D3DAA9D898}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B25BEA1-06F2-49A6-909D-F47AD7FB83DE}"/>
   </bookViews>
@@ -1279,6 +1279,737 @@
   </cellStyles>
   <dxfs count="162">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1866,208 +2597,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.000"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2078,494 +2628,26 @@
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2573,6 +2655,30 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00_ ;[Red]\-[$$-409]#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2580,6 +2686,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2587,23 +2694,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2611,72 +2702,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.000"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2689,33 +2715,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3662,7 +3662,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45932.445304398148" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45937.652885648145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
   <cacheSource type="worksheet">
     <worksheetSource name="CT"/>
   </cacheSource>
@@ -3832,7 +3832,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.8296360907593794" maxValue="335"/>
     </cacheField>
     <cacheField name="Gross Margin" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="874.5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="830.53165903490628"/>
     </cacheField>
     <cacheField name="Column6" numFmtId="165">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -6777,12 +6777,12 @@
     <n v="474.74399999999986"/>
     <n v="1.3451"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="33"/>
-    <n v="781.7700000000001"/>
+    <n v="0"/>
+    <n v="3.7209787747711496"/>
+    <m/>
+    <n v="3.7209787747711496"/>
+    <n v="29.27902122522886"/>
+    <n v="693.62001282567178"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -6818,12 +6818,12 @@
     <n v="-210.19199999999981"/>
     <n v="1.3451"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="33"/>
-    <n v="844.14"/>
+    <n v="0"/>
+    <n v="3.7209787747711496"/>
+    <m/>
+    <n v="3.7209787747711496"/>
+    <n v="29.27902122522886"/>
+    <n v="748.95736294135418"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -6859,12 +6859,12 @@
     <n v="-543.6"/>
     <n v="1.3451"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="33"/>
-    <n v="874.5"/>
+    <n v="0"/>
+    <n v="3.7209787747711496"/>
+    <m/>
+    <n v="3.7209787747711496"/>
+    <n v="29.27902122522886"/>
+    <n v="775.89406246856481"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -6900,12 +6900,12 @@
     <n v="492.86400000000026"/>
     <n v="1.3451"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="33"/>
-    <n v="780.12"/>
+    <n v="0"/>
+    <n v="3.7209787747711496"/>
+    <m/>
+    <n v="3.7209787747711496"/>
+    <n v="29.27902122522886"/>
+    <n v="692.15606176441031"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -19359,13 +19359,13 @@
     <dataField name=" Gross Margin" fld="25" baseField="1" baseItem="1" numFmtId="165"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="88">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -19378,7 +19378,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -19391,7 +19391,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="119">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19400,7 +19400,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19409,7 +19409,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="117">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19418,7 +19418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -19432,7 +19432,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="6">
@@ -19446,19 +19446,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="114">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="112">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="111">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19756,13 +19756,13 @@
     <dataField name="Sum of Container Qty" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="51">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19771,7 +19771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -19780,7 +19780,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19789,7 +19789,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19798,19 +19798,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="80">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="78">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="77">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19820,10 +19820,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="75">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19833,10 +19833,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="73">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -19846,7 +19846,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19883,100 +19883,100 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}" name="CT" displayName="CT" ref="A2:AM375" totalsRowCount="1" headerRowDxfId="161">
   <autoFilter ref="A2:AM374" xr:uid="{2C13E3FF-9491-42DE-B344-B27CFCD28416}"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144">
+    <tableColumn id="1" xr3:uid="{F2C2BCDB-2E7B-46BD-8848-257FC0C58010}" name="Supplier" totalsRowLabel="Total" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{83362F31-EF3E-4AAE-8B11-3FBCF177992F}" name="PC#" dataDxfId="160" totalsRowDxfId="33"/>
+    <tableColumn id="31" xr3:uid="{7829F6A5-6796-452A-9BD7-D12744B9AFFF}" name="PC Date" dataDxfId="159" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{5A0A1D49-0D27-4C74-9975-E0FC5A769739}" name="Commodity" dataDxfId="158" totalsRowDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{36259CC8-5FC9-4F31-AA72-5EE1C8AF5AF6}" name="Container Number" dataDxfId="157" totalsRowDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{D2693C61-121D-4F50-AB34-6CB7827FF3CB}" name="Container Qty" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{402C0598-7DD5-4951-93F9-80925218D5F1}" name="SOB Date" dataDxfId="155" totalsRowDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{F9171A37-3C24-426C-8292-5DB5E155C647}" name="ETA Date" totalsRowLabel="Under/-Over loading" dataDxfId="154" totalsRowDxfId="27"/>
+    <tableColumn id="29" xr3:uid="{9FC96B94-FA2F-489C-97BE-2CD4A7C4DCE8}" name="BL Number" totalsRowFunction="custom" dataDxfId="153" totalsRowDxfId="26">
       <totalsRowFormula>CT[[#Totals],[PC Qty (MT)]]-CT[[#Totals],[Container Qty]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="13" xr3:uid="{F040FFA3-393A-4B30-BA39-E77EDABD4152}" name="Shipment Period" dataDxfId="152" totalsRowDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{955CFFE3-7761-45D2-A6DB-E11140BF3EF9}" name="Inco term" dataDxfId="151" totalsRowDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{A247D1F2-AE76-466D-8861-5611C5052424}" name="POL" dataDxfId="150" totalsRowDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{7847100C-BE6B-49A0-9386-1ACF499F3A7F}" name="PC Qty (MT)" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="22"/>
+    <tableColumn id="30" xr3:uid="{058222D6-B506-40B6-AE69-CAA2F582C187}" name="Supplier Invoice#" dataDxfId="148" totalsRowDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{BEDA00A7-12C4-43D1-88A0-07137BA84587}" name="Purchase Rate/MT (USD)" totalsRowFunction="average" dataDxfId="147" totalsRowDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{9D4784C2-E20D-4B4C-AE82-C5D53B6CC673}" name="Supplier Prov. Price" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="19">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[PC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="128">
+    <tableColumn id="21" xr3:uid="{06C05DC4-AD96-4522-82C1-EDCFAA303C04}" name="Supplier Final Price" totalsRowFunction="sum" dataDxfId="145" totalsRowDxfId="18">
       <calculatedColumnFormula>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="23" xr3:uid="{D278483C-5010-4E5D-84F4-3CBA68EF971F}" name="Supplier Price Diff. (VAT incl.)" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="17">
       <calculatedColumnFormula>IF(CT[[#This Row],[Supplier Final Price]]&lt;&gt;0,(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]])+20%*(CT[[#This Row],[Supplier Final Price]]-CT[[#This Row],[Supplier Prov. Price]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Freight Charges" totalsRowFunction="average" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" totalsRowFunction="average" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges PMT" totalsRowFunction="average" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="36" xr3:uid="{7CB00B54-9A70-44EB-A55D-A1F3486C810B}" name="FX Rate" dataDxfId="143" totalsRowDxfId="16"/>
+    <tableColumn id="34" xr3:uid="{1CB6A8C8-43F6-4F8C-ACE4-0394B85CD159}" name="Date of Inspection" dataDxfId="142" totalsRowDxfId="15"/>
+    <tableColumn id="38" xr3:uid="{91AE2ED2-B47F-4A0E-B4E9-FDD2B939062E}" name="Freight Charges" totalsRowFunction="average" dataDxfId="141" totalsRowDxfId="14"/>
+    <tableColumn id="35" xr3:uid="{D6CCA4B5-8AB4-446F-9DD7-BF2DA27B477C}" name="Inspection Cost/MT" totalsRowFunction="average" dataDxfId="140" totalsRowDxfId="13"/>
+    <tableColumn id="33" xr3:uid="{4CFAF9F1-BF2B-47B1-9703-0848D8B98B90}" name="DHL Charges PMT" totalsRowFunction="average" dataDxfId="139" totalsRowDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{A157C635-1638-415E-96E4-D87BB123FF41}" name="Cost Per MT" totalsRowFunction="average" dataDxfId="138" totalsRowDxfId="11">
       <calculatedColumnFormula>IFERROR(1250/CT[[#This Row],[Container Qty]]+50/SUM($F$3:$F$12)+600/SUM($F$3:$F$12),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="12" xr3:uid="{85B93A93-7523-4858-9146-EE3AED2ABDFA}" name="Margin/MT" totalsRowFunction="average" dataDxfId="137" totalsRowDxfId="10">
       <calculatedColumnFormula>IFERROR(AF3-(O3+CT[[#This Row],[Cost Per MT]]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="9" xr3:uid="{D96A5279-F622-47A9-A739-0C7445DC416A}" name="Gross Margin" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="9">
       <calculatedColumnFormula>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="39" xr3:uid="{97D8F16F-AF1E-43A4-91F8-3B26C8F4B208}" name="Column6" dataDxfId="135" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CE5667C3-6FD3-4B23-ADF2-A2B3FDFD10EF}" name="Customer" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{56973FD7-D3C3-497C-B1A6-995797987912}" name="SC#" dataDxfId="133" totalsRowDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{A83F1368-99CD-4BEB-80B2-BD2EF1C8C34B}" name="SC Date" dataDxfId="132" totalsRowDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{4B14D381-488A-48FA-91E8-8263E0CE7EEC}" name="SC Qty (MT)" totalsRowFunction="sum" dataDxfId="131" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{752C03C5-9F27-47CF-99B4-E538CFCBB8E7}" name="Sales Rate/MT (USD)" totalsRowFunction="average" dataDxfId="130" totalsRowDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{67B8FF8C-62EA-4FE9-BABD-8832447A7B92}" name="Customer  Prov. Price" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="3">
       <calculatedColumnFormula>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="25" xr3:uid="{5D9E0794-0A74-4179-B344-07148BA09762}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="26" xr3:uid="{7C86E6BD-229E-4691-BA2D-665CF70856BF}" name="Customer Price Difference" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{55725ACA-5363-449D-B3B5-AE2F51F334AD}" name="POD"/>
-    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="90"/>
-    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="89"/>
+    <tableColumn id="18" xr3:uid="{594F1D0F-AE6F-450D-9E78-5AC411B1E5A7}" name="PI#" dataDxfId="126" totalsRowDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{CB759E46-909C-4870-B6BF-78918BAF7A9A}" name="CI#" dataDxfId="125"/>
+    <tableColumn id="32" xr3:uid="{1DAFA084-22DF-43B8-A033-C607299233C3}" name="Status" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowCount="1" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowCount="1" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="107">
   <autoFilter ref="A1:J3" xr:uid="{B21E3DD8-E0E8-457E-B87E-F5D3BCE90249}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="1" xr3:uid="{C0B51119-2989-4579-BC28-53BBDFD4F4F5}" name="Customer" totalsRowLabel="Total" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="2" xr3:uid="{FBDBBE11-C9AE-4610-95C4-A25FCD73358B}" name="Container Number" totalsRowFunction="count" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{9D6916E7-F685-479B-9B9D-A5CE9D927B03}" name="Container Qty" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Container Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="4" xr3:uid="{2DBDF2DF-300A-4418-A527-88DB243AEC83}" name="BL Number" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[BL Number])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="10" xr3:uid="{50E26E01-7539-4A79-8337-E3053AB84CC2}" name="SOB Date" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[BL Number]],CT[BL Number],CT[SOB Date])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="5" xr3:uid="{635B2701-1BD4-4AEE-8978-493B3167D166}" name="SC#" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[SC'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="6" xr3:uid="{FFABB692-85F9-41BA-BBE7-2829F41B3447}" name="Sales Rate/MT (USD)" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Sales Rate/MT (USD)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="7" xr3:uid="{8BF5FE1A-E6A5-42E4-BC5A-9773E34E0998}" name="Customer Final Price" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[Customer Final Price])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="8" xr3:uid="{302AC467-26CA-40DD-B312-F072A9919353}" name="PI#" dataDxfId="90" totalsRowDxfId="89">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[PI'#])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="9" xr3:uid="{AB43CA01-FF50-47F4-A4C7-509415B52867}" name="CI#" totalsRowFunction="count" dataDxfId="88" totalsRowDxfId="87">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Container Number]],CT[Container Number],CT[CI'#])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20328,11 +20328,11 @@
   <dimension ref="A1:AO391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B8" sqref="B8"/>
       <selection pane="topRight" activeCell="B8" sqref="B8"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29981,20 +29981,25 @@
         <v>1.3451</v>
       </c>
       <c r="T73" s="3"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
+      <c r="U73" s="7">
+        <v>0</v>
+      </c>
+      <c r="V73" s="7">
+        <f>(275*S73)/SUM($F$73:$F$76)</f>
+        <v>3.7209787747711496</v>
+      </c>
       <c r="W73" s="24"/>
       <c r="X73" s="7">
         <f>IFERROR(CT[[#This Row],[Freight Charges]]+CT[[#This Row],[Inspection Cost/MT]]+CT[[#This Row],[DHL Charges PMT]],"")</f>
-        <v>0</v>
+        <v>3.7209787747711496</v>
       </c>
       <c r="Y73" s="7">
         <f>IFERROR(AF73-(O73+CT[[#This Row],[Cost Per MT]]),"")</f>
-        <v>33</v>
+        <v>29.27902122522886</v>
       </c>
       <c r="Z73" s="7">
         <f>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v>781.7700000000001</v>
+        <v>693.62001282567178</v>
       </c>
       <c r="AA73" s="7"/>
       <c r="AB73" t="s">
@@ -30093,20 +30098,25 @@
         <v>1.3451</v>
       </c>
       <c r="T74" s="3"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
+      <c r="U74" s="7">
+        <v>0</v>
+      </c>
+      <c r="V74" s="7">
+        <f>(275*S74)/SUM($F$73:$F$76)</f>
+        <v>3.7209787747711496</v>
+      </c>
       <c r="W74" s="24"/>
       <c r="X74" s="7">
         <f>IFERROR(CT[[#This Row],[Freight Charges]]+CT[[#This Row],[Inspection Cost/MT]]+CT[[#This Row],[DHL Charges PMT]],"")</f>
-        <v>0</v>
+        <v>3.7209787747711496</v>
       </c>
       <c r="Y74" s="7">
         <f>IFERROR(AF74-(O74+CT[[#This Row],[Cost Per MT]]),"")</f>
-        <v>33</v>
+        <v>29.27902122522886</v>
       </c>
       <c r="Z74" s="7">
         <f>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v>844.14</v>
+        <v>748.95736294135418</v>
       </c>
       <c r="AA74" s="7"/>
       <c r="AB74" t="s">
@@ -30205,20 +30215,25 @@
         <v>1.3451</v>
       </c>
       <c r="T75" s="3"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
+      <c r="U75" s="7">
+        <v>0</v>
+      </c>
+      <c r="V75" s="7">
+        <f>(275*S75)/SUM($F$73:$F$76)</f>
+        <v>3.7209787747711496</v>
+      </c>
       <c r="W75" s="24"/>
       <c r="X75" s="7">
         <f>IFERROR(CT[[#This Row],[Freight Charges]]+CT[[#This Row],[Inspection Cost/MT]]+CT[[#This Row],[DHL Charges PMT]],"")</f>
-        <v>0</v>
+        <v>3.7209787747711496</v>
       </c>
       <c r="Y75" s="7">
         <f>IFERROR(AF75-(O75+CT[[#This Row],[Cost Per MT]]),"")</f>
-        <v>33</v>
+        <v>29.27902122522886</v>
       </c>
       <c r="Z75" s="7">
         <f>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v>874.5</v>
+        <v>775.89406246856481</v>
       </c>
       <c r="AA75" s="7"/>
       <c r="AB75" t="s">
@@ -30317,20 +30332,25 @@
         <v>1.3451</v>
       </c>
       <c r="T76" s="3"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
+      <c r="U76" s="7">
+        <v>0</v>
+      </c>
+      <c r="V76" s="7">
+        <f>(275*S76)/SUM($F$73:$F$76)</f>
+        <v>3.7209787747711496</v>
+      </c>
       <c r="W76" s="24"/>
       <c r="X76" s="7">
         <f>IFERROR(CT[[#This Row],[Freight Charges]]+CT[[#This Row],[Inspection Cost/MT]]+CT[[#This Row],[DHL Charges PMT]],"")</f>
-        <v>0</v>
+        <v>3.7209787747711496</v>
       </c>
       <c r="Y76" s="7">
         <f>IFERROR(AF76-(O76+CT[[#This Row],[Cost Per MT]]),"")</f>
-        <v>33</v>
+        <v>29.27902122522886</v>
       </c>
       <c r="Z76" s="7">
         <f>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v>780.12</v>
+        <v>692.15606176441031</v>
       </c>
       <c r="AA76" s="7"/>
       <c r="AB76" t="s">
@@ -57919,8 +57939,8 @@
       <c r="AL373" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AM373" s="100" t="s">
-        <v>134</v>
+      <c r="AM373" s="99" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="374" spans="1:41" x14ac:dyDescent="0.25">
@@ -58050,8 +58070,8 @@
       <c r="AL374" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AM374" s="100" t="s">
-        <v>134</v>
+      <c r="AM374" s="99" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="375" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -58099,11 +58119,11 @@
       <c r="T375" s="103"/>
       <c r="U375" s="16">
         <f>SUBTOTAL(101,CT[Freight Charges])</f>
-        <v>8.7893755161952409</v>
+        <v>8.3267768048165429</v>
       </c>
       <c r="V375" s="16">
         <f>SUBTOTAL(101,CT[Inspection Cost/MT])</f>
-        <v>4.8476744531699678</v>
+        <v>4.7883746806226606</v>
       </c>
       <c r="W375" s="16">
         <f>SUBTOTAL(101,CT[DHL Charges PMT])</f>
@@ -58111,15 +58131,15 @@
       </c>
       <c r="X375" s="16">
         <f>SUBTOTAL(101,CT[Cost Per MT])</f>
-        <v>2.6827347442242049</v>
+        <v>2.7227452686841103</v>
       </c>
       <c r="Y375" s="16">
         <f>SUBTOTAL(101,CT[Margin/MT])</f>
-        <v>225.41557332029191</v>
+        <v>225.37556279583202</v>
       </c>
       <c r="Z375" s="16">
         <f>SUBTOTAL(109,CT[Gross Margin])</f>
-        <v>41827.711500999983</v>
+        <v>41457.809000999994</v>
       </c>
       <c r="AA375" s="16"/>
       <c r="AC375" s="1"/>
@@ -58174,7 +58194,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="24">
         <f>CT[[#Totals],[Gross Margin]]/M380</f>
-        <v>32229.705271228217</v>
+        <v>31944.682540453068</v>
       </c>
       <c r="AA376" s="7"/>
       <c r="AD376" s="1"/>
@@ -58367,7 +58387,7 @@
       </c>
       <c r="Q384" s="88">
         <f>O384-P384-(CT[[#Totals],[Cost Per MT]]*CT[[#Totals],[Container Qty]])/1.2978</f>
-        <v>47195.893662521077</v>
+        <v>47139.180331818388</v>
       </c>
       <c r="R384" s="7"/>
       <c r="T384" s="7"/>
@@ -58402,21 +58422,21 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D376:D803 E67:E375 E3:E65">
-    <cfRule type="duplicateValues" dxfId="35" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q376:Q377">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",Q376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="68" priority="6" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",Q376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI376:AI377">
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Credit Note">
+    <cfRule type="containsText" dxfId="67" priority="2" operator="containsText" text="Credit Note">
       <formula>NOT(ISERROR(SEARCH("Credit Note",AI376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Debit Note">
+    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="Debit Note">
       <formula>NOT(ISERROR(SEARCH("Debit Note",AI376)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58694,7 +58714,7 @@
         <v>33302.35</v>
       </c>
       <c r="G9" s="7">
-        <v>3280.5299999999997</v>
+        <v>2910.627500000001</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -58930,7 +58950,7 @@
         <v>642248.44999999995</v>
       </c>
       <c r="G17" s="35">
-        <v>41827.711500999991</v>
+        <v>41457.809000999994</v>
       </c>
       <c r="H17" s="69"/>
       <c r="I17" s="70"/>
@@ -59439,7 +59459,7 @@
     <row r="5" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="30" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="47"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -59556,7 +59576,7 @@
         <v>124</v>
       </c>
       <c r="B6" s="7">
-        <v>3280.5299999999997</v>
+        <v>2910.627500000001</v>
       </c>
       <c r="C6" s="109">
         <v>99.41</v>
@@ -59580,7 +59600,7 @@
         <v>202</v>
       </c>
       <c r="B8" s="7">
-        <v>781.7700000000001</v>
+        <v>693.62001282567178</v>
       </c>
       <c r="C8" s="109">
         <v>23.69</v>
@@ -59593,7 +59613,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="7">
-        <v>844.14</v>
+        <v>748.95736294135418</v>
       </c>
       <c r="C9" s="109">
         <v>25.58</v>
@@ -59606,7 +59626,7 @@
         <v>206</v>
       </c>
       <c r="B10" s="7">
-        <v>874.5</v>
+        <v>775.89406246856481</v>
       </c>
       <c r="C10" s="109">
         <v>26.5</v>
@@ -59619,7 +59639,7 @@
         <v>205</v>
       </c>
       <c r="B11" s="7">
-        <v>780.12</v>
+        <v>692.15606176441031</v>
       </c>
       <c r="C11" s="109">
         <v>23.64</v>
@@ -59733,7 +59753,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="35">
-        <v>41827.711500999991</v>
+        <v>41457.809001000001</v>
       </c>
       <c r="C21" s="110">
         <v>1839.58</v>

--- a/Contracts Traded.xlsx
+++ b/Contracts Traded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://walterheselwood-my.sharepoint.com/personal/misbah_khan_heselwood_com/Documents/Documents/WHL/Misbah/Docs - Misbah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="726" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71428A1-A214-410D-BFA1-03D3DAA9D898}"/>
+  <xr:revisionPtr revIDLastSave="764" documentId="120_S{3A58C58F-642C-511B-BB69-36D53222445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ED7E0D4-89DF-48CF-9843-E34E80A55061}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B25BEA1-06F2-49A6-909D-F47AD7FB83DE}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="211">
   <si>
     <t>CONTRACTS TRADED - Walter Heselwood Ltd.</t>
   </si>
@@ -752,6 +752,18 @@
   <si>
     <t>UACU3778277</t>
   </si>
+  <si>
+    <t>TGBU2218281</t>
+  </si>
+  <si>
+    <t>FCIU6289288</t>
+  </si>
+  <si>
+    <t>GCXU2190453</t>
+  </si>
+  <si>
+    <t>TLLU2450425</t>
+  </si>
 </sst>
 </file>
 
@@ -1005,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,6 +1284,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3662,7 +3677,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45937.652885648145" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Numer Khan" refreshedDate="45939.378072569445" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="372" xr:uid="{D23632ED-FBBC-433D-B7A2-A0D924F33A88}">
   <cacheSource type="worksheet">
     <worksheetSource name="CT"/>
   </cacheSource>
@@ -3690,7 +3705,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Container Number" numFmtId="0">
-      <sharedItems containsBlank="1" count="78">
+      <sharedItems containsBlank="1" count="81">
         <s v="HLXU1092493"/>
         <s v="TRHU1653668"/>
         <s v="HLBU2940349"/>
@@ -3765,6 +3780,9 @@
         <s v="TGHU0538164"/>
         <s v="UACU3778277"/>
         <s v="GLDU5432203"/>
+        <s v="TGBU2218281"/>
+        <s v="FCIU6289288"/>
+        <s v="GCXU2190453"/>
         <m/>
         <s v="TGCU2456447"/>
         <s v="GLDU5182336"/>
@@ -3814,7 +3832,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.2978000000000001" maxValue="1.3541000000000001"/>
     </cacheField>
     <cacheField name="Date of Inspection" numFmtId="15">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-04-28T00:00:00" maxDate="2025-08-19T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-04-28T00:00:00" maxDate="2025-10-09T00:00:00"/>
     </cacheField>
     <cacheField name="Freight Charges" numFmtId="165">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="58.618629167456568"/>
@@ -3856,7 +3874,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7578.0000000000009" maxValue="8750"/>
     </cacheField>
     <cacheField name="Customer Final Price" numFmtId="165">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="7578.0000000000009" maxValue="9611"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="7520.75" maxValue="9611"/>
     </cacheField>
     <cacheField name="Customer Price Difference" numFmtId="165">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-955.5" maxValue="861"/>
@@ -6776,7 +6794,7 @@
     <n v="7154.38"/>
     <n v="474.74399999999986"/>
     <n v="1.3451"/>
-    <m/>
+    <d v="2025-10-01T00:00:00"/>
     <n v="0"/>
     <n v="3.7209787747711496"/>
     <m/>
@@ -6817,7 +6835,7 @@
     <n v="7725.16"/>
     <n v="-210.19199999999981"/>
     <n v="1.3451"/>
-    <m/>
+    <d v="2025-10-01T00:00:00"/>
     <n v="0"/>
     <n v="3.7209787747711496"/>
     <m/>
@@ -6858,7 +6876,7 @@
     <n v="8003"/>
     <n v="-543.6"/>
     <n v="1.3451"/>
-    <m/>
+    <d v="2025-10-01T00:00:00"/>
     <n v="0"/>
     <n v="3.7209787747711496"/>
     <m/>
@@ -6899,7 +6917,7 @@
     <n v="7139.28"/>
     <n v="492.86400000000026"/>
     <n v="1.3451"/>
-    <m/>
+    <d v="2025-10-01T00:00:00"/>
     <n v="0"/>
     <n v="3.7209787747711496"/>
     <m/>
@@ -6926,10 +6944,10 @@
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
     <x v="74"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="23.58"/>
+    <m/>
+    <m/>
+    <s v="PENDING"/>
     <s v="July"/>
     <s v="CNF"/>
     <m/>
@@ -6937,16 +6955,16 @@
     <n v="103"/>
     <n v="302"/>
     <n v="7550"/>
-    <n v="0"/>
-    <s v=""/>
+    <n v="7121.16"/>
+    <n v="514.60800000000017"/>
     <n v="1.3451"/>
-    <m/>
+    <d v="2025-10-08T00:00:00"/>
     <m/>
     <m/>
     <m/>
     <n v="0"/>
     <n v="33"/>
-    <n v="0"/>
+    <n v="778.14"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -6954,8 +6972,8 @@
     <n v="25"/>
     <n v="335"/>
     <n v="8375"/>
-    <s v=""/>
-    <s v=""/>
+    <n v="7899.2999999999993"/>
+    <n v="-475.70000000000073"/>
     <s v="Nhava Sheva"/>
     <s v="PI-2025-000006"/>
     <m/>
@@ -6966,11 +6984,11 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="75"/>
+    <n v="22.45"/>
+    <m/>
+    <m/>
+    <s v="PENDING"/>
     <s v="July"/>
     <s v="CNF"/>
     <m/>
@@ -6978,8 +6996,8 @@
     <n v="103"/>
     <n v="302"/>
     <n v="7550"/>
-    <n v="0"/>
-    <s v=""/>
+    <n v="6779.9"/>
+    <n v="924.12000000000035"/>
     <n v="1.3451"/>
     <m/>
     <m/>
@@ -6987,7 +7005,7 @@
     <m/>
     <n v="0"/>
     <n v="33"/>
-    <n v="0"/>
+    <n v="740.85"/>
     <m/>
     <s v="EVSL"/>
     <s v="SC-2025-000005"/>
@@ -6995,8 +7013,8 @@
     <n v="25"/>
     <n v="335"/>
     <n v="8375"/>
-    <s v=""/>
-    <s v=""/>
+    <n v="7520.75"/>
+    <n v="-854.25"/>
     <s v="Nhava Sheva"/>
     <s v="PI-2025-000006"/>
     <m/>
@@ -7007,7 +7025,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="76"/>
     <m/>
     <m/>
     <m/>
@@ -7048,7 +7066,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7089,7 +7107,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7130,7 +7148,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7171,7 +7189,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7212,7 +7230,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7253,7 +7271,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7294,7 +7312,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7335,7 +7353,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7376,7 +7394,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7417,7 +7435,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7458,7 +7476,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7499,7 +7517,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7540,7 +7558,7 @@
     <x v="4"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7581,7 +7599,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7622,7 +7640,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7663,7 +7681,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7704,7 +7722,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7745,7 +7763,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7786,7 +7804,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7827,7 +7845,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7868,7 +7886,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7909,7 +7927,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7950,7 +7968,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -7991,7 +8009,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8032,7 +8050,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8073,7 +8091,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8114,7 +8132,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8155,7 +8173,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8196,7 +8214,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8237,7 +8255,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8278,7 +8296,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8319,7 +8337,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8360,7 +8378,7 @@
     <x v="5"/>
     <d v="2025-07-11T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8401,7 +8419,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8442,7 +8460,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8483,7 +8501,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8524,7 +8542,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8565,7 +8583,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8606,7 +8624,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8647,7 +8665,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8688,7 +8706,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8729,7 +8747,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8770,7 +8788,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8811,7 +8829,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8852,7 +8870,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8893,7 +8911,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8934,7 +8952,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -8975,7 +8993,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9016,7 +9034,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9057,7 +9075,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9098,7 +9116,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9139,7 +9157,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9180,7 +9198,7 @@
     <x v="6"/>
     <d v="2025-08-04T00:00:00"/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9221,7 +9239,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9262,7 +9280,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9303,7 +9321,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9344,7 +9362,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9385,7 +9403,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9426,7 +9444,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9467,7 +9485,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9508,7 +9526,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9549,7 +9567,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9590,7 +9608,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9631,7 +9649,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9672,7 +9690,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9713,7 +9731,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9754,7 +9772,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9795,7 +9813,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9836,7 +9854,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9877,7 +9895,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9918,7 +9936,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -9959,7 +9977,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10000,7 +10018,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10041,7 +10059,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10082,7 +10100,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10123,7 +10141,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10164,7 +10182,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10205,7 +10223,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10246,7 +10264,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10287,7 +10305,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10328,7 +10346,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10369,7 +10387,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10410,7 +10428,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10451,7 +10469,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10492,7 +10510,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10533,7 +10551,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10574,7 +10592,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10615,7 +10633,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10656,7 +10674,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10697,7 +10715,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10738,7 +10756,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10779,7 +10797,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10820,7 +10838,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10861,7 +10879,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10902,7 +10920,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10943,7 +10961,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -10984,7 +11002,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11025,7 +11043,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11066,7 +11084,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11107,7 +11125,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11148,7 +11166,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11189,7 +11207,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11230,7 +11248,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11271,7 +11289,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11312,7 +11330,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11353,7 +11371,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11394,7 +11412,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11435,7 +11453,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11476,7 +11494,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11517,7 +11535,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11558,7 +11576,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11599,7 +11617,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11640,7 +11658,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11681,7 +11699,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11722,7 +11740,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11763,7 +11781,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11804,7 +11822,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11845,7 +11863,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11886,7 +11904,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11927,7 +11945,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -11968,7 +11986,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12009,7 +12027,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12050,7 +12068,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12091,7 +12109,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12132,7 +12150,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12173,7 +12191,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12214,7 +12232,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12255,7 +12273,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12296,7 +12314,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12337,7 +12355,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12378,7 +12396,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12419,7 +12437,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12460,7 +12478,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12501,7 +12519,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12542,7 +12560,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12583,7 +12601,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12624,7 +12642,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12665,7 +12683,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12706,7 +12724,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12747,7 +12765,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12788,7 +12806,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12829,7 +12847,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12870,7 +12888,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12911,7 +12929,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12952,7 +12970,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -12993,7 +13011,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13034,7 +13052,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13075,7 +13093,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13116,7 +13134,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13157,7 +13175,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13198,7 +13216,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13239,7 +13257,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13280,7 +13298,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13321,7 +13339,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13362,7 +13380,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13403,7 +13421,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13444,7 +13462,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13485,7 +13503,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13526,7 +13544,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13567,7 +13585,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13608,7 +13626,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13649,7 +13667,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13690,7 +13708,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13731,7 +13749,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13772,7 +13790,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13813,7 +13831,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13854,7 +13872,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13895,7 +13913,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13936,7 +13954,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -13977,7 +13995,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14018,7 +14036,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14059,7 +14077,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14100,7 +14118,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14141,7 +14159,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14182,7 +14200,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14223,7 +14241,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14264,7 +14282,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14305,7 +14323,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14346,7 +14364,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14387,7 +14405,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14428,7 +14446,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14469,7 +14487,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14510,7 +14528,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14551,7 +14569,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14592,7 +14610,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14633,7 +14651,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14674,7 +14692,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14715,7 +14733,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14756,7 +14774,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14797,7 +14815,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14838,7 +14856,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14879,7 +14897,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14920,7 +14938,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -14961,7 +14979,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15002,7 +15020,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15043,7 +15061,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15084,7 +15102,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15125,7 +15143,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15166,7 +15184,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15207,7 +15225,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15248,7 +15266,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15289,7 +15307,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15330,7 +15348,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15371,7 +15389,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15412,7 +15430,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15453,7 +15471,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15494,7 +15512,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15535,7 +15553,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15576,7 +15594,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15617,7 +15635,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15658,7 +15676,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15699,7 +15717,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15740,7 +15758,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15781,7 +15799,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15822,7 +15840,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15863,7 +15881,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15904,7 +15922,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15945,7 +15963,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -15986,7 +16004,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16027,7 +16045,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16068,7 +16086,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16109,7 +16127,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16150,7 +16168,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16191,7 +16209,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16232,7 +16250,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16273,7 +16291,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16314,7 +16332,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16355,7 +16373,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16396,7 +16414,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16437,7 +16455,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16478,7 +16496,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16519,7 +16537,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16560,7 +16578,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16601,7 +16619,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16642,7 +16660,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16683,7 +16701,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16724,7 +16742,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16765,7 +16783,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16806,7 +16824,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16847,7 +16865,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16888,7 +16906,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16929,7 +16947,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -16970,7 +16988,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17011,7 +17029,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17052,7 +17070,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17093,7 +17111,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17134,7 +17152,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17175,7 +17193,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17216,7 +17234,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17257,7 +17275,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17298,7 +17316,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17339,7 +17357,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17380,7 +17398,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17421,7 +17439,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17462,7 +17480,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17503,7 +17521,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17544,7 +17562,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17585,7 +17603,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17626,7 +17644,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17667,7 +17685,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17708,7 +17726,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17749,7 +17767,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17790,7 +17808,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17831,7 +17849,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17872,7 +17890,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17913,7 +17931,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17954,7 +17972,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -17995,7 +18013,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18036,7 +18054,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18077,7 +18095,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18118,7 +18136,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18159,7 +18177,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18200,7 +18218,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18241,7 +18259,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18282,7 +18300,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18323,7 +18341,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18364,7 +18382,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18405,7 +18423,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18446,7 +18464,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18487,7 +18505,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18528,7 +18546,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18569,7 +18587,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18610,7 +18628,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18651,7 +18669,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18692,7 +18710,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18733,7 +18751,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18774,7 +18792,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18815,7 +18833,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18856,7 +18874,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18897,7 +18915,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18938,7 +18956,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -18979,7 +18997,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -19020,7 +19038,7 @@
     <x v="7"/>
     <m/>
     <s v="HMS 80:20"/>
-    <x v="74"/>
+    <x v="77"/>
     <m/>
     <m/>
     <m/>
@@ -19061,7 +19079,7 @@
     <x v="8"/>
     <d v="2025-08-13T00:00:00"/>
     <s v="Turnnings"/>
-    <x v="75"/>
+    <x v="78"/>
     <n v="25.26"/>
     <d v="2025-08-28T00:00:00"/>
     <d v="2025-10-14T00:00:00"/>
@@ -19095,14 +19113,14 @@
     <s v="Nhava Sheva"/>
     <s v="PI-2025-000007"/>
     <s v="CI-2025-000011"/>
-    <s v="Pending"/>
+    <s v="Completed"/>
   </r>
   <r>
     <s v="Walter Heselwood Ltd"/>
     <x v="8"/>
     <d v="2025-08-13T00:00:00"/>
     <s v="Turnnings"/>
-    <x v="76"/>
+    <x v="79"/>
     <n v="25.86"/>
     <d v="2025-08-28T00:00:00"/>
     <d v="2025-10-14T00:00:00"/>
@@ -19136,7 +19154,7 @@
     <s v="Nhava Sheva"/>
     <s v="PI-2025-000007"/>
     <s v="CI-2025-000011"/>
-    <s v="Pending"/>
+    <s v="Completed"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -19163,7 +19181,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="79">
+      <items count="82">
         <item x="10"/>
         <item x="36"/>
         <item x="38"/>
@@ -19214,7 +19232,7 @@
         <item x="27"/>
         <item x="42"/>
         <item x="45"/>
-        <item x="74"/>
+        <item x="77"/>
         <item x="50"/>
         <item x="51"/>
         <item x="52"/>
@@ -19232,16 +19250,19 @@
         <item x="64"/>
         <item x="65"/>
         <item x="66"/>
-        <item m="1" x="77"/>
+        <item m="1" x="80"/>
         <item x="68"/>
         <item x="67"/>
         <item x="69"/>
-        <item x="75"/>
-        <item x="76"/>
+        <item x="78"/>
+        <item x="79"/>
         <item x="70"/>
         <item x="71"/>
         <item x="72"/>
         <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19535,7 +19556,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D9F7C9F-35DE-4B78-8D6A-04536891CED8}" name="PivotTable12" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21" rowHeaderCaption="Puchase Contract">
-  <location ref="A1:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:C24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -19555,7 +19576,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="79">
+      <items count="82">
         <item x="10"/>
         <item x="36"/>
         <item x="38"/>
@@ -19606,7 +19627,7 @@
         <item x="27"/>
         <item x="42"/>
         <item x="45"/>
-        <item x="74"/>
+        <item x="77"/>
         <item x="50"/>
         <item x="51"/>
         <item x="52"/>
@@ -19624,16 +19645,19 @@
         <item x="64"/>
         <item x="65"/>
         <item x="66"/>
-        <item m="1" x="77"/>
+        <item m="1" x="80"/>
         <item x="68"/>
         <item x="67"/>
         <item x="69"/>
-        <item x="75"/>
-        <item x="76"/>
+        <item x="78"/>
+        <item x="79"/>
         <item x="70"/>
         <item x="71"/>
         <item x="72"/>
         <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19678,7 +19702,7 @@
     <field x="1"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="23">
     <i>
       <x/>
     </i>
@@ -19708,6 +19732,15 @@
     </i>
     <i r="1">
       <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
     </i>
     <i>
       <x v="5"/>
@@ -20328,11 +20361,11 @@
   <dimension ref="A1:AO391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B8" sqref="B8"/>
       <selection pane="topRight" activeCell="B8" sqref="B8"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
-      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29980,7 +30013,9 @@
       <c r="S73" s="101">
         <v>1.3451</v>
       </c>
-      <c r="T73" s="3"/>
+      <c r="T73" s="3">
+        <v>45931</v>
+      </c>
       <c r="U73" s="7">
         <v>0</v>
       </c>
@@ -30097,7 +30132,9 @@
       <c r="S74" s="101">
         <v>1.3451</v>
       </c>
-      <c r="T74" s="3"/>
+      <c r="T74" s="3">
+        <v>45931</v>
+      </c>
       <c r="U74" s="7">
         <v>0</v>
       </c>
@@ -30214,7 +30251,9 @@
       <c r="S75" s="101">
         <v>1.3451</v>
       </c>
-      <c r="T75" s="3"/>
+      <c r="T75" s="3">
+        <v>45931</v>
+      </c>
       <c r="U75" s="7">
         <v>0</v>
       </c>
@@ -30331,7 +30370,9 @@
       <c r="S76" s="101">
         <v>1.3451</v>
       </c>
-      <c r="T76" s="3"/>
+      <c r="T76" s="3">
+        <v>45931</v>
+      </c>
       <c r="U76" s="7">
         <v>0</v>
       </c>
@@ -30405,10 +30446,17 @@
       <c r="D77" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F77" s="11"/>
+      <c r="E77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="11">
+        <v>23.58</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="J77" s="1" t="s">
         <v>126</v>
       </c>
@@ -30432,16 +30480,18 @@
       </c>
       <c r="Q77" s="7">
         <f>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</f>
-        <v>0</v>
-      </c>
-      <c r="R77" s="7" t="str">
+        <v>7121.16</v>
+      </c>
+      <c r="R77" s="7">
         <f>IF(CT[[#This Row],[BL Number]]&lt;&gt;0,(CT[[#This Row],[Supplier Prov. Price]]-CT[[#This Row],[Supplier Final Price]])*1.2,"")</f>
-        <v/>
+        <v>514.60800000000017</v>
       </c>
       <c r="S77" s="101">
         <v>1.3451</v>
       </c>
-      <c r="T77" s="3"/>
+      <c r="T77" s="3">
+        <v>45938</v>
+      </c>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="24"/>
@@ -30455,7 +30505,7 @@
       </c>
       <c r="Z77" s="7">
         <f>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v>0</v>
+        <v>778.14</v>
       </c>
       <c r="AA77" s="7"/>
       <c r="AB77" t="s">
@@ -30478,13 +30528,13 @@
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
         <v>8375</v>
       </c>
-      <c r="AH77" s="7" t="str">
+      <c r="AH77" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v/>
-      </c>
-      <c r="AI77" s="7" t="str">
+        <v>7899.2999999999993</v>
+      </c>
+      <c r="AI77" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v/>
+        <v>-475.70000000000073</v>
       </c>
       <c r="AJ77" t="s">
         <v>8</v>
@@ -30510,10 +30560,17 @@
       <c r="D78" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F78" s="11"/>
+      <c r="E78" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="11">
+        <v>22.45</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="J78" s="1" t="s">
         <v>126</v>
       </c>
@@ -30537,11 +30594,11 @@
       </c>
       <c r="Q78" s="7">
         <f>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</f>
-        <v>0</v>
-      </c>
-      <c r="R78" s="7" t="str">
+        <v>6779.9</v>
+      </c>
+      <c r="R78" s="7">
         <f>IF(CT[[#This Row],[BL Number]]&lt;&gt;0,(CT[[#This Row],[Supplier Prov. Price]]-CT[[#This Row],[Supplier Final Price]])*1.2,"")</f>
-        <v/>
+        <v>924.12000000000035</v>
       </c>
       <c r="S78" s="101">
         <v>1.3451</v>
@@ -30560,7 +30617,7 @@
       </c>
       <c r="Z78" s="7">
         <f>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v>0</v>
+        <v>740.85</v>
       </c>
       <c r="AA78" s="7"/>
       <c r="AB78" t="s">
@@ -30583,13 +30640,13 @@
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
         <v>8375</v>
       </c>
-      <c r="AH78" s="7" t="str">
+      <c r="AH78" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v/>
-      </c>
-      <c r="AI78" s="7" t="str">
+        <v>7520.75</v>
+      </c>
+      <c r="AI78" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v/>
+        <v>-854.25</v>
       </c>
       <c r="AJ78" t="s">
         <v>8</v>
@@ -30615,10 +30672,17 @@
       <c r="D79" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="3"/>
+      <c r="E79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" s="11">
+        <v>22.24</v>
+      </c>
+      <c r="G79" s="111"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="J79" s="1" t="s">
         <v>126</v>
       </c>
@@ -30642,11 +30706,11 @@
       </c>
       <c r="Q79" s="7">
         <f>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</f>
-        <v>0</v>
-      </c>
-      <c r="R79" s="7" t="str">
+        <v>6716.48</v>
+      </c>
+      <c r="R79" s="7">
         <f>IF(CT[[#This Row],[BL Number]]&lt;&gt;0,(CT[[#This Row],[Supplier Prov. Price]]-CT[[#This Row],[Supplier Final Price]])*1.2,"")</f>
-        <v/>
+        <v>1000.2240000000005</v>
       </c>
       <c r="S79" s="101">
         <v>1.3451</v>
@@ -30665,7 +30729,7 @@
       </c>
       <c r="Z79" s="7">
         <f>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v>0</v>
+        <v>733.92</v>
       </c>
       <c r="AA79" s="7"/>
       <c r="AB79" t="s">
@@ -30688,13 +30752,13 @@
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
         <v>8375</v>
       </c>
-      <c r="AH79" s="7" t="str">
+      <c r="AH79" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v/>
-      </c>
-      <c r="AI79" s="7" t="str">
+        <v>7450.4</v>
+      </c>
+      <c r="AI79" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v/>
+        <v>-924.60000000000036</v>
       </c>
       <c r="AJ79" t="s">
         <v>8</v>
@@ -30720,10 +30784,17 @@
       <c r="D80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="3"/>
+      <c r="E80" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="11">
+        <v>25.58</v>
+      </c>
+      <c r="G80" s="111"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="J80" s="1" t="s">
         <v>126</v>
       </c>
@@ -30747,11 +30818,11 @@
       </c>
       <c r="Q80" s="7">
         <f>CT[[#This Row],[Purchase Rate/MT (USD)]]*CT[[#This Row],[Container Qty]]</f>
-        <v>0</v>
-      </c>
-      <c r="R80" s="7" t="str">
+        <v>7725.16</v>
+      </c>
+      <c r="R80" s="7">
         <f>IF(CT[[#This Row],[BL Number]]&lt;&gt;0,(CT[[#This Row],[Supplier Prov. Price]]-CT[[#This Row],[Supplier Final Price]])*1.2,"")</f>
-        <v/>
+        <v>-210.19199999999981</v>
       </c>
       <c r="S80" s="101">
         <v>1.3451</v>
@@ -30770,7 +30841,7 @@
       </c>
       <c r="Z80" s="7">
         <f>IFERROR(CT[[#This Row],[Margin/MT]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v>0</v>
+        <v>844.14</v>
       </c>
       <c r="AA80" s="7"/>
       <c r="AB80" t="s">
@@ -30793,13 +30864,13 @@
         <f>CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[SC Qty (MT)]]</f>
         <v>8375</v>
       </c>
-      <c r="AH80" s="7" t="str">
+      <c r="AH80" s="7">
         <f>IF(CT[[#This Row],[Container Qty]]&lt;&gt;0,CT[[#This Row],[Sales Rate/MT (USD)]]*CT[[#This Row],[Container Qty]],"")</f>
-        <v/>
-      </c>
-      <c r="AI80" s="7" t="str">
+        <v>8569.2999999999993</v>
+      </c>
+      <c r="AI80" s="7">
         <f>IF(CT[[#This Row],[Customer Final Price]]&lt;&gt;"",CT[[#This Row],[Customer Final Price]]-CT[[#This Row],[Customer  Prov. Price]],"")</f>
-        <v/>
+        <v>194.29999999999927</v>
       </c>
       <c r="AJ80" t="s">
         <v>8</v>
@@ -58081,7 +58152,7 @@
       <c r="C375" s="3"/>
       <c r="F375" s="13">
         <f>SUBTOTAL(109,CT[Container Qty])</f>
-        <v>1839.58</v>
+        <v>1933.4299999999998</v>
       </c>
       <c r="G375" s="1"/>
       <c r="H375" s="31" t="s">
@@ -58089,7 +58160,7 @@
       </c>
       <c r="I375" s="98">
         <f>CT[[#Totals],[PC Qty (MT)]]-CT[[#Totals],[Container Qty]]</f>
-        <v>7451.5400000000009</v>
+        <v>7357.6900000000005</v>
       </c>
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
@@ -58109,11 +58180,11 @@
       </c>
       <c r="Q375" s="16">
         <f>SUBTOTAL(109,CT[Supplier Final Price])</f>
-        <v>576062.51402400027</v>
+        <v>604405.21402400034</v>
       </c>
       <c r="R375" s="16">
         <f>SUBTOTAL(109,CT[Supplier Price Diff. (VAT incl.)])</f>
-        <v>22942.358207999987</v>
+        <v>25171.118207999989</v>
       </c>
       <c r="S375" s="16"/>
       <c r="T375" s="103"/>
@@ -58139,7 +58210,7 @@
       </c>
       <c r="Z375" s="16">
         <f>SUBTOTAL(109,CT[Gross Margin])</f>
-        <v>41457.809000999994</v>
+        <v>44554.85900099999</v>
       </c>
       <c r="AA375" s="16"/>
       <c r="AC375" s="1"/>
@@ -58158,11 +58229,11 @@
       </c>
       <c r="AH375" s="16">
         <f>SUBTOTAL(109,CT[Customer Final Price])</f>
-        <v>642248.45000000007</v>
+        <v>673688.20000000019</v>
       </c>
       <c r="AI375" s="16">
         <f>SUBTOTAL(109,CT[Customer Price Difference])</f>
-        <v>-17987.549999999996</v>
+        <v>-20047.8</v>
       </c>
       <c r="AK375" s="1"/>
       <c r="AO375" s="7">
@@ -58194,7 +58265,7 @@
       <c r="Y376" s="1"/>
       <c r="Z376" s="24">
         <f>CT[[#Totals],[Gross Margin]]/M380</f>
-        <v>31944.682540453068</v>
+        <v>34331.06719140082</v>
       </c>
       <c r="AA376" s="7"/>
       <c r="AD376" s="1"/>
@@ -58245,11 +58316,11 @@
       </c>
       <c r="P378" s="84">
         <f>CT[[#Totals],[Supplier Final Price]]*0.2</f>
-        <v>115212.50280480005</v>
+        <v>120881.04280480008</v>
       </c>
       <c r="Q378" s="40" cm="1">
         <f t="array" ref="Q378">O378-_xlfn.ANCHORARRAY(P378)</f>
-        <v>88504.266367999953</v>
+        <v>82835.726367999931</v>
       </c>
       <c r="R378" s="7"/>
       <c r="S378" s="7"/>
@@ -58271,11 +58342,11 @@
       </c>
       <c r="P379" s="85">
         <f>CT[[#Totals],[Supplier Final Price]]+P378</f>
-        <v>691275.01682880032</v>
+        <v>725286.25682880043</v>
       </c>
       <c r="Q379" s="40" cm="1">
         <f t="array" ref="Q379">O379-_xlfn.ANCHORARRAY(P379)</f>
-        <v>531025.59820799972</v>
+        <v>497014.35820799961</v>
       </c>
       <c r="R379" s="7"/>
       <c r="S379" s="7"/>
@@ -58302,7 +58373,7 @@
       </c>
       <c r="P380" s="84">
         <f>CT[[#Totals],[Supplier Final Price]]/M380</f>
-        <v>443876.18587147497</v>
+        <v>465715.22116196662</v>
       </c>
       <c r="Q380" s="7"/>
       <c r="R380" s="7"/>
@@ -58332,7 +58403,7 @@
       </c>
       <c r="P381" s="84">
         <f>P380*0.2</f>
-        <v>88775.237174295005</v>
+        <v>93143.044232393324</v>
       </c>
       <c r="Q381" s="7"/>
       <c r="R381" s="7"/>
@@ -58351,7 +58422,7 @@
       </c>
       <c r="P382" s="86">
         <f>P380+P381</f>
-        <v>532651.42304577003</v>
+        <v>558858.26539435994</v>
       </c>
       <c r="Q382" s="7"/>
       <c r="R382" s="7"/>
@@ -58379,15 +58450,15 @@
       </c>
       <c r="O384" s="83">
         <f>CT[[#Totals],[Customer Final Price]]/M380</f>
-        <v>494874.74957620591</v>
+        <v>519100.16951764538</v>
       </c>
       <c r="P384" s="83">
         <f>CT[[#Totals],[Supplier Final Price]]/M380</f>
-        <v>443876.18587147497</v>
+        <v>465715.22116196662</v>
       </c>
       <c r="Q384" s="88">
         <f>O384-P384-(CT[[#Totals],[Cost Per MT]]*CT[[#Totals],[Container Qty]])/1.2978</f>
-        <v>47139.180331818388</v>
+        <v>49328.670512535042</v>
       </c>
       <c r="R384" s="7"/>
       <c r="T384" s="7"/>
@@ -58702,19 +58773,19 @@
         <v>500</v>
       </c>
       <c r="C9" s="109">
-        <v>99.41</v>
+        <v>145.44</v>
       </c>
       <c r="D9" s="39">
-        <v>-400.59000000000003</v>
+        <v>-354.56</v>
       </c>
       <c r="E9" s="7">
-        <v>30021.82</v>
+        <v>43922.879999999997</v>
       </c>
       <c r="F9" s="7">
-        <v>33302.35</v>
+        <v>48722.399999999994</v>
       </c>
       <c r="G9" s="7">
-        <v>2910.627500000001</v>
+        <v>4429.6175000000012</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -58938,19 +59009,19 @@
         <v>9291.1200000000008</v>
       </c>
       <c r="C17" s="110">
-        <v>1839.58</v>
+        <v>1885.61</v>
       </c>
       <c r="D17" s="45">
-        <v>-7451.5400000000009</v>
+        <v>-7405.5100000000011</v>
       </c>
       <c r="E17" s="35">
-        <v>576062.51402400003</v>
+        <v>589963.57402400009</v>
       </c>
       <c r="F17" s="35">
-        <v>642248.44999999995</v>
+        <v>657668.5</v>
       </c>
       <c r="G17" s="35">
-        <v>41457.809000999994</v>
+        <v>42976.799000999992</v>
       </c>
       <c r="H17" s="69"/>
       <c r="I17" s="70"/>
@@ -59107,7 +59178,7 @@
       </c>
       <c r="K24" s="65">
         <f>SUMIFS(CT[Container Qty],CT[SC'#],Pivot!H24)</f>
-        <v>99.41</v>
+        <v>193.26</v>
       </c>
       <c r="L24" s="66">
         <f>_xlfn.XLOOKUP(H24,CT[SC'#],CT[Sales Rate/MT (USD)])</f>
@@ -59119,11 +59190,11 @@
       </c>
       <c r="N24" s="67">
         <f>K24*L24</f>
-        <v>33302.35</v>
+        <v>64742.1</v>
       </c>
       <c r="O24" s="68">
         <f>IF(N24&lt;&gt;0,N24-M24,-M24)</f>
-        <v>-2466697.65</v>
+        <v>-2435257.9</v>
       </c>
       <c r="P24" s="64"/>
     </row>
@@ -59137,7 +59208,7 @@
       <c r="N25" s="79"/>
       <c r="O25" s="59">
         <f>SUM(O21:O24)</f>
-        <v>-2484487.5499999998</v>
+        <v>-2453047.7999999998</v>
       </c>
       <c r="P25" s="80"/>
     </row>
@@ -59252,7 +59323,7 @@
       </c>
       <c r="K32" s="93">
         <f>GETPIVOTDATA(" Container Qty (MT)",$A$3,"PC#","PC-2025-000005")</f>
-        <v>99.41</v>
+        <v>145.44</v>
       </c>
       <c r="L32" s="94">
         <f t="shared" si="0"/>
@@ -59271,7 +59342,7 @@
       </c>
       <c r="K33" s="93">
         <f>GETPIVOTDATA(" Container Qty (MT)",$A$3,"PC#","PC-2025-000005")</f>
-        <v>99.41</v>
+        <v>145.44</v>
       </c>
       <c r="L33" s="94">
         <f>IF(I33="Completed",K33-J33,0)</f>
@@ -59297,6 +59368,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C697828-23E9-4963-86C3-26036037D938}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59470,7 +59542,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456D8CC9-D122-408F-B3F0-8FA8009EA8FB}">
-  <dimension ref="A1:F21"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -59576,10 +59649,10 @@
         <v>124</v>
       </c>
       <c r="B6" s="7">
-        <v>2910.627500000001</v>
+        <v>4429.6175000000012</v>
       </c>
       <c r="C6" s="109">
-        <v>99.41</v>
+        <v>145.44</v>
       </c>
       <c r="E6" s="55"/>
       <c r="F6" s="56"/>
@@ -59648,30 +59721,34 @@
       <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>127</v>
+      <c r="A12" s="51" t="s">
+        <v>207</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="109"/>
+        <v>778.14</v>
+      </c>
+      <c r="C12" s="109">
+        <v>23.58</v>
+      </c>
       <c r="E12" s="55"/>
       <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="109"/>
+        <v>740.85</v>
+      </c>
+      <c r="C13" s="109">
+        <v>22.45</v>
+      </c>
       <c r="E13" s="55"/>
       <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>173</v>
+      <c r="A14" s="51" t="s">
+        <v>209</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -59681,7 +59758,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B15" s="7">
@@ -59692,8 +59769,8 @@
       <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>189</v>
+      <c r="A16" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -59703,8 +59780,8 @@
       <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>127</v>
+      <c r="A17" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
@@ -59714,49 +59791,76 @@
       <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>201</v>
+      <c r="A18" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="B18" s="7">
-        <v>383.71532000000042</v>
-      </c>
-      <c r="C18" s="109">
-        <v>51.120000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C18" s="109"/>
       <c r="E18" s="55"/>
       <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>185</v>
+      <c r="A19" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="B19" s="7">
-        <v>172.51660765258194</v>
-      </c>
-      <c r="C19" s="109">
-        <v>25.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C19" s="109"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="B20" s="7">
-        <v>211.19871234741848</v>
-      </c>
-      <c r="C20" s="109">
-        <v>25.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C20" s="109"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="7">
+        <v>383.71532000000042</v>
+      </c>
+      <c r="C21" s="109">
+        <v>51.120000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="7">
+        <v>172.51660765258194</v>
+      </c>
+      <c r="C22" s="109">
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="7">
+        <v>211.19871234741848</v>
+      </c>
+      <c r="C23" s="109">
+        <v>25.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="35">
-        <v>41457.809001000001</v>
-      </c>
-      <c r="C21" s="110">
-        <v>1839.58</v>
+      <c r="B24" s="35">
+        <v>42976.799000999999</v>
+      </c>
+      <c r="C24" s="110">
+        <v>1885.61</v>
       </c>
     </row>
   </sheetData>
